--- a/data/imf_total_exports_2021A.xlsx
+++ b/data/imf_total_exports_2021A.xlsx
@@ -391,7 +391,7 @@
         <v>44197</v>
       </c>
       <c r="B2">
-        <v>923957548421</v>
+        <v>931832970860</v>
       </c>
       <c r="C2" t="inlineStr">
         <is>
@@ -409,7 +409,7 @@
         <v>44562</v>
       </c>
       <c r="B3">
-        <v>1288552086405</v>
+        <v>1298438318851</v>
       </c>
       <c r="C3" t="inlineStr">
         <is>
@@ -427,7 +427,7 @@
         <v>44197</v>
       </c>
       <c r="B4">
-        <v>81241039013</v>
+        <v>81242198201</v>
       </c>
       <c r="C4" t="inlineStr">
         <is>
@@ -445,7 +445,7 @@
         <v>44562</v>
       </c>
       <c r="B5">
-        <v>125924553794</v>
+        <v>125519266562</v>
       </c>
       <c r="C5" t="inlineStr">
         <is>
@@ -481,7 +481,7 @@
         <v>44562</v>
       </c>
       <c r="B7">
-        <v>96437281520</v>
+        <v>96380379919</v>
       </c>
       <c r="C7" t="inlineStr">
         <is>
@@ -499,7 +499,7 @@
         <v>44197</v>
       </c>
       <c r="B8">
-        <v>1412421864</v>
+        <v>1412707743</v>
       </c>
       <c r="C8" t="inlineStr">
         <is>
@@ -517,7 +517,7 @@
         <v>44562</v>
       </c>
       <c r="B9">
-        <v>1578136745</v>
+        <v>1582117115</v>
       </c>
       <c r="C9" t="inlineStr">
         <is>
@@ -553,7 +553,7 @@
         <v>44562</v>
       </c>
       <c r="B11">
-        <v>615603303288</v>
+        <v>608427252827</v>
       </c>
       <c r="C11" t="inlineStr">
         <is>
@@ -589,7 +589,7 @@
         <v>44562</v>
       </c>
       <c r="B13">
-        <v>196139233235</v>
+        <v>196469644467</v>
       </c>
       <c r="C13" t="inlineStr">
         <is>
@@ -643,7 +643,7 @@
         <v>44197</v>
       </c>
       <c r="B16">
-        <v>6036186861</v>
+        <v>6036187305</v>
       </c>
       <c r="C16" t="inlineStr">
         <is>
@@ -661,7 +661,7 @@
         <v>44562</v>
       </c>
       <c r="B17">
-        <v>6585336822</v>
+        <v>6585479341</v>
       </c>
       <c r="C17" t="inlineStr">
         <is>
@@ -679,7 +679,7 @@
         <v>44197</v>
       </c>
       <c r="B18">
-        <v>505755705</v>
+        <v>505755718</v>
       </c>
       <c r="C18" t="inlineStr">
         <is>
@@ -697,7 +697,7 @@
         <v>44562</v>
       </c>
       <c r="B19">
-        <v>742312921</v>
+        <v>742312919</v>
       </c>
       <c r="C19" t="inlineStr">
         <is>
@@ -715,7 +715,7 @@
         <v>44197</v>
       </c>
       <c r="B20">
-        <v>5194857138</v>
+        <v>5194857137</v>
       </c>
       <c r="C20" t="inlineStr">
         <is>
@@ -751,7 +751,7 @@
         <v>44197</v>
       </c>
       <c r="B22">
-        <v>3297998941</v>
+        <v>3297998956</v>
       </c>
       <c r="C22" t="inlineStr">
         <is>
@@ -769,7 +769,7 @@
         <v>44562</v>
       </c>
       <c r="B23">
-        <v>4336667215</v>
+        <v>4316033707</v>
       </c>
       <c r="C23" t="inlineStr">
         <is>
@@ -787,7 +787,7 @@
         <v>44197</v>
       </c>
       <c r="B24">
-        <v>5092924143873</v>
+        <v>5099609434461</v>
       </c>
       <c r="C24" t="inlineStr">
         <is>
@@ -805,7 +805,7 @@
         <v>44562</v>
       </c>
       <c r="B25">
-        <v>5590618781466</v>
+        <v>5598374109900</v>
       </c>
       <c r="C25" t="inlineStr">
         <is>
@@ -823,7 +823,7 @@
         <v>44197</v>
       </c>
       <c r="B26">
-        <v>1486469253893</v>
+        <v>1486388642154</v>
       </c>
       <c r="C26" t="inlineStr">
         <is>
@@ -841,7 +841,7 @@
         <v>44562</v>
       </c>
       <c r="B27">
-        <v>1624036074958</v>
+        <v>1508822443775</v>
       </c>
       <c r="C27" t="inlineStr">
         <is>
@@ -859,7 +859,7 @@
         <v>44197</v>
       </c>
       <c r="B28">
-        <v>15469851270</v>
+        <v>15494335746</v>
       </c>
       <c r="C28" t="inlineStr">
         <is>
@@ -877,7 +877,7 @@
         <v>44562</v>
       </c>
       <c r="B29">
-        <v>16667143963</v>
+        <v>16708529940</v>
       </c>
       <c r="C29" t="inlineStr">
         <is>
@@ -913,7 +913,7 @@
         <v>44562</v>
       </c>
       <c r="B31">
-        <v>1400847357</v>
+        <v>1232378609</v>
       </c>
       <c r="C31" t="inlineStr">
         <is>
@@ -931,7 +931,7 @@
         <v>44197</v>
       </c>
       <c r="B32">
-        <v>5121416615</v>
+        <v>5122566791</v>
       </c>
       <c r="C32" t="inlineStr">
         <is>
@@ -949,7 +949,7 @@
         <v>44562</v>
       </c>
       <c r="B33">
-        <v>7420726279</v>
+        <v>7395327350</v>
       </c>
       <c r="C33" t="inlineStr">
         <is>
@@ -967,7 +967,7 @@
         <v>44197</v>
       </c>
       <c r="B34">
-        <v>35116206439</v>
+        <v>35116206221</v>
       </c>
       <c r="C34" t="inlineStr">
         <is>
@@ -985,7 +985,7 @@
         <v>44562</v>
       </c>
       <c r="B35">
-        <v>51443392823</v>
+        <v>51443394806</v>
       </c>
       <c r="C35" t="inlineStr">
         <is>
@@ -1003,7 +1003,7 @@
         <v>44197</v>
       </c>
       <c r="B36">
-        <v>7898242550</v>
+        <v>7898507259</v>
       </c>
       <c r="C36" t="inlineStr">
         <is>
@@ -1021,7 +1021,7 @@
         <v>44562</v>
       </c>
       <c r="B37">
-        <v>9517767893</v>
+        <v>9582742525</v>
       </c>
       <c r="C37" t="inlineStr">
         <is>
@@ -1201,7 +1201,7 @@
         <v>44562</v>
       </c>
       <c r="B47">
-        <v>33877525355</v>
+        <v>34108488636</v>
       </c>
       <c r="C47" t="inlineStr">
         <is>
@@ -1219,7 +1219,7 @@
         <v>44197</v>
       </c>
       <c r="B48">
-        <v>5152621568</v>
+        <v>5171926104</v>
       </c>
       <c r="C48" t="inlineStr">
         <is>
@@ -1237,7 +1237,7 @@
         <v>44562</v>
       </c>
       <c r="B49">
-        <v>7384167585</v>
+        <v>7427491977</v>
       </c>
       <c r="C49" t="inlineStr">
         <is>
@@ -1309,7 +1309,7 @@
         <v>44562</v>
       </c>
       <c r="B53">
-        <v>4335076534</v>
+        <v>4332145453</v>
       </c>
       <c r="C53" t="inlineStr">
         <is>
@@ -1327,7 +1327,7 @@
         <v>44197</v>
       </c>
       <c r="B54">
-        <v>1704032166</v>
+        <v>1724342954</v>
       </c>
       <c r="C54" t="inlineStr">
         <is>
@@ -1345,7 +1345,7 @@
         <v>44562</v>
       </c>
       <c r="B55">
-        <v>1345732982</v>
+        <v>1364843892</v>
       </c>
       <c r="C55" t="inlineStr">
         <is>
@@ -1363,7 +1363,7 @@
         <v>44197</v>
       </c>
       <c r="B56">
-        <v>7285226984</v>
+        <v>11490548347</v>
       </c>
       <c r="C56" t="inlineStr">
         <is>
@@ -1381,7 +1381,7 @@
         <v>44562</v>
       </c>
       <c r="B57">
-        <v>9653378840</v>
+        <v>16429718979</v>
       </c>
       <c r="C57" t="inlineStr">
         <is>
@@ -1399,7 +1399,7 @@
         <v>44197</v>
       </c>
       <c r="B58">
-        <v>55600407282</v>
+        <v>57459696350</v>
       </c>
       <c r="C58" t="inlineStr">
         <is>
@@ -1417,7 +1417,7 @@
         <v>44562</v>
       </c>
       <c r="B59">
-        <v>64546666048</v>
+        <v>65927832159</v>
       </c>
       <c r="C59" t="inlineStr">
         <is>
@@ -1507,7 +1507,7 @@
         <v>44197</v>
       </c>
       <c r="B64">
-        <v>3294590763</v>
+        <v>3294378371</v>
       </c>
       <c r="C64" t="inlineStr">
         <is>
@@ -1525,7 +1525,7 @@
         <v>44562</v>
       </c>
       <c r="B65">
-        <v>3335616617</v>
+        <v>3346063985</v>
       </c>
       <c r="C65" t="inlineStr">
         <is>
@@ -1579,7 +1579,7 @@
         <v>44197</v>
       </c>
       <c r="B68">
-        <v>29541141</v>
+        <v>29557360</v>
       </c>
       <c r="C68" t="inlineStr">
         <is>
@@ -1597,7 +1597,7 @@
         <v>44562</v>
       </c>
       <c r="B69">
-        <v>43631645</v>
+        <v>37173073</v>
       </c>
       <c r="C69" t="inlineStr">
         <is>
@@ -1723,7 +1723,7 @@
         <v>44197</v>
       </c>
       <c r="B76">
-        <v>18460488067</v>
+        <v>18460488066</v>
       </c>
       <c r="C76" t="inlineStr">
         <is>
@@ -1759,7 +1759,7 @@
         <v>44197</v>
       </c>
       <c r="B78">
-        <v>722807958</v>
+        <v>721832971</v>
       </c>
       <c r="C78" t="inlineStr">
         <is>
@@ -1777,7 +1777,7 @@
         <v>44562</v>
       </c>
       <c r="B79">
-        <v>465551857</v>
+        <v>549439467</v>
       </c>
       <c r="C79" t="inlineStr">
         <is>
@@ -1795,7 +1795,7 @@
         <v>44197</v>
       </c>
       <c r="B80">
-        <v>1019963141</v>
+        <v>1066013033</v>
       </c>
       <c r="C80" t="inlineStr">
         <is>
@@ -1813,7 +1813,7 @@
         <v>44562</v>
       </c>
       <c r="B81">
-        <v>878346467</v>
+        <v>909534600</v>
       </c>
       <c r="C81" t="inlineStr">
         <is>
@@ -1831,7 +1831,7 @@
         <v>44197</v>
       </c>
       <c r="B82">
-        <v>4256698486</v>
+        <v>4256700494</v>
       </c>
       <c r="C82" t="inlineStr">
         <is>
@@ -1849,7 +1849,7 @@
         <v>44562</v>
       </c>
       <c r="B83">
-        <v>8122730360</v>
+        <v>8111664618</v>
       </c>
       <c r="C83" t="inlineStr">
         <is>
@@ -1867,7 +1867,7 @@
         <v>44197</v>
       </c>
       <c r="B84">
-        <v>578842481</v>
+        <v>563943605</v>
       </c>
       <c r="C84" t="inlineStr">
         <is>
@@ -1885,7 +1885,7 @@
         <v>44562</v>
       </c>
       <c r="B85">
-        <v>1956979381</v>
+        <v>1941469457</v>
       </c>
       <c r="C85" t="inlineStr">
         <is>
@@ -1921,7 +1921,7 @@
         <v>44562</v>
       </c>
       <c r="B87">
-        <v>654552215367</v>
+        <v>648422801033</v>
       </c>
       <c r="C87" t="inlineStr">
         <is>
@@ -1939,7 +1939,7 @@
         <v>44197</v>
       </c>
       <c r="B88">
-        <v>1196847842</v>
+        <v>1196853291</v>
       </c>
       <c r="C88" t="inlineStr">
         <is>
@@ -1993,7 +1993,7 @@
         <v>44562</v>
       </c>
       <c r="B91">
-        <v>25328874248</v>
+        <v>25436784299</v>
       </c>
       <c r="C91" t="inlineStr">
         <is>
@@ -2011,7 +2011,7 @@
         <v>44197</v>
       </c>
       <c r="B92">
-        <v>65826467476.00001</v>
+        <v>65826467475</v>
       </c>
       <c r="C92" t="inlineStr">
         <is>
@@ -2029,7 +2029,7 @@
         <v>44562</v>
       </c>
       <c r="B93">
-        <v>44443200594</v>
+        <v>44443200595</v>
       </c>
       <c r="C93" t="inlineStr">
         <is>
@@ -2047,7 +2047,7 @@
         <v>44197</v>
       </c>
       <c r="B94">
-        <v>1061393067274</v>
+        <v>1059579820711</v>
       </c>
       <c r="C94" t="inlineStr">
         <is>
@@ -2065,7 +2065,7 @@
         <v>44562</v>
       </c>
       <c r="B95">
-        <v>1469675955997</v>
+        <v>1461697756023</v>
       </c>
       <c r="C95" t="inlineStr">
         <is>
@@ -2101,7 +2101,7 @@
         <v>44562</v>
       </c>
       <c r="B97">
-        <v>57227543992</v>
+        <v>57387649661</v>
       </c>
       <c r="C97" t="inlineStr">
         <is>
@@ -2119,7 +2119,7 @@
         <v>44197</v>
       </c>
       <c r="B98">
-        <v>2740679398</v>
+        <v>2698876256</v>
       </c>
       <c r="C98" t="inlineStr">
         <is>
@@ -2137,7 +2137,7 @@
         <v>44562</v>
       </c>
       <c r="B99">
-        <v>4045901735</v>
+        <v>3938146264</v>
       </c>
       <c r="C99" t="inlineStr">
         <is>
@@ -2173,7 +2173,7 @@
         <v>44562</v>
       </c>
       <c r="B101">
-        <v>209657726923</v>
+        <v>211793590664</v>
       </c>
       <c r="C101" t="inlineStr">
         <is>
@@ -2191,7 +2191,7 @@
         <v>44197</v>
       </c>
       <c r="B102">
-        <v>18130661522</v>
+        <v>18104156865</v>
       </c>
       <c r="C102" t="inlineStr">
         <is>
@@ -2209,7 +2209,7 @@
         <v>44562</v>
       </c>
       <c r="B103">
-        <v>18653677394</v>
+        <v>18706820262</v>
       </c>
       <c r="C103" t="inlineStr">
         <is>
@@ -2227,7 +2227,7 @@
         <v>44197</v>
       </c>
       <c r="B104">
-        <v>7692509372723</v>
+        <v>7687077959901</v>
       </c>
       <c r="C104" t="inlineStr">
         <is>
@@ -2245,7 +2245,7 @@
         <v>44562</v>
       </c>
       <c r="B105">
-        <v>8502075895727.999</v>
+        <v>8482047534154</v>
       </c>
       <c r="C105" t="inlineStr">
         <is>
@@ -2263,7 +2263,7 @@
         <v>44197</v>
       </c>
       <c r="B106">
-        <v>127497550</v>
+        <v>128267762</v>
       </c>
       <c r="C106" t="inlineStr">
         <is>
@@ -2281,7 +2281,7 @@
         <v>44562</v>
       </c>
       <c r="B107">
-        <v>84447602</v>
+        <v>96962921</v>
       </c>
       <c r="C107" t="inlineStr">
         <is>
@@ -2299,7 +2299,7 @@
         <v>44197</v>
       </c>
       <c r="B108">
-        <v>4019798222</v>
+        <v>3718759418</v>
       </c>
       <c r="C108" t="inlineStr">
         <is>
@@ -2317,7 +2317,7 @@
         <v>44562</v>
       </c>
       <c r="B109">
-        <v>4493168519</v>
+        <v>3844797547</v>
       </c>
       <c r="C109" t="inlineStr">
         <is>
@@ -2353,7 +2353,7 @@
         <v>44562</v>
       </c>
       <c r="B111">
-        <v>254170939731</v>
+        <v>254169747663</v>
       </c>
       <c r="C111" t="inlineStr">
         <is>
@@ -2389,7 +2389,7 @@
         <v>44562</v>
       </c>
       <c r="B113">
-        <v>22334797902</v>
+        <v>21751886191</v>
       </c>
       <c r="C113" t="inlineStr">
         <is>
@@ -2407,7 +2407,7 @@
         <v>44197</v>
       </c>
       <c r="B114">
-        <v>406284975</v>
+        <v>406202230</v>
       </c>
       <c r="C114" t="inlineStr">
         <is>
@@ -2425,7 +2425,7 @@
         <v>44562</v>
       </c>
       <c r="B115">
-        <v>488350219</v>
+        <v>491412226</v>
       </c>
       <c r="C115" t="inlineStr">
         <is>
@@ -2443,7 +2443,7 @@
         <v>44197</v>
       </c>
       <c r="B116">
-        <v>122354020995</v>
+        <v>122354021009</v>
       </c>
       <c r="C116" t="inlineStr">
         <is>
@@ -2461,7 +2461,7 @@
         <v>44562</v>
       </c>
       <c r="B117">
-        <v>123387268738</v>
+        <v>123387268745</v>
       </c>
       <c r="C117" t="inlineStr">
         <is>
@@ -2479,7 +2479,7 @@
         <v>44197</v>
       </c>
       <c r="B118">
-        <v>456881520146</v>
+        <v>456881520150</v>
       </c>
       <c r="C118" t="inlineStr">
         <is>
@@ -2515,7 +2515,7 @@
         <v>44197</v>
       </c>
       <c r="B120">
-        <v>74619446080</v>
+        <v>74619429715</v>
       </c>
       <c r="C120" t="inlineStr">
         <is>
@@ -2533,7 +2533,7 @@
         <v>44562</v>
       </c>
       <c r="B121">
-        <v>80734485395</v>
+        <v>80728453068</v>
       </c>
       <c r="C121" t="inlineStr">
         <is>
@@ -2551,7 +2551,7 @@
         <v>44197</v>
       </c>
       <c r="B122">
-        <v>13635511756</v>
+        <v>13635511752</v>
       </c>
       <c r="C122" t="inlineStr">
         <is>
@@ -2569,7 +2569,7 @@
         <v>44562</v>
       </c>
       <c r="B123">
-        <v>15683554938</v>
+        <v>15683554940</v>
       </c>
       <c r="C123" t="inlineStr">
         <is>
@@ -2605,7 +2605,7 @@
         <v>44562</v>
       </c>
       <c r="B125">
-        <v>83017129271</v>
+        <v>82922388603</v>
       </c>
       <c r="C125" t="inlineStr">
         <is>
@@ -2623,7 +2623,7 @@
         <v>44197</v>
       </c>
       <c r="B126">
-        <v>5201138542</v>
+        <v>5201138543</v>
       </c>
       <c r="C126" t="inlineStr">
         <is>
@@ -2659,7 +2659,7 @@
         <v>44197</v>
       </c>
       <c r="B128">
-        <v>391008823943</v>
+        <v>390887092509</v>
       </c>
       <c r="C128" t="inlineStr">
         <is>
@@ -2677,7 +2677,7 @@
         <v>44562</v>
       </c>
       <c r="B129">
-        <v>459376538761</v>
+        <v>455254916957</v>
       </c>
       <c r="C129" t="inlineStr">
         <is>
@@ -2695,7 +2695,7 @@
         <v>44197</v>
       </c>
       <c r="B130">
-        <v>12012793560</v>
+        <v>2371167616</v>
       </c>
       <c r="C130" t="inlineStr">
         <is>
@@ -2713,7 +2713,7 @@
         <v>44562</v>
       </c>
       <c r="B131">
-        <v>21613691741</v>
+        <v>3312711201</v>
       </c>
       <c r="C131" t="inlineStr">
         <is>
@@ -2767,7 +2767,7 @@
         <v>44197</v>
       </c>
       <c r="B134">
-        <v>203316373</v>
+        <v>208740589</v>
       </c>
       <c r="C134" t="inlineStr">
         <is>
@@ -2785,7 +2785,7 @@
         <v>44562</v>
       </c>
       <c r="B135">
-        <v>254140224</v>
+        <v>261610513</v>
       </c>
       <c r="C135" t="inlineStr">
         <is>
@@ -2803,7 +2803,7 @@
         <v>44197</v>
       </c>
       <c r="B136">
-        <v>5180777128</v>
+        <v>4842385583</v>
       </c>
       <c r="C136" t="inlineStr">
         <is>
@@ -2821,7 +2821,7 @@
         <v>44562</v>
       </c>
       <c r="B137">
-        <v>5301569113</v>
+        <v>4971279534</v>
       </c>
       <c r="C137" t="inlineStr">
         <is>
@@ -2857,7 +2857,7 @@
         <v>44562</v>
       </c>
       <c r="B139">
-        <v>50653770284</v>
+        <v>48574978240</v>
       </c>
       <c r="C139" t="inlineStr">
         <is>
@@ -2911,7 +2911,7 @@
         <v>44197</v>
       </c>
       <c r="B142">
-        <v>26345747048</v>
+        <v>26699155442</v>
       </c>
       <c r="C142" t="inlineStr">
         <is>
@@ -2929,7 +2929,7 @@
         <v>44562</v>
       </c>
       <c r="B143">
-        <v>37467155285</v>
+        <v>32626881665</v>
       </c>
       <c r="C143" t="inlineStr">
         <is>
@@ -2965,7 +2965,7 @@
         <v>44562</v>
       </c>
       <c r="B145">
-        <v>17405315871</v>
+        <v>17222790724</v>
       </c>
       <c r="C145" t="inlineStr">
         <is>
@@ -2983,7 +2983,7 @@
         <v>44197</v>
       </c>
       <c r="B146">
-        <v>1642747786369</v>
+        <v>1653129707306</v>
       </c>
       <c r="C146" t="inlineStr">
         <is>
@@ -3001,7 +3001,7 @@
         <v>44562</v>
       </c>
       <c r="B147">
-        <v>2201511107421</v>
+        <v>2095283804509</v>
       </c>
       <c r="C147" t="inlineStr">
         <is>
@@ -3019,7 +3019,7 @@
         <v>44197</v>
       </c>
       <c r="B148">
-        <v>160306668845</v>
+        <v>172992465489</v>
       </c>
       <c r="C148" t="inlineStr">
         <is>
@@ -3037,7 +3037,7 @@
         <v>44562</v>
       </c>
       <c r="B149">
-        <v>270865654988</v>
+        <v>277041256599</v>
       </c>
       <c r="C149" t="inlineStr">
         <is>
@@ -3055,7 +3055,7 @@
         <v>44197</v>
       </c>
       <c r="B150">
-        <v>72403137</v>
+        <v>45569989</v>
       </c>
       <c r="C150" t="inlineStr">
         <is>
@@ -3073,7 +3073,7 @@
         <v>44562</v>
       </c>
       <c r="B151">
-        <v>73186313</v>
+        <v>44389196</v>
       </c>
       <c r="C151" t="inlineStr">
         <is>
@@ -3091,7 +3091,7 @@
         <v>44197</v>
       </c>
       <c r="B152">
-        <v>575245613404</v>
+        <v>560850260778</v>
       </c>
       <c r="C152" t="inlineStr">
         <is>
@@ -3109,7 +3109,7 @@
         <v>44562</v>
       </c>
       <c r="B153">
-        <v>701474139003</v>
+        <v>673633949590</v>
       </c>
       <c r="C153" t="inlineStr">
         <is>
@@ -3145,7 +3145,7 @@
         <v>44562</v>
       </c>
       <c r="B155">
-        <v>320067204</v>
+        <v>320067201</v>
       </c>
       <c r="C155" t="inlineStr">
         <is>
@@ -3163,7 +3163,7 @@
         <v>44197</v>
       </c>
       <c r="B156">
-        <v>17606343314</v>
+        <v>19471536170</v>
       </c>
       <c r="C156" t="inlineStr">
         <is>
@@ -3181,7 +3181,7 @@
         <v>44562</v>
       </c>
       <c r="B157">
-        <v>23278177097</v>
+        <v>22606585827</v>
       </c>
       <c r="C157" t="inlineStr">
         <is>
@@ -3217,7 +3217,7 @@
         <v>44562</v>
       </c>
       <c r="B159">
-        <v>1642471374456</v>
+        <v>1650518039397</v>
       </c>
       <c r="C159" t="inlineStr">
         <is>
@@ -3235,7 +3235,7 @@
         <v>44197</v>
       </c>
       <c r="B160">
-        <v>9335257159092</v>
+        <v>9340207667207</v>
       </c>
       <c r="C160" t="inlineStr">
         <is>
@@ -3253,7 +3253,7 @@
         <v>44562</v>
       </c>
       <c r="B161">
-        <v>10703587003149</v>
+        <v>10577331338663</v>
       </c>
       <c r="C161" t="inlineStr">
         <is>
@@ -3271,7 +3271,7 @@
         <v>44197</v>
       </c>
       <c r="B162">
-        <v>29717291905</v>
+        <v>27353718053</v>
       </c>
       <c r="C162" t="inlineStr">
         <is>
@@ -3289,7 +3289,7 @@
         <v>44562</v>
       </c>
       <c r="B163">
-        <v>46159913780</v>
+        <v>41204646261</v>
       </c>
       <c r="C163" t="inlineStr">
         <is>
@@ -3325,7 +3325,7 @@
         <v>44562</v>
       </c>
       <c r="B165">
-        <v>964634277274</v>
+        <v>946960076467</v>
       </c>
       <c r="C165" t="inlineStr">
         <is>
@@ -3361,7 +3361,7 @@
         <v>44562</v>
       </c>
       <c r="B167">
-        <v>1066789960</v>
+        <v>1049353865</v>
       </c>
       <c r="C167" t="inlineStr">
         <is>
@@ -3379,7 +3379,7 @@
         <v>44197</v>
       </c>
       <c r="B168">
-        <v>527267889.9999999</v>
+        <v>533810619</v>
       </c>
       <c r="C168" t="inlineStr">
         <is>
@@ -3397,7 +3397,7 @@
         <v>44562</v>
       </c>
       <c r="B169">
-        <v>631476874</v>
+        <v>647837562</v>
       </c>
       <c r="C169" t="inlineStr">
         <is>
@@ -3415,7 +3415,7 @@
         <v>44197</v>
       </c>
       <c r="B170">
-        <v>12445490935</v>
+        <v>12442873658</v>
       </c>
       <c r="C170" t="inlineStr">
         <is>
@@ -3433,7 +3433,7 @@
         <v>44562</v>
       </c>
       <c r="B171">
-        <v>13588855115</v>
+        <v>13442407684</v>
       </c>
       <c r="C171" t="inlineStr">
         <is>
@@ -3451,7 +3451,7 @@
         <v>44197</v>
       </c>
       <c r="B172">
-        <v>15160088248</v>
+        <v>15158812066</v>
       </c>
       <c r="C172" t="inlineStr">
         <is>
@@ -3469,7 +3469,7 @@
         <v>44562</v>
       </c>
       <c r="B173">
-        <v>20443194704</v>
+        <v>20568637185</v>
       </c>
       <c r="C173" t="inlineStr">
         <is>
@@ -3487,7 +3487,7 @@
         <v>44197</v>
       </c>
       <c r="B174">
-        <v>8377119006.999999</v>
+        <v>8377128172.999999</v>
       </c>
       <c r="C174" t="inlineStr">
         <is>
@@ -3505,7 +3505,7 @@
         <v>44562</v>
       </c>
       <c r="B175">
-        <v>13286252362</v>
+        <v>13286258223</v>
       </c>
       <c r="C175" t="inlineStr">
         <is>
@@ -3595,7 +3595,7 @@
         <v>44197</v>
       </c>
       <c r="B180">
-        <v>17287659611</v>
+        <v>17129727890</v>
       </c>
       <c r="C180" t="inlineStr">
         <is>
@@ -3613,7 +3613,7 @@
         <v>44562</v>
       </c>
       <c r="B181">
-        <v>23244272156</v>
+        <v>24028701563</v>
       </c>
       <c r="C181" t="inlineStr">
         <is>
@@ -3631,7 +3631,7 @@
         <v>44197</v>
       </c>
       <c r="B182">
-        <v>372056075</v>
+        <v>453414200</v>
       </c>
       <c r="C182" t="inlineStr">
         <is>
@@ -3649,7 +3649,7 @@
         <v>44562</v>
       </c>
       <c r="B183">
-        <v>403733668</v>
+        <v>496495815</v>
       </c>
       <c r="C183" t="inlineStr">
         <is>
@@ -3667,7 +3667,7 @@
         <v>44197</v>
       </c>
       <c r="B184">
-        <v>13317832869</v>
+        <v>13318520859</v>
       </c>
       <c r="C184" t="inlineStr">
         <is>
@@ -3685,7 +3685,7 @@
         <v>44562</v>
       </c>
       <c r="B185">
-        <v>17096846328</v>
+        <v>17019645946</v>
       </c>
       <c r="C185" t="inlineStr">
         <is>
@@ -3703,7 +3703,7 @@
         <v>44197</v>
       </c>
       <c r="B186">
-        <v>1501998320</v>
+        <v>1501952155</v>
       </c>
       <c r="C186" t="inlineStr">
         <is>
@@ -3721,7 +3721,7 @@
         <v>44562</v>
       </c>
       <c r="B187">
-        <v>1819804334</v>
+        <v>1882254058</v>
       </c>
       <c r="C187" t="inlineStr">
         <is>
@@ -3739,7 +3739,7 @@
         <v>44197</v>
       </c>
       <c r="B188">
-        <v>214915054</v>
+        <v>204255260</v>
       </c>
       <c r="C188" t="inlineStr">
         <is>
@@ -3757,7 +3757,7 @@
         <v>44562</v>
       </c>
       <c r="B189">
-        <v>248554164</v>
+        <v>242166576</v>
       </c>
       <c r="C189" t="inlineStr">
         <is>
@@ -3775,7 +3775,7 @@
         <v>44197</v>
       </c>
       <c r="B190">
-        <v>77629061665</v>
+        <v>77629062185</v>
       </c>
       <c r="C190" t="inlineStr">
         <is>
@@ -3793,7 +3793,7 @@
         <v>44562</v>
       </c>
       <c r="B191">
-        <v>88057188578</v>
+        <v>88057186516</v>
       </c>
       <c r="C191" t="inlineStr">
         <is>
@@ -3811,7 +3811,7 @@
         <v>44197</v>
       </c>
       <c r="B192">
-        <v>3878239310</v>
+        <v>4389874800</v>
       </c>
       <c r="C192" t="inlineStr">
         <is>
@@ -3829,7 +3829,7 @@
         <v>44562</v>
       </c>
       <c r="B193">
-        <v>4672648527</v>
+        <v>5372757571</v>
       </c>
       <c r="C193" t="inlineStr">
         <is>
@@ -3847,7 +3847,7 @@
         <v>44197</v>
       </c>
       <c r="B194">
-        <v>26787994</v>
+        <v>29079771</v>
       </c>
       <c r="C194" t="inlineStr">
         <is>
@@ -3865,7 +3865,7 @@
         <v>44562</v>
       </c>
       <c r="B195">
-        <v>29210942</v>
+        <v>41580145</v>
       </c>
       <c r="C195" t="inlineStr">
         <is>
@@ -3901,7 +3901,7 @@
         <v>44562</v>
       </c>
       <c r="B197">
-        <v>628767851953</v>
+        <v>631126831565</v>
       </c>
       <c r="C197" t="inlineStr">
         <is>
@@ -3973,7 +3973,7 @@
         <v>44562</v>
       </c>
       <c r="B201">
-        <v>283504156341</v>
+        <v>283862758108</v>
       </c>
       <c r="C201" t="inlineStr">
         <is>
@@ -3991,7 +3991,7 @@
         <v>44197</v>
       </c>
       <c r="B202">
-        <v>259608327442</v>
+        <v>272548514045</v>
       </c>
       <c r="C202" t="inlineStr">
         <is>
@@ -4009,7 +4009,7 @@
         <v>44562</v>
       </c>
       <c r="B203">
-        <v>353814184598</v>
+        <v>372928859719</v>
       </c>
       <c r="C203" t="inlineStr">
         <is>
@@ -4045,7 +4045,7 @@
         <v>44562</v>
       </c>
       <c r="B205">
-        <v>85637963838</v>
+        <v>85620681224</v>
       </c>
       <c r="C205" t="inlineStr">
         <is>
@@ -4063,7 +4063,7 @@
         <v>44197</v>
       </c>
       <c r="B206">
-        <v>1476359090</v>
+        <v>1476471793</v>
       </c>
       <c r="C206" t="inlineStr">
         <is>
@@ -4081,7 +4081,7 @@
         <v>44562</v>
       </c>
       <c r="B207">
-        <v>1066711832</v>
+        <v>1066820451</v>
       </c>
       <c r="C207" t="inlineStr">
         <is>
@@ -4099,7 +4099,7 @@
         <v>44197</v>
       </c>
       <c r="B208">
-        <v>74214757</v>
+        <v>73971470</v>
       </c>
       <c r="C208" t="inlineStr">
         <is>
@@ -4117,7 +4117,7 @@
         <v>44562</v>
       </c>
       <c r="B209">
-        <v>58884169</v>
+        <v>58953935</v>
       </c>
       <c r="C209" t="inlineStr">
         <is>
@@ -4153,7 +4153,7 @@
         <v>44562</v>
       </c>
       <c r="B211">
-        <v>213556052856</v>
+        <v>212514244115</v>
       </c>
       <c r="C211" t="inlineStr">
         <is>
@@ -4207,7 +4207,7 @@
         <v>44197</v>
       </c>
       <c r="B214">
-        <v>16815047953</v>
+        <v>16676582624</v>
       </c>
       <c r="C214" t="inlineStr">
         <is>
@@ -4225,7 +4225,7 @@
         <v>44562</v>
       </c>
       <c r="B215">
-        <v>18430142121</v>
+        <v>18561199007</v>
       </c>
       <c r="C215" t="inlineStr">
         <is>
@@ -4243,7 +4243,7 @@
         <v>44197</v>
       </c>
       <c r="B216">
-        <v>1652931857</v>
+        <v>1578012310</v>
       </c>
       <c r="C216" t="inlineStr">
         <is>
@@ -4261,7 +4261,7 @@
         <v>44562</v>
       </c>
       <c r="B217">
-        <v>2251046625</v>
+        <v>2218882533</v>
       </c>
       <c r="C217" t="inlineStr">
         <is>
@@ -4315,7 +4315,7 @@
         <v>44197</v>
       </c>
       <c r="B220">
-        <v>2376132163</v>
+        <v>2383185170</v>
       </c>
       <c r="C220" t="inlineStr">
         <is>
@@ -4333,7 +4333,7 @@
         <v>44562</v>
       </c>
       <c r="B221">
-        <v>3749710465</v>
+        <v>3921727742</v>
       </c>
       <c r="C221" t="inlineStr">
         <is>
@@ -4387,7 +4387,7 @@
         <v>44197</v>
       </c>
       <c r="B224">
-        <v>28681421755</v>
+        <v>28681421759</v>
       </c>
       <c r="C224" t="inlineStr">
         <is>
@@ -4423,7 +4423,7 @@
         <v>44197</v>
       </c>
       <c r="B226">
-        <v>603549815</v>
+        <v>600689400</v>
       </c>
       <c r="C226" t="inlineStr">
         <is>
@@ -4441,7 +4441,7 @@
         <v>44562</v>
       </c>
       <c r="B227">
-        <v>727520400</v>
+        <v>728356101</v>
       </c>
       <c r="C227" t="inlineStr">
         <is>
@@ -4459,7 +4459,7 @@
         <v>44197</v>
       </c>
       <c r="B228">
-        <v>1197506810</v>
+        <v>1208452483</v>
       </c>
       <c r="C228" t="inlineStr">
         <is>
@@ -4477,7 +4477,7 @@
         <v>44562</v>
       </c>
       <c r="B229">
-        <v>1329582581</v>
+        <v>1339950539</v>
       </c>
       <c r="C229" t="inlineStr">
         <is>
@@ -4495,7 +4495,7 @@
         <v>44197</v>
       </c>
       <c r="B230">
-        <v>36787096</v>
+        <v>36540162</v>
       </c>
       <c r="C230" t="inlineStr">
         <is>
@@ -4513,7 +4513,7 @@
         <v>44562</v>
       </c>
       <c r="B231">
-        <v>36967159</v>
+        <v>39108591</v>
       </c>
       <c r="C231" t="inlineStr">
         <is>
@@ -4567,7 +4567,7 @@
         <v>44197</v>
       </c>
       <c r="B234">
-        <v>9386553043</v>
+        <v>9386477124</v>
       </c>
       <c r="C234" t="inlineStr">
         <is>
@@ -4585,7 +4585,7 @@
         <v>44562</v>
       </c>
       <c r="B235">
-        <v>13230426474</v>
+        <v>13237028525</v>
       </c>
       <c r="C235" t="inlineStr">
         <is>
@@ -4621,7 +4621,7 @@
         <v>44562</v>
       </c>
       <c r="B237">
-        <v>40279816342</v>
+        <v>40298311459</v>
       </c>
       <c r="C237" t="inlineStr">
         <is>
@@ -4657,7 +4657,7 @@
         <v>44562</v>
       </c>
       <c r="B239">
-        <v>150557814157</v>
+        <v>151539821718</v>
       </c>
       <c r="C239" t="inlineStr">
         <is>
@@ -4675,7 +4675,7 @@
         <v>44197</v>
       </c>
       <c r="B240">
-        <v>52973725</v>
+        <v>53001045</v>
       </c>
       <c r="C240" t="inlineStr">
         <is>
@@ -4693,7 +4693,7 @@
         <v>44562</v>
       </c>
       <c r="B241">
-        <v>72122903</v>
+        <v>71448319</v>
       </c>
       <c r="C241" t="inlineStr">
         <is>
@@ -4711,7 +4711,7 @@
         <v>44197</v>
       </c>
       <c r="B242">
-        <v>49633065</v>
+        <v>52213695</v>
       </c>
       <c r="C242" t="inlineStr">
         <is>
@@ -4729,7 +4729,7 @@
         <v>44562</v>
       </c>
       <c r="B243">
-        <v>60163209</v>
+        <v>69743646</v>
       </c>
       <c r="C243" t="inlineStr">
         <is>
@@ -4783,7 +4783,7 @@
         <v>44197</v>
       </c>
       <c r="B246">
-        <v>1658948487</v>
+        <v>1658948489</v>
       </c>
       <c r="C246" t="inlineStr">
         <is>
@@ -4801,7 +4801,7 @@
         <v>44562</v>
       </c>
       <c r="B247">
-        <v>2186695028</v>
+        <v>2186695033</v>
       </c>
       <c r="C247" t="inlineStr">
         <is>
@@ -4819,7 +4819,7 @@
         <v>44197</v>
       </c>
       <c r="B248">
-        <v>4389401290</v>
+        <v>4410047270</v>
       </c>
       <c r="C248" t="inlineStr">
         <is>
@@ -4837,7 +4837,7 @@
         <v>44562</v>
       </c>
       <c r="B249">
-        <v>6155961885</v>
+        <v>6080304055</v>
       </c>
       <c r="C249" t="inlineStr">
         <is>
@@ -4891,7 +4891,7 @@
         <v>44197</v>
       </c>
       <c r="B252">
-        <v>1079792688</v>
+        <v>1079792686</v>
       </c>
       <c r="C252" t="inlineStr">
         <is>
@@ -4909,7 +4909,7 @@
         <v>44562</v>
       </c>
       <c r="B253">
-        <v>1934747396</v>
+        <v>2099728832</v>
       </c>
       <c r="C253" t="inlineStr">
         <is>
@@ -4927,7 +4927,7 @@
         <v>44197</v>
       </c>
       <c r="B254">
-        <v>264005693</v>
+        <v>264005694</v>
       </c>
       <c r="C254" t="inlineStr">
         <is>
@@ -5035,7 +5035,7 @@
         <v>44197</v>
       </c>
       <c r="B260">
-        <v>11052152978</v>
+        <v>11052248563</v>
       </c>
       <c r="C260" t="inlineStr">
         <is>
@@ -5053,7 +5053,7 @@
         <v>44562</v>
       </c>
       <c r="B261">
-        <v>14017860074</v>
+        <v>14411225809</v>
       </c>
       <c r="C261" t="inlineStr">
         <is>
@@ -5071,7 +5071,7 @@
         <v>44197</v>
       </c>
       <c r="B262">
-        <v>56236504857</v>
+        <v>56234048705</v>
       </c>
       <c r="C262" t="inlineStr">
         <is>
@@ -5089,7 +5089,7 @@
         <v>44562</v>
       </c>
       <c r="B263">
-        <v>66403570721</v>
+        <v>64812307704</v>
       </c>
       <c r="C263" t="inlineStr">
         <is>
@@ -5107,7 +5107,7 @@
         <v>44197</v>
       </c>
       <c r="B264">
-        <v>20813723</v>
+        <v>20752750</v>
       </c>
       <c r="C264" t="inlineStr">
         <is>
@@ -5125,7 +5125,7 @@
         <v>44562</v>
       </c>
       <c r="B265">
-        <v>21088266</v>
+        <v>20999824</v>
       </c>
       <c r="C265" t="inlineStr">
         <is>
@@ -5197,7 +5197,7 @@
         <v>44562</v>
       </c>
       <c r="B269">
-        <v>358784549732</v>
+        <v>358309026111</v>
       </c>
       <c r="C269" t="inlineStr">
         <is>
@@ -5305,7 +5305,7 @@
         <v>44562</v>
       </c>
       <c r="B275">
-        <v>130243842145</v>
+        <v>129156453260</v>
       </c>
       <c r="C275" t="inlineStr">
         <is>
@@ -5323,7 +5323,7 @@
         <v>44197</v>
       </c>
       <c r="B276">
-        <v>22055657069328</v>
+        <v>22073286553951</v>
       </c>
       <c r="C276" t="inlineStr">
         <is>
@@ -5341,7 +5341,7 @@
         <v>44562</v>
       </c>
       <c r="B277">
-        <v>24597785777926</v>
+        <v>24449933232558</v>
       </c>
       <c r="C277" t="inlineStr">
         <is>
@@ -5377,7 +5377,7 @@
         <v>44562</v>
       </c>
       <c r="B279">
-        <v>364216987640</v>
+        <v>364262418391</v>
       </c>
       <c r="C279" t="inlineStr">
         <is>
@@ -5413,7 +5413,7 @@
         <v>44562</v>
       </c>
       <c r="B281">
-        <v>3061580272</v>
+        <v>3112798584</v>
       </c>
       <c r="C281" t="inlineStr">
         <is>
@@ -5449,7 +5449,7 @@
         <v>44562</v>
       </c>
       <c r="B283">
-        <v>290981378928</v>
+        <v>290736423415</v>
       </c>
       <c r="C283" t="inlineStr">
         <is>
@@ -5467,7 +5467,7 @@
         <v>44197</v>
       </c>
       <c r="B284">
-        <v>16620338</v>
+        <v>16672219</v>
       </c>
       <c r="C284" t="inlineStr">
         <is>
@@ -5485,7 +5485,7 @@
         <v>44562</v>
       </c>
       <c r="B285">
-        <v>18122313</v>
+        <v>18250950</v>
       </c>
       <c r="C285" t="inlineStr">
         <is>
@@ -5539,7 +5539,7 @@
         <v>44197</v>
       </c>
       <c r="B288">
-        <v>1276942162</v>
+        <v>1276963537</v>
       </c>
       <c r="C288" t="inlineStr">
         <is>
@@ -5557,7 +5557,7 @@
         <v>44562</v>
       </c>
       <c r="B289">
-        <v>1203772140</v>
+        <v>1203928709</v>
       </c>
       <c r="C289" t="inlineStr">
         <is>
@@ -5629,7 +5629,7 @@
         <v>44562</v>
       </c>
       <c r="B293">
-        <v>67788215744</v>
+        <v>69662495658</v>
       </c>
       <c r="C293" t="inlineStr">
         <is>
@@ -5665,7 +5665,7 @@
         <v>44562</v>
       </c>
       <c r="B295">
-        <v>7112130551247</v>
+        <v>7082784569238</v>
       </c>
       <c r="C295" t="inlineStr">
         <is>
@@ -5683,7 +5683,7 @@
         <v>44197</v>
       </c>
       <c r="B296">
-        <v>2485956917</v>
+        <v>2488995592</v>
       </c>
       <c r="C296" t="inlineStr">
         <is>
@@ -5701,7 +5701,7 @@
         <v>44562</v>
       </c>
       <c r="B297">
-        <v>4533309415</v>
+        <v>4536635733</v>
       </c>
       <c r="C297" t="inlineStr">
         <is>
@@ -5755,7 +5755,7 @@
         <v>44197</v>
       </c>
       <c r="B300">
-        <v>4689847842</v>
+        <v>4694180998</v>
       </c>
       <c r="C300" t="inlineStr">
         <is>
@@ -5773,7 +5773,7 @@
         <v>44562</v>
       </c>
       <c r="B301">
-        <v>7612928626</v>
+        <v>7627209526</v>
       </c>
       <c r="C301" t="inlineStr">
         <is>
@@ -5899,7 +5899,7 @@
         <v>44197</v>
       </c>
       <c r="B308">
-        <v>766646848</v>
+        <v>770380653</v>
       </c>
       <c r="C308" t="inlineStr">
         <is>
@@ -5917,7 +5917,7 @@
         <v>44562</v>
       </c>
       <c r="B309">
-        <v>454385366</v>
+        <v>621811280</v>
       </c>
       <c r="C309" t="inlineStr">
         <is>
@@ -5953,7 +5953,7 @@
         <v>44562</v>
       </c>
       <c r="B311">
-        <v>46102311835</v>
+        <v>46278599579</v>
       </c>
       <c r="C311" t="inlineStr">
         <is>
@@ -5971,7 +5971,7 @@
         <v>44197</v>
       </c>
       <c r="B312">
-        <v>6391032037</v>
+        <v>6391188031</v>
       </c>
       <c r="C312" t="inlineStr">
         <is>
@@ -5989,7 +5989,7 @@
         <v>44562</v>
       </c>
       <c r="B313">
-        <v>9646906629</v>
+        <v>9513294137</v>
       </c>
       <c r="C313" t="inlineStr">
         <is>
@@ -6007,7 +6007,7 @@
         <v>44197</v>
       </c>
       <c r="B314">
-        <v>1650309259</v>
+        <v>1649981281</v>
       </c>
       <c r="C314" t="inlineStr">
         <is>
@@ -6025,7 +6025,7 @@
         <v>44562</v>
       </c>
       <c r="B315">
-        <v>1646507573</v>
+        <v>1646516232</v>
       </c>
       <c r="C315" t="inlineStr">
         <is>
@@ -6061,7 +6061,7 @@
         <v>44562</v>
       </c>
       <c r="B317">
-        <v>82253950683</v>
+        <v>80658367918</v>
       </c>
       <c r="C317" t="inlineStr">
         <is>
@@ -6097,7 +6097,7 @@
         <v>44562</v>
       </c>
       <c r="B319">
-        <v>23780198350</v>
+        <v>24074404348</v>
       </c>
       <c r="C319" t="inlineStr">
         <is>
@@ -6115,7 +6115,7 @@
         <v>44197</v>
       </c>
       <c r="B320">
-        <v>5183924746</v>
+        <v>6171327536</v>
       </c>
       <c r="C320" t="inlineStr">
         <is>
@@ -6133,7 +6133,7 @@
         <v>44562</v>
       </c>
       <c r="B321">
-        <v>5111209311</v>
+        <v>6018377228</v>
       </c>
       <c r="C321" t="inlineStr">
         <is>
@@ -6151,7 +6151,7 @@
         <v>44197</v>
       </c>
       <c r="B322">
-        <v>1306883899</v>
+        <v>1747066940</v>
       </c>
       <c r="C322" t="inlineStr">
         <is>
@@ -6169,7 +6169,7 @@
         <v>44562</v>
       </c>
       <c r="B323">
-        <v>1601962838</v>
+        <v>2302541578</v>
       </c>
       <c r="C323" t="inlineStr">
         <is>
@@ -6187,7 +6187,7 @@
         <v>44197</v>
       </c>
       <c r="B324">
-        <v>4242323767</v>
+        <v>4242512939</v>
       </c>
       <c r="C324" t="inlineStr">
         <is>
@@ -6205,7 +6205,7 @@
         <v>44562</v>
       </c>
       <c r="B325">
-        <v>5592764969</v>
+        <v>5583425389</v>
       </c>
       <c r="C325" t="inlineStr">
         <is>
@@ -6241,7 +6241,7 @@
         <v>44562</v>
       </c>
       <c r="B327">
-        <v>574625976590</v>
+        <v>460852046127</v>
       </c>
       <c r="C327" t="inlineStr">
         <is>
@@ -6259,7 +6259,7 @@
         <v>44197</v>
       </c>
       <c r="B328">
-        <v>716888567666</v>
+        <v>716888599333</v>
       </c>
       <c r="C328" t="inlineStr">
         <is>
@@ -6277,7 +6277,7 @@
         <v>44562</v>
       </c>
       <c r="B329">
-        <v>821811698340</v>
+        <v>708166628451</v>
       </c>
       <c r="C329" t="inlineStr">
         <is>
@@ -6295,7 +6295,7 @@
         <v>44197</v>
       </c>
       <c r="B330">
-        <v>29877793</v>
+        <v>29801155</v>
       </c>
       <c r="C330" t="inlineStr">
         <is>
@@ -6313,7 +6313,7 @@
         <v>44562</v>
       </c>
       <c r="B331">
-        <v>26005401</v>
+        <v>27003807</v>
       </c>
       <c r="C331" t="inlineStr">
         <is>
@@ -6367,7 +6367,7 @@
         <v>44197</v>
       </c>
       <c r="B334">
-        <v>12718987488372</v>
+        <v>12731666179001</v>
       </c>
       <c r="C334" t="inlineStr">
         <is>
@@ -6385,7 +6385,7 @@
         <v>44562</v>
       </c>
       <c r="B335">
-        <v>13892620638032</v>
+        <v>13871019776780</v>
       </c>
       <c r="C335" t="inlineStr">
         <is>
@@ -6403,7 +6403,7 @@
         <v>44197</v>
       </c>
       <c r="B336">
-        <v>957833616</v>
+        <v>957833268</v>
       </c>
       <c r="C336" t="inlineStr">
         <is>
@@ -6421,7 +6421,7 @@
         <v>44562</v>
       </c>
       <c r="B337">
-        <v>990477408</v>
+        <v>999624669</v>
       </c>
       <c r="C337" t="inlineStr">
         <is>
@@ -6457,7 +6457,7 @@
         <v>44562</v>
       </c>
       <c r="B339">
-        <v>3697434073</v>
+        <v>3794536821</v>
       </c>
       <c r="C339" t="inlineStr">
         <is>
@@ -6475,7 +6475,7 @@
         <v>44197</v>
       </c>
       <c r="B340">
-        <v>356256864</v>
+        <v>354799246</v>
       </c>
       <c r="C340" t="inlineStr">
         <is>
@@ -6493,7 +6493,7 @@
         <v>44562</v>
       </c>
       <c r="B341">
-        <v>378425235</v>
+        <v>376988465</v>
       </c>
       <c r="C341" t="inlineStr">
         <is>
@@ -6565,7 +6565,7 @@
         <v>44562</v>
       </c>
       <c r="B345">
-        <v>416599076726</v>
+        <v>408157577793</v>
       </c>
       <c r="C345" t="inlineStr">
         <is>
@@ -6619,7 +6619,7 @@
         <v>44197</v>
       </c>
       <c r="B348">
-        <v>379401552396</v>
+        <v>379401552409</v>
       </c>
       <c r="C348" t="inlineStr">
         <is>
@@ -6655,7 +6655,7 @@
         <v>44197</v>
       </c>
       <c r="B350">
-        <v>35552675230</v>
+        <v>30971456849</v>
       </c>
       <c r="C350" t="inlineStr">
         <is>
@@ -6673,7 +6673,7 @@
         <v>44562</v>
       </c>
       <c r="B351">
-        <v>43902102905</v>
+        <v>38215393802</v>
       </c>
       <c r="C351" t="inlineStr">
         <is>
@@ -6745,7 +6745,7 @@
         <v>44562</v>
       </c>
       <c r="B355">
-        <v>107578333801</v>
+        <v>107776776924</v>
       </c>
       <c r="C355" t="inlineStr">
         <is>
@@ -6763,7 +6763,7 @@
         <v>44197</v>
       </c>
       <c r="B356">
-        <v>9537248058</v>
+        <v>9537248059</v>
       </c>
       <c r="C356" t="inlineStr">
         <is>
@@ -6781,7 +6781,7 @@
         <v>44562</v>
       </c>
       <c r="B357">
-        <v>11187261351</v>
+        <v>11187261350</v>
       </c>
       <c r="C357" t="inlineStr">
         <is>
@@ -6817,7 +6817,7 @@
         <v>44562</v>
       </c>
       <c r="B359">
-        <v>29056979109</v>
+        <v>29056979016</v>
       </c>
       <c r="C359" t="inlineStr">
         <is>
@@ -6835,7 +6835,7 @@
         <v>44197</v>
       </c>
       <c r="B360">
-        <v>1116621691</v>
+        <v>1160632784</v>
       </c>
       <c r="C360" t="inlineStr">
         <is>
@@ -6853,7 +6853,7 @@
         <v>44562</v>
       </c>
       <c r="B361">
-        <v>1267116222</v>
+        <v>1196648624</v>
       </c>
       <c r="C361" t="inlineStr">
         <is>
@@ -6871,7 +6871,7 @@
         <v>44197</v>
       </c>
       <c r="B362">
-        <v>1187577779776</v>
+        <v>1187858555371</v>
       </c>
       <c r="C362" t="inlineStr">
         <is>
@@ -6889,7 +6889,7 @@
         <v>44562</v>
       </c>
       <c r="B363">
-        <v>1395349732700</v>
+        <v>1388751364368</v>
       </c>
       <c r="C363" t="inlineStr">
         <is>
@@ -6907,7 +6907,7 @@
         <v>44197</v>
       </c>
       <c r="B364">
-        <v>97034796</v>
+        <v>96802521</v>
       </c>
       <c r="C364" t="inlineStr">
         <is>
@@ -6925,7 +6925,7 @@
         <v>44562</v>
       </c>
       <c r="B365">
-        <v>79776017</v>
+        <v>79704580</v>
       </c>
       <c r="C365" t="inlineStr">
         <is>
@@ -6961,7 +6961,7 @@
         <v>44562</v>
       </c>
       <c r="B367">
-        <v>92204086677</v>
+        <v>88906370534</v>
       </c>
       <c r="C367" t="inlineStr">
         <is>
@@ -7015,7 +7015,7 @@
         <v>44197</v>
       </c>
       <c r="B370">
-        <v>1486469253893</v>
+        <v>1486388642154</v>
       </c>
       <c r="C370" t="inlineStr">
         <is>
@@ -7033,7 +7033,7 @@
         <v>44562</v>
       </c>
       <c r="B371">
-        <v>1624036074958</v>
+        <v>1508822443775</v>
       </c>
       <c r="C371" t="inlineStr">
         <is>
@@ -7087,7 +7087,7 @@
         <v>44197</v>
       </c>
       <c r="B374">
-        <v>6729751616</v>
+        <v>6729950254</v>
       </c>
       <c r="C374" t="inlineStr">
         <is>
@@ -7105,7 +7105,7 @@
         <v>44562</v>
       </c>
       <c r="B375">
-        <v>7242899581</v>
+        <v>7135568297</v>
       </c>
       <c r="C375" t="inlineStr">
         <is>
@@ -7159,7 +7159,7 @@
         <v>44197</v>
       </c>
       <c r="B378">
-        <v>46470459</v>
+        <v>46363074</v>
       </c>
       <c r="C378" t="inlineStr">
         <is>
@@ -7177,7 +7177,7 @@
         <v>44562</v>
       </c>
       <c r="B379">
-        <v>50452355</v>
+        <v>52035713</v>
       </c>
       <c r="C379" t="inlineStr">
         <is>
@@ -7195,7 +7195,7 @@
         <v>44197</v>
       </c>
       <c r="B380">
-        <v>3686245694</v>
+        <v>3686245696</v>
       </c>
       <c r="C380" t="inlineStr">
         <is>
@@ -7213,7 +7213,7 @@
         <v>44562</v>
       </c>
       <c r="B381">
-        <v>3874693441</v>
+        <v>3891313556</v>
       </c>
       <c r="C381" t="inlineStr">
         <is>
@@ -7249,7 +7249,7 @@
         <v>44562</v>
       </c>
       <c r="B383">
-        <v>241275660722</v>
+        <v>241656079731</v>
       </c>
       <c r="C383" t="inlineStr">
         <is>
@@ -7267,7 +7267,7 @@
         <v>44197</v>
       </c>
       <c r="B384">
-        <v>1473623132</v>
+        <v>1473541545</v>
       </c>
       <c r="C384" t="inlineStr">
         <is>
@@ -7285,7 +7285,7 @@
         <v>44562</v>
       </c>
       <c r="B385">
-        <v>1646750867</v>
+        <v>1645057432</v>
       </c>
       <c r="C385" t="inlineStr">
         <is>
@@ -7339,7 +7339,7 @@
         <v>44197</v>
       </c>
       <c r="B388">
-        <v>25567133</v>
+        <v>14381000</v>
       </c>
       <c r="C388" t="inlineStr">
         <is>
@@ -7357,7 +7357,7 @@
         <v>44562</v>
       </c>
       <c r="B389">
-        <v>26536758</v>
+        <v>5025996</v>
       </c>
       <c r="C389" t="inlineStr">
         <is>
@@ -7375,7 +7375,7 @@
         <v>44197</v>
       </c>
       <c r="B390">
-        <v>43446169</v>
+        <v>43568951</v>
       </c>
       <c r="C390" t="inlineStr">
         <is>
@@ -7393,7 +7393,7 @@
         <v>44562</v>
       </c>
       <c r="B391">
-        <v>27907687</v>
+        <v>28267097</v>
       </c>
       <c r="C391" t="inlineStr">
         <is>
@@ -7465,7 +7465,7 @@
         <v>44562</v>
       </c>
       <c r="B395">
-        <v>48398807396</v>
+        <v>48398807224</v>
       </c>
       <c r="C395" t="inlineStr">
         <is>
@@ -7483,7 +7483,7 @@
         <v>44197</v>
       </c>
       <c r="B396">
-        <v>7114200767</v>
+        <v>7114432250</v>
       </c>
       <c r="C396" t="inlineStr">
         <is>
@@ -7501,7 +7501,7 @@
         <v>44562</v>
       </c>
       <c r="B397">
-        <v>8204749868.000001</v>
+        <v>8204749868.999999</v>
       </c>
       <c r="C397" t="inlineStr">
         <is>
@@ -7519,7 +7519,7 @@
         <v>44197</v>
       </c>
       <c r="B398">
-        <v>18865903</v>
+        <v>11819929</v>
       </c>
       <c r="C398" t="inlineStr">
         <is>
@@ -7537,7 +7537,7 @@
         <v>44562</v>
       </c>
       <c r="B399">
-        <v>16800423</v>
+        <v>7271370</v>
       </c>
       <c r="C399" t="inlineStr">
         <is>
@@ -7555,7 +7555,7 @@
         <v>44197</v>
       </c>
       <c r="B400">
-        <v>38130638</v>
+        <v>38137470</v>
       </c>
       <c r="C400" t="inlineStr">
         <is>
@@ -7573,7 +7573,7 @@
         <v>44562</v>
       </c>
       <c r="B401">
-        <v>77284973</v>
+        <v>83485541</v>
       </c>
       <c r="C401" t="inlineStr">
         <is>
@@ -7591,7 +7591,7 @@
         <v>44197</v>
       </c>
       <c r="B402">
-        <v>6498632597</v>
+        <v>5549360735</v>
       </c>
       <c r="C402" t="inlineStr">
         <is>
@@ -7609,7 +7609,7 @@
         <v>44562</v>
       </c>
       <c r="B403">
-        <v>6898869293</v>
+        <v>4912127773</v>
       </c>
       <c r="C403" t="inlineStr">
         <is>
@@ -7627,7 +7627,7 @@
         <v>44197</v>
       </c>
       <c r="B404">
-        <v>1846262273</v>
+        <v>1846294289</v>
       </c>
       <c r="C404" t="inlineStr">
         <is>
@@ -7645,7 +7645,7 @@
         <v>44562</v>
       </c>
       <c r="B405">
-        <v>2266995657</v>
+        <v>2273797282</v>
       </c>
       <c r="C405" t="inlineStr">
         <is>
@@ -7663,7 +7663,7 @@
         <v>44197</v>
       </c>
       <c r="B406">
-        <v>220963723</v>
+        <v>228047533</v>
       </c>
       <c r="C406" t="inlineStr">
         <is>
@@ -7681,7 +7681,7 @@
         <v>44562</v>
       </c>
       <c r="B407">
-        <v>236323433</v>
+        <v>244997049</v>
       </c>
       <c r="C407" t="inlineStr">
         <is>
@@ -7699,7 +7699,7 @@
         <v>44197</v>
       </c>
       <c r="B408">
-        <v>154376846</v>
+        <v>148684642</v>
       </c>
       <c r="C408" t="inlineStr">
         <is>
@@ -7717,7 +7717,7 @@
         <v>44562</v>
       </c>
       <c r="B409">
-        <v>414070729</v>
+        <v>408903768</v>
       </c>
       <c r="C409" t="inlineStr">
         <is>
@@ -7735,7 +7735,7 @@
         <v>44197</v>
       </c>
       <c r="B410">
-        <v>668847277</v>
+        <v>854375569</v>
       </c>
       <c r="C410" t="inlineStr">
         <is>
@@ -7753,7 +7753,7 @@
         <v>44562</v>
       </c>
       <c r="B411">
-        <v>655485150</v>
+        <v>765908969</v>
       </c>
       <c r="C411" t="inlineStr">
         <is>
@@ -7771,7 +7771,7 @@
         <v>44197</v>
       </c>
       <c r="B412">
-        <v>230940616</v>
+        <v>230839337</v>
       </c>
       <c r="C412" t="inlineStr">
         <is>
@@ -7789,7 +7789,7 @@
         <v>44562</v>
       </c>
       <c r="B413">
-        <v>223066006</v>
+        <v>238638357</v>
       </c>
       <c r="C413" t="inlineStr">
         <is>
@@ -7807,7 +7807,7 @@
         <v>44197</v>
       </c>
       <c r="B414">
-        <v>194657837</v>
+        <v>195511286</v>
       </c>
       <c r="C414" t="inlineStr">
         <is>
@@ -7825,7 +7825,7 @@
         <v>44562</v>
       </c>
       <c r="B415">
-        <v>226019429</v>
+        <v>227123863</v>
       </c>
       <c r="C415" t="inlineStr">
         <is>
@@ -7843,7 +7843,7 @@
         <v>44197</v>
       </c>
       <c r="B416">
-        <v>201042224</v>
+        <v>209242323</v>
       </c>
       <c r="C416" t="inlineStr">
         <is>
@@ -7861,7 +7861,7 @@
         <v>44562</v>
       </c>
       <c r="B417">
-        <v>191384585</v>
+        <v>191981445</v>
       </c>
       <c r="C417" t="inlineStr">
         <is>
@@ -7879,7 +7879,7 @@
         <v>44197</v>
       </c>
       <c r="B418">
-        <v>35014574</v>
+        <v>35046955</v>
       </c>
       <c r="C418" t="inlineStr">
         <is>
@@ -7897,7 +7897,7 @@
         <v>44562</v>
       </c>
       <c r="B419">
-        <v>36309571</v>
+        <v>36360128</v>
       </c>
       <c r="C419" t="inlineStr">
         <is>
@@ -7915,7 +7915,7 @@
         <v>44197</v>
       </c>
       <c r="B420">
-        <v>811479042</v>
+        <v>811512234</v>
       </c>
       <c r="C420" t="inlineStr">
         <is>
@@ -7933,7 +7933,7 @@
         <v>44562</v>
       </c>
       <c r="B421">
-        <v>489468573</v>
+        <v>489763767</v>
       </c>
       <c r="C421" t="inlineStr">
         <is>
@@ -7951,7 +7951,7 @@
         <v>44197</v>
       </c>
       <c r="B422">
-        <v>266637123</v>
+        <v>266427667</v>
       </c>
       <c r="C422" t="inlineStr">
         <is>
@@ -7969,7 +7969,7 @@
         <v>44562</v>
       </c>
       <c r="B423">
-        <v>132137853</v>
+        <v>132253188</v>
       </c>
       <c r="C423" t="inlineStr">
         <is>
@@ -7987,7 +7987,7 @@
         <v>44197</v>
       </c>
       <c r="B424">
-        <v>1371643242</v>
+        <v>1370988813</v>
       </c>
       <c r="C424" t="inlineStr">
         <is>
@@ -8005,7 +8005,7 @@
         <v>44562</v>
       </c>
       <c r="B425">
-        <v>1174609282</v>
+        <v>1361809668</v>
       </c>
       <c r="C425" t="inlineStr">
         <is>
@@ -8077,7 +8077,7 @@
         <v>44562</v>
       </c>
       <c r="B429">
-        <v>1478152448</v>
+        <v>1437705801</v>
       </c>
       <c r="C429" t="inlineStr">
         <is>
@@ -8095,7 +8095,7 @@
         <v>44197</v>
       </c>
       <c r="B430">
-        <v>71560791</v>
+        <v>70586435</v>
       </c>
       <c r="C430" t="inlineStr">
         <is>
@@ -8113,7 +8113,7 @@
         <v>44562</v>
       </c>
       <c r="B431">
-        <v>26801262</v>
+        <v>25460309</v>
       </c>
       <c r="C431" t="inlineStr">
         <is>
@@ -8131,7 +8131,7 @@
         <v>44197</v>
       </c>
       <c r="B432">
-        <v>26845363</v>
+        <v>26238502</v>
       </c>
       <c r="C432" t="inlineStr">
         <is>
@@ -8149,7 +8149,7 @@
         <v>44562</v>
       </c>
       <c r="B433">
-        <v>22532098</v>
+        <v>22678953</v>
       </c>
       <c r="C433" t="inlineStr">
         <is>
@@ -8167,7 +8167,7 @@
         <v>44197</v>
       </c>
       <c r="B434">
-        <v>215321800</v>
+        <v>215268623</v>
       </c>
       <c r="C434" t="inlineStr">
         <is>
@@ -8185,7 +8185,7 @@
         <v>44562</v>
       </c>
       <c r="B435">
-        <v>204895232</v>
+        <v>206068962</v>
       </c>
       <c r="C435" t="inlineStr">
         <is>
@@ -8203,7 +8203,7 @@
         <v>44197</v>
       </c>
       <c r="B436">
-        <v>489536203</v>
+        <v>489483372</v>
       </c>
       <c r="C436" t="inlineStr">
         <is>
@@ -8221,7 +8221,7 @@
         <v>44562</v>
       </c>
       <c r="B437">
-        <v>581401977</v>
+        <v>581197637</v>
       </c>
       <c r="C437" t="inlineStr">
         <is>
@@ -8275,7 +8275,7 @@
         <v>44197</v>
       </c>
       <c r="B440">
-        <v>8525133</v>
+        <v>8505126</v>
       </c>
       <c r="C440" t="inlineStr">
         <is>
@@ -8293,7 +8293,7 @@
         <v>44562</v>
       </c>
       <c r="B441">
-        <v>4187363</v>
+        <v>4153996</v>
       </c>
       <c r="C441" t="inlineStr">
         <is>
@@ -8311,7 +8311,7 @@
         <v>44197</v>
       </c>
       <c r="B442">
-        <v>1819666</v>
+        <v>1831395</v>
       </c>
       <c r="C442" t="inlineStr">
         <is>
@@ -8329,7 +8329,7 @@
         <v>44562</v>
       </c>
       <c r="B443">
-        <v>4481717</v>
+        <v>4498367</v>
       </c>
       <c r="C443" t="inlineStr">
         <is>
@@ -8347,7 +8347,7 @@
         <v>44197</v>
       </c>
       <c r="B444">
-        <v>87505495</v>
+        <v>61576862</v>
       </c>
       <c r="C444" t="inlineStr">
         <is>
@@ -8365,7 +8365,7 @@
         <v>44562</v>
       </c>
       <c r="B445">
-        <v>100948563</v>
+        <v>100970948</v>
       </c>
       <c r="C445" t="inlineStr">
         <is>
@@ -8383,7 +8383,7 @@
         <v>44197</v>
       </c>
       <c r="B446">
-        <v>2063258312</v>
+        <v>2063257890</v>
       </c>
       <c r="C446" t="inlineStr">
         <is>
@@ -8401,7 +8401,7 @@
         <v>44562</v>
       </c>
       <c r="B447">
-        <v>2020764183</v>
+        <v>2052847961</v>
       </c>
       <c r="C447" t="inlineStr">
         <is>
@@ -8419,7 +8419,7 @@
         <v>44197</v>
       </c>
       <c r="B448">
-        <v>1302275795</v>
+        <v>1303049989</v>
       </c>
       <c r="C448" t="inlineStr">
         <is>
@@ -8437,7 +8437,7 @@
         <v>44562</v>
       </c>
       <c r="B449">
-        <v>321920655</v>
+        <v>321881906</v>
       </c>
       <c r="C449" t="inlineStr">
         <is>
@@ -8455,7 +8455,7 @@
         <v>44197</v>
       </c>
       <c r="B450">
-        <v>313572510</v>
+        <v>317826342</v>
       </c>
       <c r="C450" t="inlineStr">
         <is>
@@ -8473,7 +8473,7 @@
         <v>44562</v>
       </c>
       <c r="B451">
-        <v>365652478</v>
+        <v>373354337</v>
       </c>
       <c r="C451" t="inlineStr">
         <is>
@@ -8509,7 +8509,7 @@
         <v>44562</v>
       </c>
       <c r="B453">
-        <v>5888038399452</v>
+        <v>5860698185792</v>
       </c>
       <c r="C453" t="inlineStr">
         <is>
@@ -8527,7 +8527,7 @@
         <v>44197</v>
       </c>
       <c r="B454">
-        <v>1177277157607</v>
+        <v>1175463942712</v>
       </c>
       <c r="C454" t="inlineStr">
         <is>
@@ -8545,7 +8545,7 @@
         <v>44562</v>
       </c>
       <c r="B455">
-        <v>1634205875264</v>
+        <v>1626128503663</v>
       </c>
       <c r="C455" t="inlineStr">
         <is>

--- a/data/imf_total_exports_2021A.xlsx
+++ b/data/imf_total_exports_2021A.xlsx
@@ -355,7 +355,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D453"/>
+  <dimension ref="A1:D455"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -391,7 +391,7 @@
         <v>44197</v>
       </c>
       <c r="B2">
-        <v>932280966086</v>
+        <v>908231372628</v>
       </c>
       <c r="C2" t="inlineStr">
         <is>
@@ -409,7 +409,7 @@
         <v>44562</v>
       </c>
       <c r="B3">
-        <v>1299159719828</v>
+        <v>1296154132018</v>
       </c>
       <c r="C3" t="inlineStr">
         <is>
@@ -427,7 +427,7 @@
         <v>44197</v>
       </c>
       <c r="B4">
-        <v>81242209370</v>
+        <v>81072860369</v>
       </c>
       <c r="C4" t="inlineStr">
         <is>
@@ -445,7 +445,7 @@
         <v>44562</v>
       </c>
       <c r="B5">
-        <v>125520694023</v>
+        <v>125396360545</v>
       </c>
       <c r="C5" t="inlineStr">
         <is>
@@ -463,7 +463,7 @@
         <v>44197</v>
       </c>
       <c r="B6">
-        <v>87388114896</v>
+        <v>87375213689</v>
       </c>
       <c r="C6" t="inlineStr">
         <is>
@@ -481,7 +481,7 @@
         <v>44562</v>
       </c>
       <c r="B7">
-        <v>96329051273</v>
+        <v>96683418218</v>
       </c>
       <c r="C7" t="inlineStr">
         <is>
@@ -499,7 +499,7 @@
         <v>44197</v>
       </c>
       <c r="B8">
-        <v>1405464727</v>
+        <v>1356992744</v>
       </c>
       <c r="C8" t="inlineStr">
         <is>
@@ -517,7 +517,7 @@
         <v>44562</v>
       </c>
       <c r="B9">
-        <v>1564953722</v>
+        <v>1517324748</v>
       </c>
       <c r="C9" t="inlineStr">
         <is>
@@ -535,7 +535,7 @@
         <v>44197</v>
       </c>
       <c r="B10">
-        <v>585020854259</v>
+        <v>584703018831</v>
       </c>
       <c r="C10" t="inlineStr">
         <is>
@@ -553,7 +553,7 @@
         <v>44562</v>
       </c>
       <c r="B11">
-        <v>606090958582</v>
+        <v>620147184296</v>
       </c>
       <c r="C11" t="inlineStr">
         <is>
@@ -571,7 +571,7 @@
         <v>44197</v>
       </c>
       <c r="B12">
-        <v>189515440204</v>
+        <v>189230877537</v>
       </c>
       <c r="C12" t="inlineStr">
         <is>
@@ -589,7 +589,7 @@
         <v>44562</v>
       </c>
       <c r="B13">
-        <v>196096336545</v>
+        <v>197597896388</v>
       </c>
       <c r="C13" t="inlineStr">
         <is>
@@ -679,7 +679,7 @@
         <v>44197</v>
       </c>
       <c r="B18">
-        <v>505755742</v>
+        <v>505815008</v>
       </c>
       <c r="C18" t="inlineStr">
         <is>
@@ -697,7 +697,7 @@
         <v>44562</v>
       </c>
       <c r="B19">
-        <v>742312920</v>
+        <v>742312937</v>
       </c>
       <c r="C19" t="inlineStr">
         <is>
@@ -715,7 +715,7 @@
         <v>44197</v>
       </c>
       <c r="B20">
-        <v>5194857138</v>
+        <v>5194857139</v>
       </c>
       <c r="C20" t="inlineStr">
         <is>
@@ -769,7 +769,7 @@
         <v>44562</v>
       </c>
       <c r="B23">
-        <v>852324983</v>
+        <v>849932257</v>
       </c>
       <c r="C23" t="inlineStr">
         <is>
@@ -787,7 +787,7 @@
         <v>44197</v>
       </c>
       <c r="B24">
-        <v>5098716357715</v>
+        <v>5098057769335</v>
       </c>
       <c r="C24" t="inlineStr">
         <is>
@@ -805,7 +805,7 @@
         <v>44562</v>
       </c>
       <c r="B25">
-        <v>5597381953812</v>
+        <v>5602597985844</v>
       </c>
       <c r="C25" t="inlineStr">
         <is>
@@ -823,7 +823,7 @@
         <v>44197</v>
       </c>
       <c r="B26">
-        <v>1486390397277</v>
+        <v>1486269952777</v>
       </c>
       <c r="C26" t="inlineStr">
         <is>
@@ -841,7 +841,7 @@
         <v>44562</v>
       </c>
       <c r="B27">
-        <v>1508399209501</v>
+        <v>1635983944349</v>
       </c>
       <c r="C27" t="inlineStr">
         <is>
@@ -859,7 +859,7 @@
         <v>44197</v>
       </c>
       <c r="B28">
-        <v>15499728370</v>
+        <v>29268510351</v>
       </c>
       <c r="C28" t="inlineStr">
         <is>
@@ -877,7 +877,7 @@
         <v>44562</v>
       </c>
       <c r="B29">
-        <v>16713198045</v>
+        <v>34734783069</v>
       </c>
       <c r="C29" t="inlineStr">
         <is>
@@ -931,7 +931,7 @@
         <v>44197</v>
       </c>
       <c r="B32">
-        <v>5122553362</v>
+        <v>5122509755</v>
       </c>
       <c r="C32" t="inlineStr">
         <is>
@@ -949,7 +949,7 @@
         <v>44562</v>
       </c>
       <c r="B33">
-        <v>7417718269</v>
+        <v>7898168372</v>
       </c>
       <c r="C33" t="inlineStr">
         <is>
@@ -967,7 +967,7 @@
         <v>44197</v>
       </c>
       <c r="B34">
-        <v>35116184702</v>
+        <v>35116222724</v>
       </c>
       <c r="C34" t="inlineStr">
         <is>
@@ -985,7 +985,7 @@
         <v>44562</v>
       </c>
       <c r="B35">
-        <v>51443392563</v>
+        <v>51443395619</v>
       </c>
       <c r="C35" t="inlineStr">
         <is>
@@ -1003,7 +1003,7 @@
         <v>44197</v>
       </c>
       <c r="B36">
-        <v>7898507632</v>
+        <v>7905035982</v>
       </c>
       <c r="C36" t="inlineStr">
         <is>
@@ -1021,7 +1021,7 @@
         <v>44562</v>
       </c>
       <c r="B37">
-        <v>9583087913</v>
+        <v>9586647234</v>
       </c>
       <c r="C37" t="inlineStr">
         <is>
@@ -1201,7 +1201,7 @@
         <v>44562</v>
       </c>
       <c r="B47">
-        <v>34111609165</v>
+        <v>33919329160</v>
       </c>
       <c r="C47" t="inlineStr">
         <is>
@@ -1219,7 +1219,7 @@
         <v>44197</v>
       </c>
       <c r="B48">
-        <v>5172422078</v>
+        <v>5220890584</v>
       </c>
       <c r="C48" t="inlineStr">
         <is>
@@ -1237,7 +1237,7 @@
         <v>44562</v>
       </c>
       <c r="B49">
-        <v>7420601652</v>
+        <v>7431860263</v>
       </c>
       <c r="C49" t="inlineStr">
         <is>
@@ -1327,7 +1327,7 @@
         <v>44197</v>
       </c>
       <c r="B54">
-        <v>1724340397</v>
+        <v>1724282081</v>
       </c>
       <c r="C54" t="inlineStr">
         <is>
@@ -1345,7 +1345,7 @@
         <v>44562</v>
       </c>
       <c r="B55">
-        <v>1364919153</v>
+        <v>1382441280</v>
       </c>
       <c r="C55" t="inlineStr">
         <is>
@@ -1363,7 +1363,7 @@
         <v>44197</v>
       </c>
       <c r="B56">
-        <v>11490537178</v>
+        <v>11140863780</v>
       </c>
       <c r="C56" t="inlineStr">
         <is>
@@ -1381,7 +1381,7 @@
         <v>44562</v>
       </c>
       <c r="B57">
-        <v>16430987411</v>
+        <v>16236983261</v>
       </c>
       <c r="C57" t="inlineStr">
         <is>
@@ -1399,7 +1399,7 @@
         <v>44197</v>
       </c>
       <c r="B58">
-        <v>57439312855</v>
+        <v>57327001413</v>
       </c>
       <c r="C58" t="inlineStr">
         <is>
@@ -1417,7 +1417,7 @@
         <v>44562</v>
       </c>
       <c r="B59">
-        <v>65947952470</v>
+        <v>65431061315</v>
       </c>
       <c r="C59" t="inlineStr">
         <is>
@@ -1471,7 +1471,7 @@
         <v>44197</v>
       </c>
       <c r="B62">
-        <v>8188220682</v>
+        <v>8244915917</v>
       </c>
       <c r="C62" t="inlineStr">
         <is>
@@ -1507,7 +1507,7 @@
         <v>44197</v>
       </c>
       <c r="B64">
-        <v>3294370243</v>
+        <v>3293887573</v>
       </c>
       <c r="C64" t="inlineStr">
         <is>
@@ -1525,7 +1525,7 @@
         <v>44562</v>
       </c>
       <c r="B65">
-        <v>3340190387</v>
+        <v>3344361563</v>
       </c>
       <c r="C65" t="inlineStr">
         <is>
@@ -1561,7 +1561,7 @@
         <v>44562</v>
       </c>
       <c r="B67">
-        <v>9678192326</v>
+        <v>9678192327</v>
       </c>
       <c r="C67" t="inlineStr">
         <is>
@@ -1579,7 +1579,7 @@
         <v>44197</v>
       </c>
       <c r="B68">
-        <v>29557351</v>
+        <v>28260460</v>
       </c>
       <c r="C68" t="inlineStr">
         <is>
@@ -1597,7 +1597,7 @@
         <v>44562</v>
       </c>
       <c r="B69">
-        <v>37447679</v>
+        <v>36304992</v>
       </c>
       <c r="C69" t="inlineStr">
         <is>
@@ -1687,7 +1687,7 @@
         <v>44197</v>
       </c>
       <c r="B74">
-        <v>459609361804</v>
+        <v>459609361784</v>
       </c>
       <c r="C74" t="inlineStr">
         <is>
@@ -1705,7 +1705,7 @@
         <v>44562</v>
       </c>
       <c r="B75">
-        <v>529129755812</v>
+        <v>529129755617.0001</v>
       </c>
       <c r="C75" t="inlineStr">
         <is>
@@ -1723,7 +1723,7 @@
         <v>44197</v>
       </c>
       <c r="B76">
-        <v>18460488068</v>
+        <v>1999401236</v>
       </c>
       <c r="C76" t="inlineStr">
         <is>
@@ -1741,7 +1741,7 @@
         <v>44562</v>
       </c>
       <c r="B77">
-        <v>22312435805</v>
+        <v>8752530795</v>
       </c>
       <c r="C77" t="inlineStr">
         <is>
@@ -1759,7 +1759,7 @@
         <v>44197</v>
       </c>
       <c r="B78">
-        <v>719387447</v>
+        <v>715819565</v>
       </c>
       <c r="C78" t="inlineStr">
         <is>
@@ -1777,7 +1777,7 @@
         <v>44562</v>
       </c>
       <c r="B79">
-        <v>550681602</v>
+        <v>543087651</v>
       </c>
       <c r="C79" t="inlineStr">
         <is>
@@ -1795,7 +1795,7 @@
         <v>44197</v>
       </c>
       <c r="B80">
-        <v>1066056361</v>
+        <v>1042736971</v>
       </c>
       <c r="C80" t="inlineStr">
         <is>
@@ -1813,7 +1813,7 @@
         <v>44562</v>
       </c>
       <c r="B81">
-        <v>910258761</v>
+        <v>919388362</v>
       </c>
       <c r="C81" t="inlineStr">
         <is>
@@ -1831,7 +1831,7 @@
         <v>44197</v>
       </c>
       <c r="B82">
-        <v>4256698200</v>
+        <v>4256755108</v>
       </c>
       <c r="C82" t="inlineStr">
         <is>
@@ -1849,7 +1849,7 @@
         <v>44562</v>
       </c>
       <c r="B83">
-        <v>8120828537</v>
+        <v>11113142761</v>
       </c>
       <c r="C83" t="inlineStr">
         <is>
@@ -1867,7 +1867,7 @@
         <v>44197</v>
       </c>
       <c r="B84">
-        <v>563995340</v>
+        <v>770461101</v>
       </c>
       <c r="C84" t="inlineStr">
         <is>
@@ -1885,7 +1885,7 @@
         <v>44562</v>
       </c>
       <c r="B85">
-        <v>1941773921</v>
+        <v>2324878109</v>
       </c>
       <c r="C85" t="inlineStr">
         <is>
@@ -1903,7 +1903,7 @@
         <v>44197</v>
       </c>
       <c r="B86">
-        <v>615635199901</v>
+        <v>615546775621</v>
       </c>
       <c r="C86" t="inlineStr">
         <is>
@@ -1921,7 +1921,7 @@
         <v>44562</v>
       </c>
       <c r="B87">
-        <v>646456665919</v>
+        <v>658456586865</v>
       </c>
       <c r="C87" t="inlineStr">
         <is>
@@ -1939,7 +1939,7 @@
         <v>44197</v>
       </c>
       <c r="B88">
-        <v>1196833037</v>
+        <v>1196853585</v>
       </c>
       <c r="C88" t="inlineStr">
         <is>
@@ -1975,7 +1975,7 @@
         <v>44197</v>
       </c>
       <c r="B90">
-        <v>21877520351</v>
+        <v>21876645698</v>
       </c>
       <c r="C90" t="inlineStr">
         <is>
@@ -1993,7 +1993,7 @@
         <v>44562</v>
       </c>
       <c r="B91">
-        <v>25433110173</v>
+        <v>25465708266</v>
       </c>
       <c r="C91" t="inlineStr">
         <is>
@@ -2011,7 +2011,7 @@
         <v>44197</v>
       </c>
       <c r="B92">
-        <v>65826467475</v>
+        <v>65826467477</v>
       </c>
       <c r="C92" t="inlineStr">
         <is>
@@ -2029,7 +2029,7 @@
         <v>44562</v>
       </c>
       <c r="B93">
-        <v>44443200595</v>
+        <v>44443200593</v>
       </c>
       <c r="C93" t="inlineStr">
         <is>
@@ -2047,7 +2047,7 @@
         <v>44197</v>
       </c>
       <c r="B94">
-        <v>1060027678084</v>
+        <v>1035710213531</v>
       </c>
       <c r="C94" t="inlineStr">
         <is>
@@ -2065,7 +2065,7 @@
         <v>44562</v>
       </c>
       <c r="B95">
-        <v>1462412096648</v>
+        <v>1461064263388</v>
       </c>
       <c r="C95" t="inlineStr">
         <is>
@@ -2083,7 +2083,7 @@
         <v>44197</v>
       </c>
       <c r="B96">
-        <v>47217829177</v>
+        <v>47192441558</v>
       </c>
       <c r="C96" t="inlineStr">
         <is>
@@ -2101,7 +2101,7 @@
         <v>44562</v>
       </c>
       <c r="B97">
-        <v>57386404074</v>
+        <v>57523214936</v>
       </c>
       <c r="C97" t="inlineStr">
         <is>
@@ -2119,7 +2119,7 @@
         <v>44197</v>
       </c>
       <c r="B98">
-        <v>2696681066</v>
+        <v>2683177271</v>
       </c>
       <c r="C98" t="inlineStr">
         <is>
@@ -2137,7 +2137,7 @@
         <v>44562</v>
       </c>
       <c r="B99">
-        <v>3932668315</v>
+        <v>3940184868</v>
       </c>
       <c r="C99" t="inlineStr">
         <is>
@@ -2155,7 +2155,7 @@
         <v>44197</v>
       </c>
       <c r="B100">
-        <v>202805953976</v>
+        <v>202799937024</v>
       </c>
       <c r="C100" t="inlineStr">
         <is>
@@ -2173,7 +2173,7 @@
         <v>44562</v>
       </c>
       <c r="B101">
-        <v>211789472373</v>
+        <v>211920100617</v>
       </c>
       <c r="C101" t="inlineStr">
         <is>
@@ -2191,7 +2191,7 @@
         <v>44197</v>
       </c>
       <c r="B102">
-        <v>18105920559</v>
+        <v>17149312117</v>
       </c>
       <c r="C102" t="inlineStr">
         <is>
@@ -2209,7 +2209,7 @@
         <v>44562</v>
       </c>
       <c r="B103">
-        <v>18709478198</v>
+        <v>18603110371</v>
       </c>
       <c r="C103" t="inlineStr">
         <is>
@@ -2227,7 +2227,7 @@
         <v>44197</v>
       </c>
       <c r="B104">
-        <v>7683885529402</v>
+        <v>7697897486529</v>
       </c>
       <c r="C104" t="inlineStr">
         <is>
@@ -2245,7 +2245,7 @@
         <v>44562</v>
       </c>
       <c r="B105">
-        <v>8476003218561.999</v>
+        <v>8488336333658</v>
       </c>
       <c r="C105" t="inlineStr">
         <is>
@@ -2263,7 +2263,7 @@
         <v>44197</v>
       </c>
       <c r="B106">
-        <v>128432625</v>
+        <v>81378015</v>
       </c>
       <c r="C106" t="inlineStr">
         <is>
@@ -2281,7 +2281,7 @@
         <v>44562</v>
       </c>
       <c r="B107">
-        <v>96981503</v>
+        <v>97345831</v>
       </c>
       <c r="C107" t="inlineStr">
         <is>
@@ -2299,7 +2299,7 @@
         <v>44197</v>
       </c>
       <c r="B108">
-        <v>3717781751</v>
+        <v>4243840390</v>
       </c>
       <c r="C108" t="inlineStr">
         <is>
@@ -2317,7 +2317,7 @@
         <v>44562</v>
       </c>
       <c r="B109">
-        <v>3843456803</v>
+        <v>4601810487</v>
       </c>
       <c r="C109" t="inlineStr">
         <is>
@@ -2371,7 +2371,7 @@
         <v>44197</v>
       </c>
       <c r="B112">
-        <v>21520017962</v>
+        <v>21398258090</v>
       </c>
       <c r="C112" t="inlineStr">
         <is>
@@ -2389,7 +2389,7 @@
         <v>44562</v>
       </c>
       <c r="B113">
-        <v>21711715587</v>
+        <v>22380480761</v>
       </c>
       <c r="C113" t="inlineStr">
         <is>
@@ -2407,7 +2407,7 @@
         <v>44197</v>
       </c>
       <c r="B114">
-        <v>402924907</v>
+        <v>413341003</v>
       </c>
       <c r="C114" t="inlineStr">
         <is>
@@ -2425,7 +2425,7 @@
         <v>44562</v>
       </c>
       <c r="B115">
-        <v>487687662</v>
+        <v>490566692</v>
       </c>
       <c r="C115" t="inlineStr">
         <is>
@@ -2443,7 +2443,7 @@
         <v>44197</v>
       </c>
       <c r="B116">
-        <v>122354020961</v>
+        <v>122354020925</v>
       </c>
       <c r="C116" t="inlineStr">
         <is>
@@ -2461,7 +2461,7 @@
         <v>44562</v>
       </c>
       <c r="B117">
-        <v>123387268724</v>
+        <v>123387268690</v>
       </c>
       <c r="C117" t="inlineStr">
         <is>
@@ -2479,7 +2479,7 @@
         <v>44197</v>
       </c>
       <c r="B118">
-        <v>456881520148</v>
+        <v>457406963375</v>
       </c>
       <c r="C118" t="inlineStr">
         <is>
@@ -2497,7 +2497,7 @@
         <v>44562</v>
       </c>
       <c r="B119">
-        <v>516016210112</v>
+        <v>516016208516</v>
       </c>
       <c r="C119" t="inlineStr">
         <is>
@@ -2515,7 +2515,7 @@
         <v>44197</v>
       </c>
       <c r="B120">
-        <v>74619469679</v>
+        <v>74619469933</v>
       </c>
       <c r="C120" t="inlineStr">
         <is>
@@ -2533,7 +2533,7 @@
         <v>44562</v>
       </c>
       <c r="B121">
-        <v>80744579633</v>
+        <v>80742656602</v>
       </c>
       <c r="C121" t="inlineStr">
         <is>
@@ -2569,7 +2569,7 @@
         <v>44562</v>
       </c>
       <c r="B123">
-        <v>15683554940</v>
+        <v>15683554938</v>
       </c>
       <c r="C123" t="inlineStr">
         <is>
@@ -2605,7 +2605,7 @@
         <v>44562</v>
       </c>
       <c r="B125">
-        <v>82862675165</v>
+        <v>82954643386</v>
       </c>
       <c r="C125" t="inlineStr">
         <is>
@@ -2659,7 +2659,7 @@
         <v>44197</v>
       </c>
       <c r="B128">
-        <v>388537392760</v>
+        <v>401742997208</v>
       </c>
       <c r="C128" t="inlineStr">
         <is>
@@ -2677,7 +2677,7 @@
         <v>44562</v>
       </c>
       <c r="B129">
-        <v>450362826552</v>
+        <v>455615714240</v>
       </c>
       <c r="C129" t="inlineStr">
         <is>
@@ -2695,7 +2695,7 @@
         <v>44197</v>
       </c>
       <c r="B130">
-        <v>2371050389</v>
+        <v>2305095622</v>
       </c>
       <c r="C130" t="inlineStr">
         <is>
@@ -2713,7 +2713,7 @@
         <v>44562</v>
       </c>
       <c r="B131">
-        <v>3313072323</v>
+        <v>3388964120</v>
       </c>
       <c r="C131" t="inlineStr">
         <is>
@@ -2767,7 +2767,7 @@
         <v>44197</v>
       </c>
       <c r="B134">
-        <v>208746261</v>
+        <v>206956350</v>
       </c>
       <c r="C134" t="inlineStr">
         <is>
@@ -2785,7 +2785,7 @@
         <v>44562</v>
       </c>
       <c r="B135">
-        <v>261599031</v>
+        <v>250783334</v>
       </c>
       <c r="C135" t="inlineStr">
         <is>
@@ -2803,7 +2803,7 @@
         <v>44197</v>
       </c>
       <c r="B136">
-        <v>4835357352</v>
+        <v>4666448651</v>
       </c>
       <c r="C136" t="inlineStr">
         <is>
@@ -2821,7 +2821,7 @@
         <v>44562</v>
       </c>
       <c r="B137">
-        <v>4964056426</v>
+        <v>4542015316</v>
       </c>
       <c r="C137" t="inlineStr">
         <is>
@@ -2839,7 +2839,7 @@
         <v>44197</v>
       </c>
       <c r="B138">
-        <v>41157188671</v>
+        <v>41153626063</v>
       </c>
       <c r="C138" t="inlineStr">
         <is>
@@ -2857,7 +2857,7 @@
         <v>44562</v>
       </c>
       <c r="B139">
-        <v>48172192792</v>
+        <v>49915072364</v>
       </c>
       <c r="C139" t="inlineStr">
         <is>
@@ -2947,7 +2947,7 @@
         <v>44197</v>
       </c>
       <c r="B144">
-        <v>16800336177</v>
+        <v>16794207402</v>
       </c>
       <c r="C144" t="inlineStr">
         <is>
@@ -2965,7 +2965,7 @@
         <v>44562</v>
       </c>
       <c r="B145">
-        <v>17186273214</v>
+        <v>17293488034</v>
       </c>
       <c r="C145" t="inlineStr">
         <is>
@@ -2983,7 +2983,7 @@
         <v>44197</v>
       </c>
       <c r="B146">
-        <v>1653526591992</v>
+        <v>1627554565772</v>
       </c>
       <c r="C146" t="inlineStr">
         <is>
@@ -3001,7 +3001,7 @@
         <v>44562</v>
       </c>
       <c r="B147">
-        <v>2096070336513</v>
+        <v>2219112105397</v>
       </c>
       <c r="C147" t="inlineStr">
         <is>
@@ -3073,7 +3073,7 @@
         <v>44562</v>
       </c>
       <c r="B151">
-        <v>59475619</v>
+        <v>50746095</v>
       </c>
       <c r="C151" t="inlineStr">
         <is>
@@ -3091,7 +3091,7 @@
         <v>44197</v>
       </c>
       <c r="B152">
-        <v>558500410861</v>
+        <v>571441803027</v>
       </c>
       <c r="C152" t="inlineStr">
         <is>
@@ -3109,7 +3109,7 @@
         <v>44562</v>
       </c>
       <c r="B153">
-        <v>668734987820</v>
+        <v>675650938058</v>
       </c>
       <c r="C153" t="inlineStr">
         <is>
@@ -3145,7 +3145,7 @@
         <v>44562</v>
       </c>
       <c r="B155">
-        <v>320067201</v>
+        <v>320067196</v>
       </c>
       <c r="C155" t="inlineStr">
         <is>
@@ -3181,7 +3181,7 @@
         <v>44562</v>
       </c>
       <c r="B157">
-        <v>22606585819</v>
+        <v>22606585803</v>
       </c>
       <c r="C157" t="inlineStr">
         <is>
@@ -3199,7 +3199,7 @@
         <v>44197</v>
       </c>
       <c r="B158">
-        <v>1636741953216</v>
+        <v>1636499583636</v>
       </c>
       <c r="C158" t="inlineStr">
         <is>
@@ -3217,7 +3217,7 @@
         <v>44562</v>
       </c>
       <c r="B159">
-        <v>1648928217936</v>
+        <v>1675542637284</v>
       </c>
       <c r="C159" t="inlineStr">
         <is>
@@ -3235,7 +3235,7 @@
         <v>44197</v>
       </c>
       <c r="B160">
-        <v>9337412121394</v>
+        <v>9325452052301</v>
       </c>
       <c r="C160" t="inlineStr">
         <is>
@@ -3253,7 +3253,7 @@
         <v>44562</v>
       </c>
       <c r="B161">
-        <v>10572073555075</v>
+        <v>10707448439055</v>
       </c>
       <c r="C161" t="inlineStr">
         <is>
@@ -3271,7 +3271,7 @@
         <v>44197</v>
       </c>
       <c r="B162">
-        <v>27300393866</v>
+        <v>27678875989</v>
       </c>
       <c r="C162" t="inlineStr">
         <is>
@@ -3289,7 +3289,7 @@
         <v>44562</v>
       </c>
       <c r="B163">
-        <v>41239110814</v>
+        <v>28043220248</v>
       </c>
       <c r="C163" t="inlineStr">
         <is>
@@ -3307,7 +3307,7 @@
         <v>44197</v>
       </c>
       <c r="B164">
-        <v>840031521514</v>
+        <v>838490707640</v>
       </c>
       <c r="C164" t="inlineStr">
         <is>
@@ -3325,7 +3325,7 @@
         <v>44562</v>
       </c>
       <c r="B165">
-        <v>943008707000</v>
+        <v>962446383027</v>
       </c>
       <c r="C165" t="inlineStr">
         <is>
@@ -3343,11 +3343,11 @@
         <v>44197</v>
       </c>
       <c r="B166">
-        <v>533831273</v>
+        <v>892353860</v>
       </c>
       <c r="C166" t="inlineStr">
         <is>
-          <t>Somalia</t>
+          <t>Fiji</t>
         </is>
       </c>
       <c r="D166" t="inlineStr">
@@ -3361,11 +3361,11 @@
         <v>44562</v>
       </c>
       <c r="B167">
-        <v>648035736</v>
+        <v>1049353865</v>
       </c>
       <c r="C167" t="inlineStr">
         <is>
-          <t>Somalia</t>
+          <t>Fiji</t>
         </is>
       </c>
       <c r="D167" t="inlineStr">
@@ -3379,11 +3379,11 @@
         <v>44197</v>
       </c>
       <c r="B168">
-        <v>12442763191</v>
+        <v>383898692</v>
       </c>
       <c r="C168" t="inlineStr">
         <is>
-          <t>Dominican Republic</t>
+          <t>Somalia</t>
         </is>
       </c>
       <c r="D168" t="inlineStr">
@@ -3397,11 +3397,11 @@
         <v>44562</v>
       </c>
       <c r="B169">
-        <v>13430421380</v>
+        <v>533148001</v>
       </c>
       <c r="C169" t="inlineStr">
         <is>
-          <t>Dominican Republic</t>
+          <t>Somalia</t>
         </is>
       </c>
       <c r="D169" t="inlineStr">
@@ -3415,11 +3415,11 @@
         <v>44197</v>
       </c>
       <c r="B170">
-        <v>15158813096</v>
+        <v>12450830596</v>
       </c>
       <c r="C170" t="inlineStr">
         <is>
-          <t>Myanmar</t>
+          <t>Dominican Republic</t>
         </is>
       </c>
       <c r="D170" t="inlineStr">
@@ -3433,11 +3433,11 @@
         <v>44562</v>
       </c>
       <c r="B171">
-        <v>20554597715</v>
+        <v>13504327168</v>
       </c>
       <c r="C171" t="inlineStr">
         <is>
-          <t>Myanmar</t>
+          <t>Dominican Republic</t>
         </is>
       </c>
       <c r="D171" t="inlineStr">
@@ -3451,11 +3451,11 @@
         <v>44197</v>
       </c>
       <c r="B172">
-        <v>8377144113</v>
+        <v>15157860195</v>
       </c>
       <c r="C172" t="inlineStr">
         <is>
-          <t>Trinidad and Tobago</t>
+          <t>Myanmar</t>
         </is>
       </c>
       <c r="D172" t="inlineStr">
@@ -3469,11 +3469,11 @@
         <v>44562</v>
       </c>
       <c r="B173">
-        <v>13286260069</v>
+        <v>20549849248</v>
       </c>
       <c r="C173" t="inlineStr">
         <is>
-          <t>Trinidad and Tobago</t>
+          <t>Myanmar</t>
         </is>
       </c>
       <c r="D173" t="inlineStr">
@@ -3487,11 +3487,11 @@
         <v>44197</v>
       </c>
       <c r="B174">
-        <v>5040406639</v>
+        <v>8377046966</v>
       </c>
       <c r="C174" t="inlineStr">
         <is>
-          <t>Burkina Faso</t>
+          <t>Trinidad and Tobago</t>
         </is>
       </c>
       <c r="D174" t="inlineStr">
@@ -3505,11 +3505,11 @@
         <v>44562</v>
       </c>
       <c r="B175">
-        <v>4542731249</v>
+        <v>13286111383</v>
       </c>
       <c r="C175" t="inlineStr">
         <is>
-          <t>Burkina Faso</t>
+          <t>Trinidad and Tobago</t>
         </is>
       </c>
       <c r="D175" t="inlineStr">
@@ -3523,11 +3523,11 @@
         <v>44197</v>
       </c>
       <c r="B176">
-        <v>3015987201</v>
+        <v>5040406639</v>
       </c>
       <c r="C176" t="inlineStr">
         <is>
-          <t>Armenia</t>
+          <t>Burkina Faso</t>
         </is>
       </c>
       <c r="D176" t="inlineStr">
@@ -3541,11 +3541,11 @@
         <v>44562</v>
       </c>
       <c r="B177">
-        <v>5360069395</v>
+        <v>4542731249</v>
       </c>
       <c r="C177" t="inlineStr">
         <is>
-          <t>Armenia</t>
+          <t>Burkina Faso</t>
         </is>
       </c>
       <c r="D177" t="inlineStr">
@@ -3559,11 +3559,11 @@
         <v>44197</v>
       </c>
       <c r="B178">
-        <v>17235772613</v>
+        <v>3015987201</v>
       </c>
       <c r="C178" t="inlineStr">
         <is>
-          <t>Bahrain</t>
+          <t>Armenia</t>
         </is>
       </c>
       <c r="D178" t="inlineStr">
@@ -3577,11 +3577,11 @@
         <v>44562</v>
       </c>
       <c r="B179">
-        <v>24002199721</v>
+        <v>5360069395</v>
       </c>
       <c r="C179" t="inlineStr">
         <is>
-          <t>Bahrain</t>
+          <t>Armenia</t>
         </is>
       </c>
       <c r="D179" t="inlineStr">
@@ -3595,11 +3595,11 @@
         <v>44197</v>
       </c>
       <c r="B180">
-        <v>453367565</v>
+        <v>17783348522</v>
       </c>
       <c r="C180" t="inlineStr">
         <is>
-          <t>Djibouti</t>
+          <t>Bahrain</t>
         </is>
       </c>
       <c r="D180" t="inlineStr">
@@ -3613,11 +3613,11 @@
         <v>44562</v>
       </c>
       <c r="B181">
-        <v>496394589</v>
+        <v>24303078995</v>
       </c>
       <c r="C181" t="inlineStr">
         <is>
-          <t>Djibouti</t>
+          <t>Bahrain</t>
         </is>
       </c>
       <c r="D181" t="inlineStr">
@@ -3631,11 +3631,11 @@
         <v>44197</v>
       </c>
       <c r="B182">
-        <v>13318504421</v>
+        <v>405530153</v>
       </c>
       <c r="C182" t="inlineStr">
         <is>
-          <t>Sri Lanka</t>
+          <t>Djibouti</t>
         </is>
       </c>
       <c r="D182" t="inlineStr">
@@ -3649,11 +3649,11 @@
         <v>44562</v>
       </c>
       <c r="B183">
-        <v>17087759381</v>
+        <v>492099657</v>
       </c>
       <c r="C183" t="inlineStr">
         <is>
-          <t>Sri Lanka</t>
+          <t>Djibouti</t>
         </is>
       </c>
       <c r="D183" t="inlineStr">
@@ -3667,11 +3667,11 @@
         <v>44197</v>
       </c>
       <c r="B184">
-        <v>1501950851</v>
+        <v>13319505388</v>
       </c>
       <c r="C184" t="inlineStr">
         <is>
-          <t>Suriname</t>
+          <t>Sri Lanka</t>
         </is>
       </c>
       <c r="D184" t="inlineStr">
@@ -3685,11 +3685,11 @@
         <v>44562</v>
       </c>
       <c r="B185">
-        <v>1865118861</v>
+        <v>16852859898</v>
       </c>
       <c r="C185" t="inlineStr">
         <is>
-          <t>Suriname</t>
+          <t>Sri Lanka</t>
         </is>
       </c>
       <c r="D185" t="inlineStr">
@@ -3703,11 +3703,11 @@
         <v>44197</v>
       </c>
       <c r="B186">
-        <v>205019949</v>
+        <v>1501931237</v>
       </c>
       <c r="C186" t="inlineStr">
         <is>
-          <t>Korea, Democratic People`s Republic of</t>
+          <t>Suriname</t>
         </is>
       </c>
       <c r="D186" t="inlineStr">
@@ -3721,11 +3721,11 @@
         <v>44562</v>
       </c>
       <c r="B187">
-        <v>242906132</v>
+        <v>1832386840</v>
       </c>
       <c r="C187" t="inlineStr">
         <is>
-          <t>Korea, Democratic People`s Republic of</t>
+          <t>Suriname</t>
         </is>
       </c>
       <c r="D187" t="inlineStr">
@@ -3739,11 +3739,11 @@
         <v>44197</v>
       </c>
       <c r="B188">
-        <v>77629062185</v>
+        <v>189189717</v>
       </c>
       <c r="C188" t="inlineStr">
         <is>
-          <t>Argentina</t>
+          <t>Korea, Democratic People`s Republic of</t>
         </is>
       </c>
       <c r="D188" t="inlineStr">
@@ -3757,11 +3757,11 @@
         <v>44562</v>
       </c>
       <c r="B189">
-        <v>88057186977</v>
+        <v>242892082</v>
       </c>
       <c r="C189" t="inlineStr">
         <is>
-          <t>Argentina</t>
+          <t>Korea, Democratic People`s Republic of</t>
         </is>
       </c>
       <c r="D189" t="inlineStr">
@@ -3775,11 +3775,11 @@
         <v>44197</v>
       </c>
       <c r="B190">
-        <v>4386068761</v>
+        <v>77629062185</v>
       </c>
       <c r="C190" t="inlineStr">
         <is>
-          <t>Ethiopia</t>
+          <t>Argentina</t>
         </is>
       </c>
       <c r="D190" t="inlineStr">
@@ -3793,11 +3793,11 @@
         <v>44562</v>
       </c>
       <c r="B191">
-        <v>5364247540</v>
+        <v>88057187518</v>
       </c>
       <c r="C191" t="inlineStr">
         <is>
-          <t>Ethiopia</t>
+          <t>Argentina</t>
         </is>
       </c>
       <c r="D191" t="inlineStr">
@@ -3811,11 +3811,11 @@
         <v>44197</v>
       </c>
       <c r="B192">
-        <v>29079771</v>
+        <v>4006086648</v>
       </c>
       <c r="C192" t="inlineStr">
         <is>
-          <t>Samoa</t>
+          <t>Ethiopia</t>
         </is>
       </c>
       <c r="D192" t="inlineStr">
@@ -3829,11 +3829,11 @@
         <v>44562</v>
       </c>
       <c r="B193">
-        <v>41580145</v>
+        <v>4970889725</v>
       </c>
       <c r="C193" t="inlineStr">
         <is>
-          <t>Samoa</t>
+          <t>Ethiopia</t>
         </is>
       </c>
       <c r="D193" t="inlineStr">
@@ -3847,11 +3847,11 @@
         <v>44197</v>
       </c>
       <c r="B194">
-        <v>548868945700.0001</v>
+        <v>29079771</v>
       </c>
       <c r="C194" t="inlineStr">
         <is>
-          <t>Belgium</t>
+          <t>Samoa</t>
         </is>
       </c>
       <c r="D194" t="inlineStr">
@@ -3865,11 +3865,11 @@
         <v>44562</v>
       </c>
       <c r="B195">
-        <v>630277743020</v>
+        <v>41580145</v>
       </c>
       <c r="C195" t="inlineStr">
         <is>
-          <t>Belgium</t>
+          <t>Samoa</t>
         </is>
       </c>
       <c r="D195" t="inlineStr">
@@ -3883,11 +3883,11 @@
         <v>44197</v>
       </c>
       <c r="B196">
-        <v>494945383000</v>
+        <v>548761473283.0001</v>
       </c>
       <c r="C196" t="inlineStr">
         <is>
-          <t>Mexico</t>
+          <t>Belgium</t>
         </is>
       </c>
       <c r="D196" t="inlineStr">
@@ -3901,11 +3901,11 @@
         <v>44562</v>
       </c>
       <c r="B197">
-        <v>577729987000</v>
+        <v>637074082386</v>
       </c>
       <c r="C197" t="inlineStr">
         <is>
-          <t>Mexico</t>
+          <t>Belgium</t>
         </is>
       </c>
       <c r="D197" t="inlineStr">
@@ -3919,11 +3919,11 @@
         <v>44197</v>
       </c>
       <c r="B198">
-        <v>266291811220</v>
+        <v>494945383000</v>
       </c>
       <c r="C198" t="inlineStr">
         <is>
-          <t>Thailand</t>
+          <t>Mexico</t>
         </is>
       </c>
       <c r="D198" t="inlineStr">
@@ -3937,11 +3937,11 @@
         <v>44562</v>
       </c>
       <c r="B199">
-        <v>283862758108</v>
+        <v>577729987000</v>
       </c>
       <c r="C199" t="inlineStr">
         <is>
-          <t>Thailand</t>
+          <t>Mexico</t>
         </is>
       </c>
       <c r="D199" t="inlineStr">
@@ -3955,11 +3955,11 @@
         <v>44197</v>
       </c>
       <c r="B200">
-        <v>272889507622</v>
+        <v>266291811220</v>
       </c>
       <c r="C200" t="inlineStr">
         <is>
-          <t>United Arab Emirates</t>
+          <t>Thailand</t>
         </is>
       </c>
       <c r="D200" t="inlineStr">
@@ -3973,11 +3973,11 @@
         <v>44562</v>
       </c>
       <c r="B201">
-        <v>373621920177</v>
+        <v>283862758108</v>
       </c>
       <c r="C201" t="inlineStr">
         <is>
-          <t>United Arab Emirates</t>
+          <t>Thailand</t>
         </is>
       </c>
       <c r="D201" t="inlineStr">
@@ -3991,11 +3991,11 @@
         <v>44197</v>
       </c>
       <c r="B202">
-        <v>81995695893</v>
+        <v>265400379239</v>
       </c>
       <c r="C202" t="inlineStr">
         <is>
-          <t>Finland</t>
+          <t>United Arab Emirates</t>
         </is>
       </c>
       <c r="D202" t="inlineStr">
@@ -4009,11 +4009,11 @@
         <v>44562</v>
       </c>
       <c r="B203">
-        <v>85499042692</v>
+        <v>371834947533</v>
       </c>
       <c r="C203" t="inlineStr">
         <is>
-          <t>Finland</t>
+          <t>United Arab Emirates</t>
         </is>
       </c>
       <c r="D203" t="inlineStr">
@@ -4027,11 +4027,11 @@
         <v>44197</v>
       </c>
       <c r="B204">
-        <v>1476469861</v>
+        <v>81975805377</v>
       </c>
       <c r="C204" t="inlineStr">
         <is>
-          <t>Jamaica</t>
+          <t>Finland</t>
         </is>
       </c>
       <c r="D204" t="inlineStr">
@@ -4045,11 +4045,11 @@
         <v>44562</v>
       </c>
       <c r="B205">
-        <v>1066726397</v>
+        <v>86021280086</v>
       </c>
       <c r="C205" t="inlineStr">
         <is>
-          <t>Jamaica</t>
+          <t>Finland</t>
         </is>
       </c>
       <c r="D205" t="inlineStr">
@@ -4063,11 +4063,11 @@
         <v>44197</v>
       </c>
       <c r="B206">
-        <v>73949044</v>
+        <v>1439627959</v>
       </c>
       <c r="C206" t="inlineStr">
         <is>
-          <t>Cabo Verde</t>
+          <t>Jamaica</t>
         </is>
       </c>
       <c r="D206" t="inlineStr">
@@ -4081,11 +4081,11 @@
         <v>44562</v>
       </c>
       <c r="B207">
-        <v>58884046</v>
+        <v>1062411823</v>
       </c>
       <c r="C207" t="inlineStr">
         <is>
-          <t>Cabo Verde</t>
+          <t>Jamaica</t>
         </is>
       </c>
       <c r="D207" t="inlineStr">
@@ -4099,11 +4099,11 @@
         <v>44197</v>
       </c>
       <c r="B208">
-        <v>190658115266</v>
+        <v>73996038</v>
       </c>
       <c r="C208" t="inlineStr">
         <is>
-          <t>Ireland</t>
+          <t>Cabo Verde</t>
         </is>
       </c>
       <c r="D208" t="inlineStr">
@@ -4117,11 +4117,11 @@
         <v>44562</v>
       </c>
       <c r="B209">
-        <v>212266368063</v>
+        <v>58900735</v>
       </c>
       <c r="C209" t="inlineStr">
         <is>
-          <t>Ireland</t>
+          <t>Cabo Verde</t>
         </is>
       </c>
       <c r="D209" t="inlineStr">
@@ -4135,11 +4135,11 @@
         <v>44197</v>
       </c>
       <c r="B210">
-        <v>41389989091</v>
+        <v>190618745215</v>
       </c>
       <c r="C210" t="inlineStr">
         <is>
-          <t>Colombia</t>
+          <t>Ireland</t>
         </is>
       </c>
       <c r="D210" t="inlineStr">
@@ -4153,11 +4153,11 @@
         <v>44562</v>
       </c>
       <c r="B211">
-        <v>57105700449</v>
+        <v>214115196468</v>
       </c>
       <c r="C211" t="inlineStr">
         <is>
-          <t>Colombia</t>
+          <t>Ireland</t>
         </is>
       </c>
       <c r="D211" t="inlineStr">
@@ -4171,11 +4171,11 @@
         <v>44197</v>
       </c>
       <c r="B212">
-        <v>16676588927</v>
+        <v>41389989091</v>
       </c>
       <c r="C212" t="inlineStr">
         <is>
-          <t>Tunisia</t>
+          <t>Colombia</t>
         </is>
       </c>
       <c r="D212" t="inlineStr">
@@ -4189,11 +4189,11 @@
         <v>44562</v>
       </c>
       <c r="B213">
-        <v>18561195339</v>
+        <v>57105700449</v>
       </c>
       <c r="C213" t="inlineStr">
         <is>
-          <t>Tunisia</t>
+          <t>Colombia</t>
         </is>
       </c>
       <c r="D213" t="inlineStr">
@@ -4207,11 +4207,11 @@
         <v>44197</v>
       </c>
       <c r="B214">
-        <v>1579760930</v>
+        <v>16676584813</v>
       </c>
       <c r="C214" t="inlineStr">
         <is>
-          <t>Faroe Islands</t>
+          <t>Tunisia</t>
         </is>
       </c>
       <c r="D214" t="inlineStr">
@@ -4225,11 +4225,11 @@
         <v>44562</v>
       </c>
       <c r="B215">
-        <v>2218988093</v>
+        <v>18561194823</v>
       </c>
       <c r="C215" t="inlineStr">
         <is>
-          <t>Faroe Islands</t>
+          <t>Tunisia</t>
         </is>
       </c>
       <c r="D215" t="inlineStr">
@@ -4243,11 +4243,11 @@
         <v>44197</v>
       </c>
       <c r="B216">
-        <v>394463710390</v>
+        <v>1534564659</v>
       </c>
       <c r="C216" t="inlineStr">
         <is>
-          <t>India</t>
+          <t>Faroe Islands</t>
         </is>
       </c>
       <c r="D216" t="inlineStr">
@@ -4261,11 +4261,11 @@
         <v>44562</v>
       </c>
       <c r="B217">
-        <v>453196569073</v>
+        <v>2104032626</v>
       </c>
       <c r="C217" t="inlineStr">
         <is>
-          <t>India</t>
+          <t>Faroe Islands</t>
         </is>
       </c>
       <c r="D217" t="inlineStr">
@@ -4279,11 +4279,11 @@
         <v>44197</v>
       </c>
       <c r="B218">
-        <v>2383157450</v>
+        <v>394463710390</v>
       </c>
       <c r="C218" t="inlineStr">
         <is>
-          <t>Congo</t>
+          <t>India</t>
         </is>
       </c>
       <c r="D218" t="inlineStr">
@@ -4297,11 +4297,11 @@
         <v>44562</v>
       </c>
       <c r="B219">
-        <v>3918687292</v>
+        <v>453196569073</v>
       </c>
       <c r="C219" t="inlineStr">
         <is>
-          <t>Congo</t>
+          <t>India</t>
         </is>
       </c>
       <c r="D219" t="inlineStr">
@@ -4315,11 +4315,11 @@
         <v>44197</v>
       </c>
       <c r="B220">
-        <v>10559535045</v>
+        <v>2385244195</v>
       </c>
       <c r="C220" t="inlineStr">
         <is>
-          <t>Paraguay</t>
+          <t>Congo</t>
         </is>
       </c>
       <c r="D220" t="inlineStr">
@@ -4333,11 +4333,11 @@
         <v>44562</v>
       </c>
       <c r="B221">
-        <v>9957013974</v>
+        <v>3699635835</v>
       </c>
       <c r="C221" t="inlineStr">
         <is>
-          <t>Paraguay</t>
+          <t>Congo</t>
         </is>
       </c>
       <c r="D221" t="inlineStr">
@@ -4351,11 +4351,11 @@
         <v>44197</v>
       </c>
       <c r="B222">
-        <v>28681421753</v>
+        <v>10559535045</v>
       </c>
       <c r="C222" t="inlineStr">
         <is>
-          <t>Pakistan</t>
+          <t>Paraguay</t>
         </is>
       </c>
       <c r="D222" t="inlineStr">
@@ -4369,11 +4369,11 @@
         <v>44562</v>
       </c>
       <c r="B223">
-        <v>30872794285</v>
+        <v>9957013974</v>
       </c>
       <c r="C223" t="inlineStr">
         <is>
-          <t>Pakistan</t>
+          <t>Paraguay</t>
         </is>
       </c>
       <c r="D223" t="inlineStr">
@@ -4387,11 +4387,11 @@
         <v>44197</v>
       </c>
       <c r="B224">
-        <v>600650741</v>
+        <v>28681421753</v>
       </c>
       <c r="C224" t="inlineStr">
         <is>
-          <t>Liberia</t>
+          <t>Pakistan</t>
         </is>
       </c>
       <c r="D224" t="inlineStr">
@@ -4405,11 +4405,11 @@
         <v>44562</v>
       </c>
       <c r="B225">
-        <v>728278899</v>
+        <v>30872794285</v>
       </c>
       <c r="C225" t="inlineStr">
         <is>
-          <t>Liberia</t>
+          <t>Pakistan</t>
         </is>
       </c>
       <c r="D225" t="inlineStr">
@@ -4423,11 +4423,11 @@
         <v>44197</v>
       </c>
       <c r="B226">
-        <v>1200444778</v>
+        <v>609633697</v>
       </c>
       <c r="C226" t="inlineStr">
         <is>
-          <t>Cuba</t>
+          <t>Liberia</t>
         </is>
       </c>
       <c r="D226" t="inlineStr">
@@ -4441,11 +4441,11 @@
         <v>44562</v>
       </c>
       <c r="B227">
-        <v>1322047590</v>
+        <v>724915888</v>
       </c>
       <c r="C227" t="inlineStr">
         <is>
-          <t>Cuba</t>
+          <t>Liberia</t>
         </is>
       </c>
       <c r="D227" t="inlineStr">
@@ -4459,11 +4459,11 @@
         <v>44197</v>
       </c>
       <c r="B228">
-        <v>36540162</v>
+        <v>1167803027</v>
       </c>
       <c r="C228" t="inlineStr">
         <is>
-          <t>Comoros</t>
+          <t>Cuba</t>
         </is>
       </c>
       <c r="D228" t="inlineStr">
@@ -4477,11 +4477,11 @@
         <v>44562</v>
       </c>
       <c r="B229">
-        <v>39108591</v>
+        <v>1274432666</v>
       </c>
       <c r="C229" t="inlineStr">
         <is>
-          <t>Comoros</t>
+          <t>Cuba</t>
         </is>
       </c>
       <c r="D229" t="inlineStr">
@@ -4495,11 +4495,11 @@
         <v>44197</v>
       </c>
       <c r="B230">
-        <v>2707433581</v>
+        <v>36335997</v>
       </c>
       <c r="C230" t="inlineStr">
         <is>
-          <t>Madagascar</t>
+          <t>Comoros</t>
         </is>
       </c>
       <c r="D230" t="inlineStr">
@@ -4513,11 +4513,11 @@
         <v>44562</v>
       </c>
       <c r="B231">
-        <v>3546314854</v>
+        <v>48822391</v>
       </c>
       <c r="C231" t="inlineStr">
         <is>
-          <t>Madagascar</t>
+          <t>Comoros</t>
         </is>
       </c>
       <c r="D231" t="inlineStr">
@@ -4531,11 +4531,11 @@
         <v>44197</v>
       </c>
       <c r="B232">
-        <v>9386477126</v>
+        <v>2707433581</v>
       </c>
       <c r="C232" t="inlineStr">
         <is>
-          <t>Turkmenistan</t>
+          <t>Madagascar</t>
         </is>
       </c>
       <c r="D232" t="inlineStr">
@@ -4549,11 +4549,11 @@
         <v>44562</v>
       </c>
       <c r="B233">
-        <v>13236945506</v>
+        <v>3546314854</v>
       </c>
       <c r="C233" t="inlineStr">
         <is>
-          <t>Turkmenistan</t>
+          <t>Madagascar</t>
         </is>
       </c>
       <c r="D233" t="inlineStr">
@@ -4567,11 +4567,11 @@
         <v>44197</v>
       </c>
       <c r="B234">
-        <v>36530850612</v>
+        <v>9376914778</v>
       </c>
       <c r="C234" t="inlineStr">
         <is>
-          <t>Morocco</t>
+          <t>Turkmenistan</t>
         </is>
       </c>
       <c r="D234" t="inlineStr">
@@ -4585,11 +4585,11 @@
         <v>44562</v>
       </c>
       <c r="B235">
-        <v>40296864304</v>
+        <v>13427020887</v>
       </c>
       <c r="C235" t="inlineStr">
         <is>
-          <t>Morocco</t>
+          <t>Turkmenistan</t>
         </is>
       </c>
       <c r="D235" t="inlineStr">
@@ -4603,11 +4603,11 @@
         <v>44197</v>
       </c>
       <c r="B236">
-        <v>141830131266</v>
+        <v>36530850612</v>
       </c>
       <c r="C236" t="inlineStr">
         <is>
-          <t>Hungary</t>
+          <t>Morocco</t>
         </is>
       </c>
       <c r="D236" t="inlineStr">
@@ -4621,11 +4621,11 @@
         <v>44562</v>
       </c>
       <c r="B237">
-        <v>151539733908</v>
+        <v>41999045131</v>
       </c>
       <c r="C237" t="inlineStr">
         <is>
-          <t>Hungary</t>
+          <t>Morocco</t>
         </is>
       </c>
       <c r="D237" t="inlineStr">
@@ -4639,11 +4639,11 @@
         <v>44197</v>
       </c>
       <c r="B238">
-        <v>53001089</v>
+        <v>141825413586</v>
       </c>
       <c r="C238" t="inlineStr">
         <is>
-          <t>Saint Vincent and the Grenadines</t>
+          <t>Hungary</t>
         </is>
       </c>
       <c r="D238" t="inlineStr">
@@ -4657,11 +4657,11 @@
         <v>44562</v>
       </c>
       <c r="B239">
-        <v>71448202</v>
+        <v>151668982722</v>
       </c>
       <c r="C239" t="inlineStr">
         <is>
-          <t>Saint Vincent and the Grenadines</t>
+          <t>Hungary</t>
         </is>
       </c>
       <c r="D239" t="inlineStr">
@@ -4675,11 +4675,11 @@
         <v>44197</v>
       </c>
       <c r="B240">
-        <v>52124016</v>
+        <v>53032378</v>
       </c>
       <c r="C240" t="inlineStr">
         <is>
-          <t>Bermuda</t>
+          <t>Saint Vincent and the Grenadines</t>
         </is>
       </c>
       <c r="D240" t="inlineStr">
@@ -4693,11 +4693,11 @@
         <v>44562</v>
       </c>
       <c r="B241">
-        <v>69795399</v>
+        <v>71459850</v>
       </c>
       <c r="C241" t="inlineStr">
         <is>
-          <t>Bermuda</t>
+          <t>Saint Vincent and the Grenadines</t>
         </is>
       </c>
       <c r="D241" t="inlineStr">
@@ -4711,11 +4711,11 @@
         <v>44197</v>
       </c>
       <c r="B242">
-        <v>501740476073</v>
+        <v>51572564</v>
       </c>
       <c r="C242" t="inlineStr">
         <is>
-          <t>Canada</t>
+          <t>Bermuda</t>
         </is>
       </c>
       <c r="D242" t="inlineStr">
@@ -4729,11 +4729,11 @@
         <v>44562</v>
       </c>
       <c r="B243">
-        <v>596957712230</v>
+        <v>66214646</v>
       </c>
       <c r="C243" t="inlineStr">
         <is>
-          <t>Canada</t>
+          <t>Bermuda</t>
         </is>
       </c>
       <c r="D243" t="inlineStr">
@@ -4747,11 +4747,11 @@
         <v>44197</v>
       </c>
       <c r="B244">
-        <v>1658948421</v>
+        <v>501740476073</v>
       </c>
       <c r="C244" t="inlineStr">
         <is>
-          <t>Kyrgyzstan</t>
+          <t>Canada</t>
         </is>
       </c>
       <c r="D244" t="inlineStr">
@@ -4765,11 +4765,11 @@
         <v>44562</v>
       </c>
       <c r="B245">
-        <v>2186695025</v>
+        <v>596957712230</v>
       </c>
       <c r="C245" t="inlineStr">
         <is>
-          <t>Kyrgyzstan</t>
+          <t>Canada</t>
         </is>
       </c>
       <c r="D245" t="inlineStr">
@@ -4783,11 +4783,11 @@
         <v>44197</v>
       </c>
       <c r="B246">
-        <v>4413083600</v>
+        <v>1658948421</v>
       </c>
       <c r="C246" t="inlineStr">
         <is>
-          <t>Cameroon</t>
+          <t>Kyrgyzstan</t>
         </is>
       </c>
       <c r="D246" t="inlineStr">
@@ -4801,11 +4801,11 @@
         <v>44562</v>
       </c>
       <c r="B247">
-        <v>6078898594</v>
+        <v>2186695032</v>
       </c>
       <c r="C247" t="inlineStr">
         <is>
-          <t>Cameroon</t>
+          <t>Kyrgyzstan</t>
         </is>
       </c>
       <c r="D247" t="inlineStr">
@@ -4819,11 +4819,11 @@
         <v>44197</v>
       </c>
       <c r="B248">
-        <v>9241377403</v>
+        <v>4421384184</v>
       </c>
       <c r="C248" t="inlineStr">
         <is>
-          <t>Mongolia</t>
+          <t>Cameroon</t>
         </is>
       </c>
       <c r="D248" t="inlineStr">
@@ -4837,11 +4837,11 @@
         <v>44562</v>
       </c>
       <c r="B249">
-        <v>12525983914</v>
+        <v>6043313217</v>
       </c>
       <c r="C249" t="inlineStr">
         <is>
-          <t>Mongolia</t>
+          <t>Cameroon</t>
         </is>
       </c>
       <c r="D249" t="inlineStr">
@@ -4855,11 +4855,11 @@
         <v>44197</v>
       </c>
       <c r="B250">
-        <v>1079792694</v>
+        <v>9241377403</v>
       </c>
       <c r="C250" t="inlineStr">
         <is>
-          <t>Togo</t>
+          <t>Mongolia</t>
         </is>
       </c>
       <c r="D250" t="inlineStr">
@@ -4873,11 +4873,11 @@
         <v>44562</v>
       </c>
       <c r="B251">
-        <v>2099760750</v>
+        <v>12525983914</v>
       </c>
       <c r="C251" t="inlineStr">
         <is>
-          <t>Togo</t>
+          <t>Mongolia</t>
         </is>
       </c>
       <c r="D251" t="inlineStr">
@@ -4891,11 +4891,11 @@
         <v>44197</v>
       </c>
       <c r="B252">
-        <v>264005693</v>
+        <v>1079792672</v>
       </c>
       <c r="C252" t="inlineStr">
         <is>
-          <t>Belize</t>
+          <t>Togo</t>
         </is>
       </c>
       <c r="D252" t="inlineStr">
@@ -4909,11 +4909,11 @@
         <v>44562</v>
       </c>
       <c r="B253">
-        <v>286430398</v>
+        <v>2086948426</v>
       </c>
       <c r="C253" t="inlineStr">
         <is>
-          <t>Belize</t>
+          <t>Togo</t>
         </is>
       </c>
       <c r="D253" t="inlineStr">
@@ -4927,11 +4927,11 @@
         <v>44197</v>
       </c>
       <c r="B254">
-        <v>39574133382</v>
+        <v>264005693</v>
       </c>
       <c r="C254" t="inlineStr">
         <is>
-          <t>New Zealand</t>
+          <t>Belize</t>
         </is>
       </c>
       <c r="D254" t="inlineStr">
@@ -4945,11 +4945,11 @@
         <v>44562</v>
       </c>
       <c r="B255">
-        <v>46319748469</v>
+        <v>286430398</v>
       </c>
       <c r="C255" t="inlineStr">
         <is>
-          <t>New Zealand</t>
+          <t>Belize</t>
         </is>
       </c>
       <c r="D255" t="inlineStr">
@@ -4963,11 +4963,11 @@
         <v>44197</v>
       </c>
       <c r="B256">
-        <v>3972854985</v>
+        <v>39574133382</v>
       </c>
       <c r="C256" t="inlineStr">
         <is>
-          <t>Uganda</t>
+          <t>New Zealand</t>
         </is>
       </c>
       <c r="D256" t="inlineStr">
@@ -4981,11 +4981,11 @@
         <v>44562</v>
       </c>
       <c r="B257">
-        <v>3587602694</v>
+        <v>46319748469</v>
       </c>
       <c r="C257" t="inlineStr">
         <is>
-          <t>Uganda</t>
+          <t>New Zealand</t>
         </is>
       </c>
       <c r="D257" t="inlineStr">
@@ -4999,11 +4999,11 @@
         <v>44197</v>
       </c>
       <c r="B258">
-        <v>11052004339</v>
+        <v>3972854985</v>
       </c>
       <c r="C258" t="inlineStr">
         <is>
-          <t>Brunei Darussalam</t>
+          <t>Uganda</t>
         </is>
       </c>
       <c r="D258" t="inlineStr">
@@ -5017,11 +5017,11 @@
         <v>44562</v>
       </c>
       <c r="B259">
-        <v>14411329523</v>
+        <v>3587602694</v>
       </c>
       <c r="C259" t="inlineStr">
         <is>
-          <t>Brunei Darussalam</t>
+          <t>Uganda</t>
         </is>
       </c>
       <c r="D259" t="inlineStr">
@@ -5035,11 +5035,11 @@
         <v>44197</v>
       </c>
       <c r="B260">
-        <v>56234173959</v>
+        <v>11012507376</v>
       </c>
       <c r="C260" t="inlineStr">
         <is>
-          <t>Peru</t>
+          <t>Brunei Darussalam</t>
         </is>
       </c>
       <c r="D260" t="inlineStr">
@@ -5053,11 +5053,11 @@
         <v>44562</v>
       </c>
       <c r="B261">
-        <v>65231727506</v>
+        <v>18453030611</v>
       </c>
       <c r="C261" t="inlineStr">
         <is>
-          <t>Peru</t>
+          <t>Brunei Darussalam</t>
         </is>
       </c>
       <c r="D261" t="inlineStr">
@@ -5071,11 +5071,11 @@
         <v>44197</v>
       </c>
       <c r="B262">
-        <v>20752708</v>
+        <v>56228586894</v>
       </c>
       <c r="C262" t="inlineStr">
         <is>
-          <t>Sao Tome and Principe</t>
+          <t>Peru</t>
         </is>
       </c>
       <c r="D262" t="inlineStr">
@@ -5089,11 +5089,11 @@
         <v>44562</v>
       </c>
       <c r="B263">
-        <v>20999923</v>
+        <v>60151838730</v>
       </c>
       <c r="C263" t="inlineStr">
         <is>
-          <t>Sao Tome and Principe</t>
+          <t>Peru</t>
         </is>
       </c>
       <c r="D263" t="inlineStr">
@@ -5107,11 +5107,11 @@
         <v>44197</v>
       </c>
       <c r="B264">
-        <v>3513117968</v>
+        <v>20752001</v>
       </c>
       <c r="C264" t="inlineStr">
         <is>
-          <t>Nicaragua</t>
+          <t>Sao Tome and Principe</t>
         </is>
       </c>
       <c r="D264" t="inlineStr">
@@ -5125,11 +5125,11 @@
         <v>44562</v>
       </c>
       <c r="B265">
-        <v>3878440278</v>
+        <v>20878375</v>
       </c>
       <c r="C265" t="inlineStr">
         <is>
-          <t>Nicaragua</t>
+          <t>Sao Tome and Principe</t>
         </is>
       </c>
       <c r="D265" t="inlineStr">
@@ -5143,11 +5143,11 @@
         <v>44197</v>
       </c>
       <c r="B266">
-        <v>340633516545</v>
+        <v>3513117968</v>
       </c>
       <c r="C266" t="inlineStr">
         <is>
-          <t>Poland</t>
+          <t>Nicaragua</t>
         </is>
       </c>
       <c r="D266" t="inlineStr">
@@ -5161,11 +5161,11 @@
         <v>44562</v>
       </c>
       <c r="B267">
-        <v>358180390257</v>
+        <v>3878440278</v>
       </c>
       <c r="C267" t="inlineStr">
         <is>
-          <t>Poland</t>
+          <t>Nicaragua</t>
         </is>
       </c>
       <c r="D267" t="inlineStr">
@@ -5179,11 +5179,11 @@
         <v>44197</v>
       </c>
       <c r="B268">
-        <v>344138637936</v>
+        <v>340530213607</v>
       </c>
       <c r="C268" t="inlineStr">
         <is>
-          <t>Australia</t>
+          <t>Poland</t>
         </is>
       </c>
       <c r="D268" t="inlineStr">
@@ -5197,11 +5197,11 @@
         <v>44562</v>
       </c>
       <c r="B269">
-        <v>412540265911</v>
+        <v>360395232176</v>
       </c>
       <c r="C269" t="inlineStr">
         <is>
-          <t>Australia</t>
+          <t>Poland</t>
         </is>
       </c>
       <c r="D269" t="inlineStr">
@@ -5215,11 +5215,11 @@
         <v>44197</v>
       </c>
       <c r="B270">
-        <v>278924567991</v>
+        <v>344138637936</v>
       </c>
       <c r="C270" t="inlineStr">
         <is>
-          <t>Saudi Arabia</t>
+          <t>Australia</t>
         </is>
       </c>
       <c r="D270" t="inlineStr">
@@ -5233,11 +5233,11 @@
         <v>44562</v>
       </c>
       <c r="B271">
-        <v>407429581914</v>
+        <v>412540265911</v>
       </c>
       <c r="C271" t="inlineStr">
         <is>
-          <t>Saudi Arabia</t>
+          <t>Australia</t>
         </is>
       </c>
       <c r="D271" t="inlineStr">
@@ -5251,11 +5251,11 @@
         <v>44197</v>
       </c>
       <c r="B272">
-        <v>125944806223</v>
+        <v>278924567991</v>
       </c>
       <c r="C272" t="inlineStr">
         <is>
-          <t>Denmark</t>
+          <t>Saudi Arabia</t>
         </is>
       </c>
       <c r="D272" t="inlineStr">
@@ -5269,11 +5269,11 @@
         <v>44562</v>
       </c>
       <c r="B273">
-        <v>129007157150</v>
+        <v>407429581914</v>
       </c>
       <c r="C273" t="inlineStr">
         <is>
-          <t>Denmark</t>
+          <t>Saudi Arabia</t>
         </is>
       </c>
       <c r="D273" t="inlineStr">
@@ -5287,11 +5287,11 @@
         <v>44197</v>
       </c>
       <c r="B274">
-        <v>22070483753161</v>
+        <v>125927151823</v>
       </c>
       <c r="C274" t="inlineStr">
         <is>
-          <t>All Countries, excluding the IO</t>
+          <t>Denmark</t>
         </is>
       </c>
       <c r="D274" t="inlineStr">
@@ -5305,11 +5305,11 @@
         <v>44562</v>
       </c>
       <c r="B275">
-        <v>24431469420315</v>
+        <v>131769792870</v>
       </c>
       <c r="C275" t="inlineStr">
         <is>
-          <t>All Countries, excluding the IO</t>
+          <t>Denmark</t>
         </is>
       </c>
       <c r="D275" t="inlineStr">
@@ -5323,11 +5323,11 @@
         <v>44197</v>
       </c>
       <c r="B276">
-        <v>330431996952</v>
+        <v>22059281139791</v>
       </c>
       <c r="C276" t="inlineStr">
         <is>
-          <t>Viet Nam</t>
+          <t>All Countries, excluding the IO</t>
         </is>
       </c>
       <c r="D276" t="inlineStr">
@@ -5341,11 +5341,11 @@
         <v>44562</v>
       </c>
       <c r="B277">
-        <v>364262418391</v>
+        <v>24666675250696</v>
       </c>
       <c r="C277" t="inlineStr">
         <is>
-          <t>Viet Nam</t>
+          <t>All Countries, excluding the IO</t>
         </is>
       </c>
       <c r="D277" t="inlineStr">
@@ -5359,11 +5359,11 @@
         <v>44197</v>
       </c>
       <c r="B278">
-        <v>3063586783</v>
+        <v>330431996952</v>
       </c>
       <c r="C278" t="inlineStr">
         <is>
-          <t>Malta</t>
+          <t>Viet Nam</t>
         </is>
       </c>
       <c r="D278" t="inlineStr">
@@ -5377,11 +5377,11 @@
         <v>44562</v>
       </c>
       <c r="B279">
-        <v>3089581086</v>
+        <v>364262418391</v>
       </c>
       <c r="C279" t="inlineStr">
         <is>
-          <t>Malta</t>
+          <t>Viet Nam</t>
         </is>
       </c>
       <c r="D279" t="inlineStr">
@@ -5395,11 +5395,11 @@
         <v>44197</v>
       </c>
       <c r="B280">
-        <v>231522458148</v>
+        <v>3054320816</v>
       </c>
       <c r="C280" t="inlineStr">
         <is>
-          <t>Indonesia</t>
+          <t>Malta</t>
         </is>
       </c>
       <c r="D280" t="inlineStr">
@@ -5413,11 +5413,11 @@
         <v>44562</v>
       </c>
       <c r="B281">
-        <v>290709337363</v>
+        <v>3249570723</v>
       </c>
       <c r="C281" t="inlineStr">
         <is>
-          <t>Indonesia</t>
+          <t>Malta</t>
         </is>
       </c>
       <c r="D281" t="inlineStr">
@@ -5431,11 +5431,11 @@
         <v>44197</v>
       </c>
       <c r="B282">
-        <v>16674908</v>
+        <v>231522458149</v>
       </c>
       <c r="C282" t="inlineStr">
         <is>
-          <t>Grenada</t>
+          <t>Indonesia</t>
         </is>
       </c>
       <c r="D282" t="inlineStr">
@@ -5449,11 +5449,11 @@
         <v>44562</v>
       </c>
       <c r="B283">
-        <v>18238285</v>
+        <v>290953709514</v>
       </c>
       <c r="C283" t="inlineStr">
         <is>
-          <t>Grenada</t>
+          <t>Indonesia</t>
         </is>
       </c>
       <c r="D283" t="inlineStr">
@@ -5467,11 +5467,11 @@
         <v>44197</v>
       </c>
       <c r="B284">
-        <v>59075000000</v>
+        <v>16726186</v>
       </c>
       <c r="C284" t="inlineStr">
         <is>
-          <t>Israel</t>
+          <t>Grenada</t>
         </is>
       </c>
       <c r="D284" t="inlineStr">
@@ -5485,11 +5485,11 @@
         <v>44562</v>
       </c>
       <c r="B285">
-        <v>72538300000</v>
+        <v>18205397</v>
       </c>
       <c r="C285" t="inlineStr">
         <is>
-          <t>Israel</t>
+          <t>Grenada</t>
         </is>
       </c>
       <c r="D285" t="inlineStr">
@@ -5503,11 +5503,11 @@
         <v>44197</v>
       </c>
       <c r="B286">
-        <v>1276959730</v>
+        <v>59075000000</v>
       </c>
       <c r="C286" t="inlineStr">
         <is>
-          <t>Haiti</t>
+          <t>Israel</t>
         </is>
       </c>
       <c r="D286" t="inlineStr">
@@ -5521,11 +5521,11 @@
         <v>44562</v>
       </c>
       <c r="B287">
-        <v>1203415899</v>
+        <v>72538300000</v>
       </c>
       <c r="C287" t="inlineStr">
         <is>
-          <t>Haiti</t>
+          <t>Israel</t>
         </is>
       </c>
       <c r="D287" t="inlineStr">
@@ -5539,11 +5539,11 @@
         <v>44197</v>
       </c>
       <c r="B288">
-        <v>87492818</v>
+        <v>1273126839</v>
       </c>
       <c r="C288" t="inlineStr">
         <is>
-          <t>Aruba</t>
+          <t>Haiti</t>
         </is>
       </c>
       <c r="D288" t="inlineStr">
@@ -5557,11 +5557,11 @@
         <v>44562</v>
       </c>
       <c r="B289">
-        <v>103841099</v>
+        <v>1203300731</v>
       </c>
       <c r="C289" t="inlineStr">
         <is>
-          <t>Aruba</t>
+          <t>Haiti</t>
         </is>
       </c>
       <c r="D289" t="inlineStr">
@@ -5575,11 +5575,11 @@
         <v>44197</v>
       </c>
       <c r="B290">
-        <v>57351903361</v>
+        <v>87492818</v>
       </c>
       <c r="C290" t="inlineStr">
         <is>
-          <t>Slovenia</t>
+          <t>Aruba</t>
         </is>
       </c>
       <c r="D290" t="inlineStr">
@@ -5593,11 +5593,11 @@
         <v>44562</v>
       </c>
       <c r="B291">
-        <v>69661311238</v>
+        <v>103841099</v>
       </c>
       <c r="C291" t="inlineStr">
         <is>
-          <t>Slovenia</t>
+          <t>Aruba</t>
         </is>
       </c>
       <c r="D291" t="inlineStr">
@@ -5611,11 +5611,11 @@
         <v>44197</v>
       </c>
       <c r="B292">
-        <v>6647260619758</v>
+        <v>57336261095</v>
       </c>
       <c r="C292" t="inlineStr">
         <is>
-          <t>EU (Member States and Institutions of the European Union) changing composition</t>
+          <t>Slovenia</t>
         </is>
       </c>
       <c r="D292" t="inlineStr">
@@ -5629,11 +5629,11 @@
         <v>44562</v>
       </c>
       <c r="B293">
-        <v>7067925506317</v>
+        <v>69685265710</v>
       </c>
       <c r="C293" t="inlineStr">
         <is>
-          <t>EU (Member States and Institutions of the European Union) changing composition</t>
+          <t>Slovenia</t>
         </is>
       </c>
       <c r="D293" t="inlineStr">
@@ -5647,11 +5647,11 @@
         <v>44197</v>
       </c>
       <c r="B294">
-        <v>2454795319</v>
+        <v>6643895604176</v>
       </c>
       <c r="C294" t="inlineStr">
         <is>
-          <t>Chad</t>
+          <t>EU (Member States and Institutions of the European Union) changing composition</t>
         </is>
       </c>
       <c r="D294" t="inlineStr">
@@ -5665,11 +5665,11 @@
         <v>44562</v>
       </c>
       <c r="B295">
-        <v>4496008793</v>
+        <v>7172417348207</v>
       </c>
       <c r="C295" t="inlineStr">
         <is>
-          <t>Chad</t>
+          <t>EU (Member States and Institutions of the European Union) changing composition</t>
         </is>
       </c>
       <c r="D295" t="inlineStr">
@@ -5683,11 +5683,11 @@
         <v>44197</v>
       </c>
       <c r="B296">
-        <v>38434843397</v>
+        <v>2454970142</v>
       </c>
       <c r="C296" t="inlineStr">
         <is>
-          <t>Algeria</t>
+          <t>Chad</t>
         </is>
       </c>
       <c r="D296" t="inlineStr">
@@ -5701,11 +5701,11 @@
         <v>44562</v>
       </c>
       <c r="B297">
-        <v>65102212578</v>
+        <v>4476912878</v>
       </c>
       <c r="C297" t="inlineStr">
         <is>
-          <t>Algeria</t>
+          <t>Chad</t>
         </is>
       </c>
       <c r="D297" t="inlineStr">
@@ -5719,11 +5719,11 @@
         <v>44197</v>
       </c>
       <c r="B298">
-        <v>4698637756</v>
+        <v>38434843397</v>
       </c>
       <c r="C298" t="inlineStr">
         <is>
-          <t>Equatorial Guinea</t>
+          <t>Algeria</t>
         </is>
       </c>
       <c r="D298" t="inlineStr">
@@ -5737,11 +5737,11 @@
         <v>44562</v>
       </c>
       <c r="B299">
-        <v>7630821178</v>
+        <v>65102212578</v>
       </c>
       <c r="C299" t="inlineStr">
         <is>
-          <t>Equatorial Guinea</t>
+          <t>Algeria</t>
         </is>
       </c>
       <c r="D299" t="inlineStr">
@@ -5755,11 +5755,11 @@
         <v>44197</v>
       </c>
       <c r="B300">
-        <v>756166163384</v>
+        <v>4693983597</v>
       </c>
       <c r="C300" t="inlineStr">
         <is>
-          <t>Japan</t>
+          <t>Equatorial Guinea</t>
         </is>
       </c>
       <c r="D300" t="inlineStr">
@@ -5773,11 +5773,11 @@
         <v>44562</v>
       </c>
       <c r="B301">
-        <v>746720431187</v>
+        <v>7644430810</v>
       </c>
       <c r="C301" t="inlineStr">
         <is>
-          <t>Japan</t>
+          <t>Equatorial Guinea</t>
         </is>
       </c>
       <c r="D301" t="inlineStr">
@@ -5791,11 +5791,11 @@
         <v>44197</v>
       </c>
       <c r="B302">
-        <v>11141094532</v>
+        <v>756166163384</v>
       </c>
       <c r="C302" t="inlineStr">
         <is>
-          <t>Zambia</t>
+          <t>Japan</t>
         </is>
       </c>
       <c r="D302" t="inlineStr">
@@ -5809,11 +5809,11 @@
         <v>44562</v>
       </c>
       <c r="B303">
-        <v>11646598892</v>
+        <v>746720431187</v>
       </c>
       <c r="C303" t="inlineStr">
         <is>
-          <t>Zambia</t>
+          <t>Japan</t>
         </is>
       </c>
       <c r="D303" t="inlineStr">
@@ -5827,11 +5827,11 @@
         <v>44197</v>
       </c>
       <c r="B304">
-        <v>6621385982</v>
+        <v>11141094532</v>
       </c>
       <c r="C304" t="inlineStr">
         <is>
-          <t>El Salvador</t>
+          <t>Zambia</t>
         </is>
       </c>
       <c r="D304" t="inlineStr">
@@ -5845,11 +5845,11 @@
         <v>44562</v>
       </c>
       <c r="B305">
-        <v>7115101783</v>
+        <v>11646598892</v>
       </c>
       <c r="C305" t="inlineStr">
         <is>
-          <t>El Salvador</t>
+          <t>Zambia</t>
         </is>
       </c>
       <c r="D305" t="inlineStr">
@@ -5863,11 +5863,11 @@
         <v>44197</v>
       </c>
       <c r="B306">
-        <v>770387839</v>
+        <v>6394888919</v>
       </c>
       <c r="C306" t="inlineStr">
         <is>
-          <t>Afghanistan</t>
+          <t>El Salvador</t>
         </is>
       </c>
       <c r="D306" t="inlineStr">
@@ -5881,11 +5881,11 @@
         <v>44562</v>
       </c>
       <c r="B307">
-        <v>621617279</v>
+        <v>7115101783</v>
       </c>
       <c r="C307" t="inlineStr">
         <is>
-          <t>Afghanistan</t>
+          <t>El Salvador</t>
         </is>
       </c>
       <c r="D307" t="inlineStr">
@@ -5899,11 +5899,11 @@
         <v>44197</v>
       </c>
       <c r="B308">
-        <v>40827476287</v>
+        <v>766728288</v>
       </c>
       <c r="C308" t="inlineStr">
         <is>
-          <t>Lithuania</t>
+          <t>Afghanistan</t>
         </is>
       </c>
       <c r="D308" t="inlineStr">
@@ -5917,11 +5917,11 @@
         <v>44562</v>
       </c>
       <c r="B309">
-        <v>46240367195</v>
+        <v>616311212</v>
       </c>
       <c r="C309" t="inlineStr">
         <is>
-          <t>Lithuania</t>
+          <t>Afghanistan</t>
         </is>
       </c>
       <c r="D309" t="inlineStr">
@@ -5935,11 +5935,11 @@
         <v>44197</v>
       </c>
       <c r="B310">
-        <v>6390878638</v>
+        <v>40701698922</v>
       </c>
       <c r="C310" t="inlineStr">
         <is>
-          <t>Tanzania, United Republic of</t>
+          <t>Lithuania</t>
         </is>
       </c>
       <c r="D310" t="inlineStr">
@@ -5953,11 +5953,11 @@
         <v>44562</v>
       </c>
       <c r="B311">
-        <v>8159809806</v>
+        <v>46480786359</v>
       </c>
       <c r="C311" t="inlineStr">
         <is>
-          <t>Tanzania, United Republic of</t>
+          <t>Lithuania</t>
         </is>
       </c>
       <c r="D311" t="inlineStr">
@@ -5971,11 +5971,11 @@
         <v>44197</v>
       </c>
       <c r="B312">
-        <v>1649949724</v>
+        <v>6391189270</v>
       </c>
       <c r="C312" t="inlineStr">
         <is>
-          <t>Mauritius</t>
+          <t>Tanzania, United Republic of</t>
         </is>
       </c>
       <c r="D312" t="inlineStr">
@@ -5989,11 +5989,11 @@
         <v>44562</v>
       </c>
       <c r="B313">
-        <v>1646520683</v>
+        <v>9487638542</v>
       </c>
       <c r="C313" t="inlineStr">
         <is>
-          <t>Mauritius</t>
+          <t>Tanzania, United Republic of</t>
         </is>
       </c>
       <c r="D313" t="inlineStr">
@@ -6007,11 +6007,11 @@
         <v>44197</v>
       </c>
       <c r="B314">
-        <v>75229280013</v>
+        <v>1649982743</v>
       </c>
       <c r="C314" t="inlineStr">
         <is>
-          <t>Portugal</t>
+          <t>Mauritius</t>
         </is>
       </c>
       <c r="D314" t="inlineStr">
@@ -6025,11 +6025,11 @@
         <v>44562</v>
       </c>
       <c r="B315">
-        <v>80299198187</v>
+        <v>1646525960</v>
       </c>
       <c r="C315" t="inlineStr">
         <is>
-          <t>Portugal</t>
+          <t>Mauritius</t>
         </is>
       </c>
       <c r="D315" t="inlineStr">
@@ -6043,11 +6043,11 @@
         <v>44197</v>
       </c>
       <c r="B316">
-        <v>20833171861</v>
+        <v>75208893838</v>
       </c>
       <c r="C316" t="inlineStr">
         <is>
-          <t>Latvia</t>
+          <t>Portugal</t>
         </is>
       </c>
       <c r="D316" t="inlineStr">
@@ -6061,11 +6061,11 @@
         <v>44562</v>
       </c>
       <c r="B317">
-        <v>24068262781</v>
+        <v>82435065059</v>
       </c>
       <c r="C317" t="inlineStr">
         <is>
-          <t>Latvia</t>
+          <t>Portugal</t>
         </is>
       </c>
       <c r="D317" t="inlineStr">
@@ -6079,11 +6079,11 @@
         <v>44197</v>
       </c>
       <c r="B318">
-        <v>6170387013</v>
+        <v>20832155049</v>
       </c>
       <c r="C318" t="inlineStr">
         <is>
-          <t>Guinea</t>
+          <t>Latvia</t>
         </is>
       </c>
       <c r="D318" t="inlineStr">
@@ -6097,11 +6097,11 @@
         <v>44562</v>
       </c>
       <c r="B319">
-        <v>6015914046</v>
+        <v>24080689848</v>
       </c>
       <c r="C319" t="inlineStr">
         <is>
-          <t>Guinea</t>
+          <t>Latvia</t>
         </is>
       </c>
       <c r="D319" t="inlineStr">
@@ -6115,11 +6115,11 @@
         <v>44197</v>
       </c>
       <c r="B320">
-        <v>1747066945</v>
+        <v>6200382643</v>
       </c>
       <c r="C320" t="inlineStr">
         <is>
-          <t>New Caledonia</t>
+          <t>Guinea</t>
         </is>
       </c>
       <c r="D320" t="inlineStr">
@@ -6133,11 +6133,11 @@
         <v>44562</v>
       </c>
       <c r="B321">
-        <v>2302549842</v>
+        <v>6093021220</v>
       </c>
       <c r="C321" t="inlineStr">
         <is>
-          <t>New Caledonia</t>
+          <t>Guinea</t>
         </is>
       </c>
       <c r="D321" t="inlineStr">
@@ -6151,11 +6151,11 @@
         <v>44197</v>
       </c>
       <c r="B322">
-        <v>4242512939</v>
+        <v>1747068121</v>
       </c>
       <c r="C322" t="inlineStr">
         <is>
-          <t>Georgia</t>
+          <t>New Caledonia</t>
         </is>
       </c>
       <c r="D322" t="inlineStr">
@@ -6169,11 +6169,11 @@
         <v>44562</v>
       </c>
       <c r="B323">
-        <v>5583425389</v>
+        <v>2307578355</v>
       </c>
       <c r="C323" t="inlineStr">
         <is>
-          <t>Georgia</t>
+          <t>New Caledonia</t>
         </is>
       </c>
       <c r="D323" t="inlineStr">
@@ -6187,11 +6187,11 @@
         <v>44197</v>
       </c>
       <c r="B324">
-        <v>492048058908</v>
+        <v>4242512939</v>
       </c>
       <c r="C324" t="inlineStr">
         <is>
-          <t>Russian Federation</t>
+          <t>Georgia</t>
         </is>
       </c>
       <c r="D324" t="inlineStr">
@@ -6205,11 +6205,11 @@
         <v>44562</v>
       </c>
       <c r="B325">
-        <v>461008283320</v>
+        <v>5583425389</v>
       </c>
       <c r="C325" t="inlineStr">
         <is>
-          <t>Russian Federation</t>
+          <t>Georgia</t>
         </is>
       </c>
       <c r="D325" t="inlineStr">
@@ -6223,11 +6223,11 @@
         <v>44197</v>
       </c>
       <c r="B326">
-        <v>716888599816</v>
+        <v>492048058908</v>
       </c>
       <c r="C326" t="inlineStr">
         <is>
-          <t>Community of Independent States (CIS)</t>
+          <t>Russian Federation</t>
         </is>
       </c>
       <c r="D326" t="inlineStr">
@@ -6241,11 +6241,11 @@
         <v>44562</v>
       </c>
       <c r="B327">
-        <v>708268326954</v>
+        <v>584457238141</v>
       </c>
       <c r="C327" t="inlineStr">
         <is>
-          <t>Community of Independent States (CIS)</t>
+          <t>Russian Federation</t>
         </is>
       </c>
       <c r="D327" t="inlineStr">
@@ -6259,11 +6259,11 @@
         <v>44197</v>
       </c>
       <c r="B328">
-        <v>29712219</v>
+        <v>716879140001</v>
       </c>
       <c r="C328" t="inlineStr">
         <is>
-          <t>Dominica</t>
+          <t>Community of Independent States (CIS)</t>
         </is>
       </c>
       <c r="D328" t="inlineStr">
@@ -6277,11 +6277,11 @@
         <v>44562</v>
       </c>
       <c r="B329">
-        <v>27016116</v>
+        <v>831816444852</v>
       </c>
       <c r="C329" t="inlineStr">
         <is>
-          <t>Dominica</t>
+          <t>Community of Independent States (CIS)</t>
         </is>
       </c>
       <c r="D329" t="inlineStr">
@@ -6295,11 +6295,11 @@
         <v>44197</v>
       </c>
       <c r="B330">
-        <v>17398444975</v>
+        <v>29133632</v>
       </c>
       <c r="C330" t="inlineStr">
         <is>
-          <t>Ghana</t>
+          <t>Dominica</t>
         </is>
       </c>
       <c r="D330" t="inlineStr">
@@ -6313,11 +6313,11 @@
         <v>44562</v>
       </c>
       <c r="B331">
-        <v>19571128573</v>
+        <v>24725178</v>
       </c>
       <c r="C331" t="inlineStr">
         <is>
-          <t>Ghana</t>
+          <t>Dominica</t>
         </is>
       </c>
       <c r="D331" t="inlineStr">
@@ -6331,11 +6331,11 @@
         <v>44197</v>
       </c>
       <c r="B332">
-        <v>12731666167040</v>
+        <v>17395607850</v>
       </c>
       <c r="C332" t="inlineStr">
         <is>
-          <t>Advanced Economies (IMF)</t>
+          <t>Ghana</t>
         </is>
       </c>
       <c r="D332" t="inlineStr">
@@ -6349,11 +6349,11 @@
         <v>44562</v>
       </c>
       <c r="B333">
-        <v>13857830911518</v>
+        <v>19569558039</v>
       </c>
       <c r="C333" t="inlineStr">
         <is>
-          <t>Advanced Economies (IMF)</t>
+          <t>Ghana</t>
         </is>
       </c>
       <c r="D333" t="inlineStr">
@@ -6367,11 +6367,11 @@
         <v>44197</v>
       </c>
       <c r="B334">
-        <v>957834406</v>
+        <v>12732472094746</v>
       </c>
       <c r="C334" t="inlineStr">
         <is>
-          <t>Greenland</t>
+          <t>Advanced Economies (IMF)</t>
         </is>
       </c>
       <c r="D334" t="inlineStr">
@@ -6385,11 +6385,11 @@
         <v>44562</v>
       </c>
       <c r="B335">
-        <v>999604841</v>
+        <v>13957709486893</v>
       </c>
       <c r="C335" t="inlineStr">
         <is>
-          <t>Greenland</t>
+          <t>Advanced Economies (IMF)</t>
         </is>
       </c>
       <c r="D335" t="inlineStr">
@@ -6403,11 +6403,11 @@
         <v>44197</v>
       </c>
       <c r="B336">
-        <v>3887900895</v>
+        <v>954303247</v>
       </c>
       <c r="C336" t="inlineStr">
         <is>
-          <t>Cyprus</t>
+          <t>Greenland</t>
         </is>
       </c>
       <c r="D336" t="inlineStr">
@@ -6421,11 +6421,11 @@
         <v>44562</v>
       </c>
       <c r="B337">
-        <v>3761874902</v>
+        <v>999067324</v>
       </c>
       <c r="C337" t="inlineStr">
         <is>
-          <t>Cyprus</t>
+          <t>Greenland</t>
         </is>
       </c>
       <c r="D337" t="inlineStr">
@@ -6439,11 +6439,11 @@
         <v>44197</v>
       </c>
       <c r="B338">
-        <v>354799707</v>
+        <v>3900149090</v>
       </c>
       <c r="C338" t="inlineStr">
         <is>
-          <t>Solomon Islands</t>
+          <t>Cyprus</t>
         </is>
       </c>
       <c r="D338" t="inlineStr">
@@ -6457,11 +6457,11 @@
         <v>44562</v>
       </c>
       <c r="B339">
-        <v>376749942</v>
+        <v>4347009704</v>
       </c>
       <c r="C339" t="inlineStr">
         <is>
-          <t>Solomon Islands</t>
+          <t>Cyprus</t>
         </is>
       </c>
       <c r="D339" t="inlineStr">
@@ -6475,11 +6475,11 @@
         <v>44197</v>
       </c>
       <c r="B340">
-        <v>299037704561</v>
+        <v>363951205</v>
       </c>
       <c r="C340" t="inlineStr">
         <is>
-          <t>Malaysia</t>
+          <t>Solomon Islands</t>
         </is>
       </c>
       <c r="D340" t="inlineStr">
@@ -6493,11 +6493,11 @@
         <v>44562</v>
       </c>
       <c r="B341">
-        <v>352337923095</v>
+        <v>390558547</v>
       </c>
       <c r="C341" t="inlineStr">
         <is>
-          <t>Malaysia</t>
+          <t>Solomon Islands</t>
         </is>
       </c>
       <c r="D341" t="inlineStr">
@@ -6511,11 +6511,11 @@
         <v>44197</v>
       </c>
       <c r="B342">
-        <v>379969121033</v>
+        <v>299037704561</v>
       </c>
       <c r="C342" t="inlineStr">
         <is>
-          <t>Spain</t>
+          <t>Malaysia</t>
         </is>
       </c>
       <c r="D342" t="inlineStr">
@@ -6529,11 +6529,11 @@
         <v>44562</v>
       </c>
       <c r="B343">
-        <v>406095900899</v>
+        <v>352337923095</v>
       </c>
       <c r="C343" t="inlineStr">
         <is>
-          <t>Spain</t>
+          <t>Malaysia</t>
         </is>
       </c>
       <c r="D343" t="inlineStr">
@@ -6547,11 +6547,11 @@
         <v>44197</v>
       </c>
       <c r="B344">
-        <v>644399390000</v>
+        <v>379751282574</v>
       </c>
       <c r="C344" t="inlineStr">
         <is>
-          <t>Korea, Republic of</t>
+          <t>Spain</t>
         </is>
       </c>
       <c r="D344" t="inlineStr">
@@ -6565,11 +6565,11 @@
         <v>44562</v>
       </c>
       <c r="B345">
-        <v>683583612000</v>
+        <v>415379620929</v>
       </c>
       <c r="C345" t="inlineStr">
         <is>
-          <t>Korea, Republic of</t>
+          <t>Spain</t>
         </is>
       </c>
       <c r="D345" t="inlineStr">
@@ -6583,11 +6583,11 @@
         <v>44197</v>
       </c>
       <c r="B346">
-        <v>379401560032</v>
+        <v>644399390000</v>
       </c>
       <c r="C346" t="inlineStr">
         <is>
-          <t>Switzerland</t>
+          <t>Korea, Republic of</t>
         </is>
       </c>
       <c r="D346" t="inlineStr">
@@ -6601,11 +6601,11 @@
         <v>44562</v>
       </c>
       <c r="B347">
-        <v>401751970003</v>
+        <v>683583612000</v>
       </c>
       <c r="C347" t="inlineStr">
         <is>
-          <t>Switzerland</t>
+          <t>Korea, Republic of</t>
         </is>
       </c>
       <c r="D347" t="inlineStr">
@@ -6619,11 +6619,11 @@
         <v>44197</v>
       </c>
       <c r="B348">
-        <v>30971451714</v>
+        <v>379401552403</v>
       </c>
       <c r="C348" t="inlineStr">
         <is>
-          <t>Libya</t>
+          <t>Switzerland</t>
         </is>
       </c>
       <c r="D348" t="inlineStr">
@@ -6637,11 +6637,11 @@
         <v>44562</v>
       </c>
       <c r="B349">
-        <v>38215388788</v>
+        <v>401751970003</v>
       </c>
       <c r="C349" t="inlineStr">
         <is>
-          <t>Libya</t>
+          <t>Switzerland</t>
         </is>
       </c>
       <c r="D349" t="inlineStr">
@@ -6655,11 +6655,11 @@
         <v>44197</v>
       </c>
       <c r="B350">
-        <v>1754300367662</v>
+        <v>30971450976</v>
       </c>
       <c r="C350" t="inlineStr">
         <is>
-          <t>United States</t>
+          <t>Libya</t>
         </is>
       </c>
       <c r="D350" t="inlineStr">
@@ -6673,11 +6673,11 @@
         <v>44562</v>
       </c>
       <c r="B351">
-        <v>2065156971432</v>
+        <v>38215390721</v>
       </c>
       <c r="C351" t="inlineStr">
         <is>
-          <t>United States</t>
+          <t>Libya</t>
         </is>
       </c>
       <c r="D351" t="inlineStr">
@@ -6691,11 +6691,11 @@
         <v>44197</v>
       </c>
       <c r="B352">
-        <v>103891285857</v>
+        <v>1757821567908</v>
       </c>
       <c r="C352" t="inlineStr">
         <is>
-          <t>Slovakia</t>
+          <t>United States</t>
         </is>
       </c>
       <c r="D352" t="inlineStr">
@@ -6709,11 +6709,11 @@
         <v>44562</v>
       </c>
       <c r="B353">
-        <v>107773006151</v>
+        <v>2065156971432</v>
       </c>
       <c r="C353" t="inlineStr">
         <is>
-          <t>Slovakia</t>
+          <t>United States</t>
         </is>
       </c>
       <c r="D353" t="inlineStr">
@@ -6727,11 +6727,11 @@
         <v>44197</v>
       </c>
       <c r="B354">
-        <v>9537248059</v>
+        <v>103882647643</v>
       </c>
       <c r="C354" t="inlineStr">
         <is>
-          <t>Uruguay</t>
+          <t>Slovakia</t>
         </is>
       </c>
       <c r="D354" t="inlineStr">
@@ -6745,11 +6745,11 @@
         <v>44562</v>
       </c>
       <c r="B355">
-        <v>11187261350</v>
+        <v>108370863626</v>
       </c>
       <c r="C355" t="inlineStr">
         <is>
-          <t>Uruguay</t>
+          <t>Slovakia</t>
         </is>
       </c>
       <c r="D355" t="inlineStr">
@@ -6763,11 +6763,11 @@
         <v>44197</v>
       </c>
       <c r="B356">
-        <v>25559357547</v>
+        <v>9537248057</v>
       </c>
       <c r="C356" t="inlineStr">
         <is>
-          <t>Serbia</t>
+          <t>Uruguay</t>
         </is>
       </c>
       <c r="D356" t="inlineStr">
@@ -6781,11 +6781,11 @@
         <v>44562</v>
       </c>
       <c r="B357">
-        <v>29056979016</v>
+        <v>11187261350</v>
       </c>
       <c r="C357" t="inlineStr">
         <is>
-          <t>Serbia</t>
+          <t>Uruguay</t>
         </is>
       </c>
       <c r="D357" t="inlineStr">
@@ -6799,11 +6799,11 @@
         <v>44197</v>
       </c>
       <c r="B358">
-        <v>1166356950</v>
+        <v>25559357547</v>
       </c>
       <c r="C358" t="inlineStr">
         <is>
-          <t>Malawi</t>
+          <t>Serbia</t>
         </is>
       </c>
       <c r="D358" t="inlineStr">
@@ -6817,11 +6817,11 @@
         <v>44562</v>
       </c>
       <c r="B359">
-        <v>1198275861</v>
+        <v>29056978941</v>
       </c>
       <c r="C359" t="inlineStr">
         <is>
-          <t>Malawi</t>
+          <t>Serbia</t>
         </is>
       </c>
       <c r="D359" t="inlineStr">
@@ -6835,11 +6835,11 @@
         <v>44197</v>
       </c>
       <c r="B360">
-        <v>1187856173074</v>
+        <v>1172783371</v>
       </c>
       <c r="C360" t="inlineStr">
         <is>
-          <t>Western Hemisphere</t>
+          <t>Malawi</t>
         </is>
       </c>
       <c r="D360" t="inlineStr">
@@ -6853,11 +6853,11 @@
         <v>44562</v>
       </c>
       <c r="B361">
-        <v>1389144380141</v>
+        <v>1198158501</v>
       </c>
       <c r="C361" t="inlineStr">
         <is>
-          <t>Western Hemisphere</t>
+          <t>Malawi</t>
         </is>
       </c>
       <c r="D361" t="inlineStr">
@@ -6871,11 +6871,11 @@
         <v>44197</v>
       </c>
       <c r="B362">
-        <v>96766496</v>
+        <v>1187796456783</v>
       </c>
       <c r="C362" t="inlineStr">
         <is>
-          <t>Saint Lucia</t>
+          <t>Western Hemisphere</t>
         </is>
       </c>
       <c r="D362" t="inlineStr">
@@ -6889,11 +6889,11 @@
         <v>44562</v>
       </c>
       <c r="B363">
-        <v>79585779</v>
+        <v>1387521999729</v>
       </c>
       <c r="C363" t="inlineStr">
         <is>
-          <t>Saint Lucia</t>
+          <t>Western Hemisphere</t>
         </is>
       </c>
       <c r="D363" t="inlineStr">
@@ -6907,11 +6907,11 @@
         <v>44197</v>
       </c>
       <c r="B364">
-        <v>68303554694.00001</v>
+        <v>105440340</v>
       </c>
       <c r="C364" t="inlineStr">
         <is>
-          <t>Kuwait</t>
+          <t>Saint Lucia</t>
         </is>
       </c>
       <c r="D364" t="inlineStr">
@@ -6925,11 +6925,11 @@
         <v>44562</v>
       </c>
       <c r="B365">
-        <v>88958104521</v>
+        <v>79983627</v>
       </c>
       <c r="C365" t="inlineStr">
         <is>
-          <t>Kuwait</t>
+          <t>Saint Lucia</t>
         </is>
       </c>
       <c r="D365" t="inlineStr">
@@ -6943,11 +6943,11 @@
         <v>44197</v>
       </c>
       <c r="B366">
-        <v>14081079835</v>
+        <v>68303554694.00001</v>
       </c>
       <c r="C366" t="inlineStr">
         <is>
-          <t>Uzbekistan</t>
+          <t>Kuwait</t>
         </is>
       </c>
       <c r="D366" t="inlineStr">
@@ -6961,11 +6961,11 @@
         <v>44562</v>
       </c>
       <c r="B367">
-        <v>15349649063</v>
+        <v>100240734906</v>
       </c>
       <c r="C367" t="inlineStr">
         <is>
-          <t>Uzbekistan</t>
+          <t>Kuwait</t>
         </is>
       </c>
       <c r="D367" t="inlineStr">
@@ -6979,11 +6979,11 @@
         <v>44197</v>
       </c>
       <c r="B368">
-        <v>1486390397277</v>
+        <v>14081079835</v>
       </c>
       <c r="C368" t="inlineStr">
         <is>
-          <t>Europe</t>
+          <t>Uzbekistan</t>
         </is>
       </c>
       <c r="D368" t="inlineStr">
@@ -6997,11 +6997,11 @@
         <v>44562</v>
       </c>
       <c r="B369">
-        <v>1508399209501</v>
+        <v>15349649063</v>
       </c>
       <c r="C369" t="inlineStr">
         <is>
-          <t>Europe</t>
+          <t>Uzbekistan</t>
         </is>
       </c>
       <c r="D369" t="inlineStr">
@@ -7015,11 +7015,11 @@
         <v>44197</v>
       </c>
       <c r="B370">
-        <v>4575932080</v>
+        <v>1486269952777</v>
       </c>
       <c r="C370" t="inlineStr">
         <is>
-          <t>Lebanon</t>
+          <t>Europe</t>
         </is>
       </c>
       <c r="D370" t="inlineStr">
@@ -7033,11 +7033,11 @@
         <v>44562</v>
       </c>
       <c r="B371">
-        <v>4308951000</v>
+        <v>1635983944349</v>
       </c>
       <c r="C371" t="inlineStr">
         <is>
-          <t>Lebanon</t>
+          <t>Europe</t>
         </is>
       </c>
       <c r="D371" t="inlineStr">
@@ -7051,11 +7051,11 @@
         <v>44197</v>
       </c>
       <c r="B372">
-        <v>6727279156</v>
+        <v>4575932080</v>
       </c>
       <c r="C372" t="inlineStr">
         <is>
-          <t>Kenya</t>
+          <t>Lebanon</t>
         </is>
       </c>
       <c r="D372" t="inlineStr">
@@ -7069,11 +7069,11 @@
         <v>44562</v>
       </c>
       <c r="B373">
-        <v>7036338183</v>
+        <v>4308951000</v>
       </c>
       <c r="C373" t="inlineStr">
         <is>
-          <t>Kenya</t>
+          <t>Lebanon</t>
         </is>
       </c>
       <c r="D373" t="inlineStr">
@@ -7087,11 +7087,11 @@
         <v>44197</v>
       </c>
       <c r="B374">
-        <v>37848891219</v>
+        <v>6728860365</v>
       </c>
       <c r="C374" t="inlineStr">
         <is>
-          <t>Bangladesh</t>
+          <t>Kenya</t>
         </is>
       </c>
       <c r="D374" t="inlineStr">
@@ -7105,11 +7105,11 @@
         <v>44562</v>
       </c>
       <c r="B375">
-        <v>46851063751</v>
+        <v>7309482311</v>
       </c>
       <c r="C375" t="inlineStr">
         <is>
-          <t>Bangladesh</t>
+          <t>Kenya</t>
         </is>
       </c>
       <c r="D375" t="inlineStr">
@@ -7123,11 +7123,11 @@
         <v>44197</v>
       </c>
       <c r="B376">
-        <v>59796875</v>
+        <v>37848891219</v>
       </c>
       <c r="C376" t="inlineStr">
         <is>
-          <t>Central African Republic</t>
+          <t>Bangladesh</t>
         </is>
       </c>
       <c r="D376" t="inlineStr">
@@ -7141,11 +7141,11 @@
         <v>44562</v>
       </c>
       <c r="B377">
-        <v>62010991</v>
+        <v>47085866948</v>
       </c>
       <c r="C377" t="inlineStr">
         <is>
-          <t>Central African Republic</t>
+          <t>Bangladesh</t>
         </is>
       </c>
       <c r="D377" t="inlineStr">
@@ -7159,11 +7159,11 @@
         <v>44197</v>
       </c>
       <c r="B378">
-        <v>3686245701</v>
+        <v>54402558</v>
       </c>
       <c r="C378" t="inlineStr">
         <is>
-          <t>Panama</t>
+          <t>Central African Republic</t>
         </is>
       </c>
       <c r="D378" t="inlineStr">
@@ -7177,11 +7177,11 @@
         <v>44562</v>
       </c>
       <c r="B379">
-        <v>3890699772</v>
+        <v>56004641</v>
       </c>
       <c r="C379" t="inlineStr">
         <is>
-          <t>Panama</t>
+          <t>Central African Republic</t>
         </is>
       </c>
       <c r="D379" t="inlineStr">
@@ -7195,11 +7195,11 @@
         <v>44197</v>
       </c>
       <c r="B380">
-        <v>226563752471</v>
+        <v>3686245683</v>
       </c>
       <c r="C380" t="inlineStr">
         <is>
-          <t>Czech Republic</t>
+          <t>Panama</t>
         </is>
       </c>
       <c r="D380" t="inlineStr">
@@ -7213,11 +7213,11 @@
         <v>44562</v>
       </c>
       <c r="B381">
-        <v>241576463320</v>
+        <v>3910111996</v>
       </c>
       <c r="C381" t="inlineStr">
         <is>
-          <t>Czech Republic</t>
+          <t>Panama</t>
         </is>
       </c>
       <c r="D381" t="inlineStr">
@@ -7231,11 +7231,11 @@
         <v>44197</v>
       </c>
       <c r="B382">
-        <v>1473542094</v>
+        <v>226528099469</v>
       </c>
       <c r="C382" t="inlineStr">
         <is>
-          <t>Tajikistan</t>
+          <t>Czech Republic</t>
         </is>
       </c>
       <c r="D382" t="inlineStr">
@@ -7249,11 +7249,11 @@
         <v>44562</v>
       </c>
       <c r="B383">
-        <v>1647194678</v>
+        <v>241971738485</v>
       </c>
       <c r="C383" t="inlineStr">
         <is>
-          <t>Tajikistan</t>
+          <t>Czech Republic</t>
         </is>
       </c>
       <c r="D383" t="inlineStr">
@@ -7267,11 +7267,11 @@
         <v>44197</v>
       </c>
       <c r="B384">
-        <v>8505383388</v>
+        <v>1473644625</v>
       </c>
       <c r="C384" t="inlineStr">
         <is>
-          <t>Jordan</t>
+          <t>Tajikistan</t>
         </is>
       </c>
       <c r="D384" t="inlineStr">
@@ -7285,11 +7285,11 @@
         <v>44562</v>
       </c>
       <c r="B385">
-        <v>11382812380</v>
+        <v>1656594153</v>
       </c>
       <c r="C385" t="inlineStr">
         <is>
-          <t>Jordan</t>
+          <t>Tajikistan</t>
         </is>
       </c>
       <c r="D385" t="inlineStr">
@@ -7303,11 +7303,11 @@
         <v>44197</v>
       </c>
       <c r="B386">
-        <v>14381000</v>
+        <v>8505383388</v>
       </c>
       <c r="C386" t="inlineStr">
         <is>
-          <t>Tonga</t>
+          <t>Jordan</t>
         </is>
       </c>
       <c r="D386" t="inlineStr">
@@ -7321,11 +7321,11 @@
         <v>44562</v>
       </c>
       <c r="B387">
-        <v>5025998</v>
+        <v>11382812380</v>
       </c>
       <c r="C387" t="inlineStr">
         <is>
-          <t>Tonga</t>
+          <t>Jordan</t>
         </is>
       </c>
       <c r="D387" t="inlineStr">
@@ -7339,11 +7339,11 @@
         <v>44197</v>
       </c>
       <c r="B388">
-        <v>43476860</v>
+        <v>14381000</v>
       </c>
       <c r="C388" t="inlineStr">
         <is>
-          <t>Saint Kitts and Nevis</t>
+          <t>Tonga</t>
         </is>
       </c>
       <c r="D388" t="inlineStr">
@@ -7357,11 +7357,11 @@
         <v>44562</v>
       </c>
       <c r="B389">
-        <v>28259987</v>
+        <v>5025995</v>
       </c>
       <c r="C389" t="inlineStr">
         <is>
-          <t>Saint Kitts and Nevis</t>
+          <t>Tonga</t>
         </is>
       </c>
       <c r="D389" t="inlineStr">
@@ -7375,11 +7375,11 @@
         <v>44197</v>
       </c>
       <c r="B390">
-        <v>671992604167</v>
+        <v>44464206</v>
       </c>
       <c r="C390" t="inlineStr">
         <is>
-          <t>Hong Kong, China</t>
+          <t>Saint Kitts and Nevis</t>
         </is>
       </c>
       <c r="D390" t="inlineStr">
@@ -7393,11 +7393,11 @@
         <v>44562</v>
       </c>
       <c r="B391">
-        <v>611365563695</v>
+        <v>28920386</v>
       </c>
       <c r="C391" t="inlineStr">
         <is>
-          <t>Hong Kong, China</t>
+          <t>Saint Kitts and Nevis</t>
         </is>
       </c>
       <c r="D391" t="inlineStr">
@@ -7411,11 +7411,11 @@
         <v>44197</v>
       </c>
       <c r="B392">
-        <v>40696663981</v>
+        <v>671992604167</v>
       </c>
       <c r="C392" t="inlineStr">
         <is>
-          <t>Egypt</t>
+          <t>Hong Kong, China</t>
         </is>
       </c>
       <c r="D392" t="inlineStr">
@@ -7429,11 +7429,11 @@
         <v>44562</v>
       </c>
       <c r="B393">
-        <v>48398807224</v>
+        <v>611365563695</v>
       </c>
       <c r="C393" t="inlineStr">
         <is>
-          <t>Egypt</t>
+          <t>Hong Kong, China</t>
         </is>
       </c>
       <c r="D393" t="inlineStr">
@@ -7447,11 +7447,11 @@
         <v>44197</v>
       </c>
       <c r="B394">
-        <v>7113520679</v>
+        <v>40696663981</v>
       </c>
       <c r="C394" t="inlineStr">
         <is>
-          <t>Botswana</t>
+          <t>Egypt</t>
         </is>
       </c>
       <c r="D394" t="inlineStr">
@@ -7465,11 +7465,11 @@
         <v>44562</v>
       </c>
       <c r="B395">
-        <v>8204749868.000001</v>
+        <v>48398807224</v>
       </c>
       <c r="C395" t="inlineStr">
         <is>
-          <t>Botswana</t>
+          <t>Egypt</t>
         </is>
       </c>
       <c r="D395" t="inlineStr">
@@ -7483,11 +7483,11 @@
         <v>44197</v>
       </c>
       <c r="B396">
-        <v>11823217</v>
+        <v>7114201078</v>
       </c>
       <c r="C396" t="inlineStr">
         <is>
-          <t>Holy See (Vatican City State)</t>
+          <t>Botswana</t>
         </is>
       </c>
       <c r="D396" t="inlineStr">
@@ -7501,11 +7501,11 @@
         <v>44562</v>
       </c>
       <c r="B397">
-        <v>5470402</v>
+        <v>8137012298</v>
       </c>
       <c r="C397" t="inlineStr">
         <is>
-          <t>Holy See (Vatican City State)</t>
+          <t>Botswana</t>
         </is>
       </c>
       <c r="D397" t="inlineStr">
@@ -7519,11 +7519,11 @@
         <v>44197</v>
       </c>
       <c r="B398">
-        <v>37893002</v>
+        <v>11712794</v>
       </c>
       <c r="C398" t="inlineStr">
         <is>
-          <t>Kiribati</t>
+          <t>Holy See (Vatican City State)</t>
         </is>
       </c>
       <c r="D398" t="inlineStr">
@@ -7537,11 +7537,11 @@
         <v>44562</v>
       </c>
       <c r="B399">
-        <v>82701800</v>
+        <v>5621329</v>
       </c>
       <c r="C399" t="inlineStr">
         <is>
-          <t>Kiribati</t>
+          <t>Holy See (Vatican City State)</t>
         </is>
       </c>
       <c r="D399" t="inlineStr">
@@ -7555,11 +7555,11 @@
         <v>44197</v>
       </c>
       <c r="B400">
-        <v>5550478333</v>
+        <v>36510565</v>
       </c>
       <c r="C400" t="inlineStr">
         <is>
-          <t>Namibia</t>
+          <t>Kiribati</t>
         </is>
       </c>
       <c r="D400" t="inlineStr">
@@ -7573,11 +7573,11 @@
         <v>44562</v>
       </c>
       <c r="B401">
-        <v>4911384881</v>
+        <v>189680929</v>
       </c>
       <c r="C401" t="inlineStr">
         <is>
-          <t>Namibia</t>
+          <t>Kiribati</t>
         </is>
       </c>
       <c r="D401" t="inlineStr">
@@ -7591,11 +7591,11 @@
         <v>44197</v>
       </c>
       <c r="B402">
-        <v>1846325974</v>
+        <v>5481692316</v>
       </c>
       <c r="C402" t="inlineStr">
         <is>
-          <t>Antigua and Barbuda</t>
+          <t>Namibia</t>
         </is>
       </c>
       <c r="D402" t="inlineStr">
@@ -7609,11 +7609,11 @@
         <v>44562</v>
       </c>
       <c r="B403">
-        <v>2273833543</v>
+        <v>4896223070</v>
       </c>
       <c r="C403" t="inlineStr">
         <is>
-          <t>Antigua and Barbuda</t>
+          <t>Namibia</t>
         </is>
       </c>
       <c r="D403" t="inlineStr">
@@ -7627,11 +7627,11 @@
         <v>44197</v>
       </c>
       <c r="B404">
-        <v>228175567</v>
+        <v>1848580572</v>
       </c>
       <c r="C404" t="inlineStr">
         <is>
-          <t>Nauru</t>
+          <t>Antigua and Barbuda</t>
         </is>
       </c>
       <c r="D404" t="inlineStr">
@@ -7645,11 +7645,11 @@
         <v>44562</v>
       </c>
       <c r="B405">
-        <v>244971927</v>
+        <v>2286607907</v>
       </c>
       <c r="C405" t="inlineStr">
         <is>
-          <t>Nauru</t>
+          <t>Antigua and Barbuda</t>
         </is>
       </c>
       <c r="D405" t="inlineStr">
@@ -7663,11 +7663,11 @@
         <v>44197</v>
       </c>
       <c r="B406">
-        <v>148691121</v>
+        <v>228918377</v>
       </c>
       <c r="C406" t="inlineStr">
         <is>
-          <t>Gibraltar</t>
+          <t>Nauru</t>
         </is>
       </c>
       <c r="D406" t="inlineStr">
@@ -7681,11 +7681,11 @@
         <v>44562</v>
       </c>
       <c r="B407">
-        <v>409043969</v>
+        <v>246901137</v>
       </c>
       <c r="C407" t="inlineStr">
         <is>
-          <t>Gibraltar</t>
+          <t>Nauru</t>
         </is>
       </c>
       <c r="D407" t="inlineStr">
@@ -7699,11 +7699,11 @@
         <v>44197</v>
       </c>
       <c r="B408">
-        <v>854373355</v>
+        <v>141172822</v>
       </c>
       <c r="C408" t="inlineStr">
         <is>
-          <t>Bhutan</t>
+          <t>Gibraltar</t>
         </is>
       </c>
       <c r="D408" t="inlineStr">
@@ -7717,11 +7717,11 @@
         <v>44562</v>
       </c>
       <c r="B409">
-        <v>765905375</v>
+        <v>410722277</v>
       </c>
       <c r="C409" t="inlineStr">
         <is>
-          <t>Bhutan</t>
+          <t>Gibraltar</t>
         </is>
       </c>
       <c r="D409" t="inlineStr">
@@ -7735,11 +7735,11 @@
         <v>44197</v>
       </c>
       <c r="B410">
-        <v>230842699</v>
+        <v>854419290</v>
       </c>
       <c r="C410" t="inlineStr">
         <is>
-          <t>Micronesia, Federated States of</t>
+          <t>Bhutan</t>
         </is>
       </c>
       <c r="D410" t="inlineStr">
@@ -7753,11 +7753,11 @@
         <v>44562</v>
       </c>
       <c r="B411">
-        <v>238631801</v>
+        <v>765917170</v>
       </c>
       <c r="C411" t="inlineStr">
         <is>
-          <t>Micronesia, Federated States of</t>
+          <t>Bhutan</t>
         </is>
       </c>
       <c r="D411" t="inlineStr">
@@ -7771,11 +7771,11 @@
         <v>44197</v>
       </c>
       <c r="B412">
-        <v>195512021</v>
+        <v>232272963</v>
       </c>
       <c r="C412" t="inlineStr">
         <is>
-          <t>Guam</t>
+          <t>Micronesia, Federated States of</t>
         </is>
       </c>
       <c r="D412" t="inlineStr">
@@ -7789,11 +7789,11 @@
         <v>44562</v>
       </c>
       <c r="B413">
-        <v>226919386</v>
+        <v>238166702</v>
       </c>
       <c r="C413" t="inlineStr">
         <is>
-          <t>Guam</t>
+          <t>Micronesia, Federated States of</t>
         </is>
       </c>
       <c r="D413" t="inlineStr">
@@ -7807,11 +7807,11 @@
         <v>44197</v>
       </c>
       <c r="B414">
-        <v>209254172</v>
+        <v>164809146</v>
       </c>
       <c r="C414" t="inlineStr">
         <is>
-          <t>Curacao</t>
+          <t>Guam</t>
         </is>
       </c>
       <c r="D414" t="inlineStr">
@@ -7825,11 +7825,11 @@
         <v>44562</v>
       </c>
       <c r="B415">
-        <v>191955247</v>
+        <v>196758371</v>
       </c>
       <c r="C415" t="inlineStr">
         <is>
-          <t>Curacao</t>
+          <t>Guam</t>
         </is>
       </c>
       <c r="D415" t="inlineStr">
@@ -7843,11 +7843,11 @@
         <v>44197</v>
       </c>
       <c r="B416">
-        <v>35047100</v>
+        <v>209392831</v>
       </c>
       <c r="C416" t="inlineStr">
         <is>
-          <t>Anguilla</t>
+          <t>Curacao</t>
         </is>
       </c>
       <c r="D416" t="inlineStr">
@@ -7861,11 +7861,11 @@
         <v>44562</v>
       </c>
       <c r="B417">
-        <v>36365459</v>
+        <v>191811712</v>
       </c>
       <c r="C417" t="inlineStr">
         <is>
-          <t>Anguilla</t>
+          <t>Curacao</t>
         </is>
       </c>
       <c r="D417" t="inlineStr">
@@ -7879,11 +7879,11 @@
         <v>44197</v>
       </c>
       <c r="B418">
-        <v>811512234</v>
+        <v>35406426</v>
       </c>
       <c r="C418" t="inlineStr">
         <is>
-          <t>South Sudan</t>
+          <t>Anguilla</t>
         </is>
       </c>
       <c r="D418" t="inlineStr">
@@ -7897,11 +7897,11 @@
         <v>44562</v>
       </c>
       <c r="B419">
-        <v>489764496</v>
+        <v>36802262</v>
       </c>
       <c r="C419" t="inlineStr">
         <is>
-          <t>South Sudan</t>
+          <t>Anguilla</t>
         </is>
       </c>
       <c r="D419" t="inlineStr">
@@ -7915,11 +7915,11 @@
         <v>44197</v>
       </c>
       <c r="B420">
-        <v>265915155</v>
+        <v>525277606</v>
       </c>
       <c r="C420" t="inlineStr">
         <is>
-          <t>French Polynesia</t>
+          <t>South Sudan</t>
         </is>
       </c>
       <c r="D420" t="inlineStr">
@@ -7933,11 +7933,11 @@
         <v>44562</v>
       </c>
       <c r="B421">
-        <v>131087155</v>
+        <v>489737231</v>
       </c>
       <c r="C421" t="inlineStr">
         <is>
-          <t>French Polynesia</t>
+          <t>South Sudan</t>
         </is>
       </c>
       <c r="D421" t="inlineStr">
@@ -7951,11 +7951,11 @@
         <v>44197</v>
       </c>
       <c r="B422">
-        <v>1371047616</v>
+        <v>150441745</v>
       </c>
       <c r="C422" t="inlineStr">
         <is>
-          <t>Marshall islands</t>
+          <t>French Polynesia</t>
         </is>
       </c>
       <c r="D422" t="inlineStr">
@@ -7969,11 +7969,11 @@
         <v>44562</v>
       </c>
       <c r="B423">
-        <v>1361605462</v>
+        <v>132159474</v>
       </c>
       <c r="C423" t="inlineStr">
         <is>
-          <t>Marshall islands</t>
+          <t>French Polynesia</t>
         </is>
       </c>
       <c r="D423" t="inlineStr">
@@ -7987,11 +7987,11 @@
         <v>44197</v>
       </c>
       <c r="B424">
-        <v>1066980451</v>
+        <v>1363337887</v>
       </c>
       <c r="C424" t="inlineStr">
         <is>
-          <t>Lesotho</t>
+          <t>Marshall islands</t>
         </is>
       </c>
       <c r="D424" t="inlineStr">
@@ -8005,11 +8005,11 @@
         <v>44562</v>
       </c>
       <c r="B425">
-        <v>1052899125</v>
+        <v>1346348138</v>
       </c>
       <c r="C425" t="inlineStr">
         <is>
-          <t>Lesotho</t>
+          <t>Marshall islands</t>
         </is>
       </c>
       <c r="D425" t="inlineStr">
@@ -8023,11 +8023,11 @@
         <v>44197</v>
       </c>
       <c r="B426">
-        <v>1357640076</v>
+        <v>1066980451</v>
       </c>
       <c r="C426" t="inlineStr">
         <is>
-          <t>Palestine, State of</t>
+          <t>Lesotho</t>
         </is>
       </c>
       <c r="D426" t="inlineStr">
@@ -8041,11 +8041,11 @@
         <v>44562</v>
       </c>
       <c r="B427">
-        <v>1438055955</v>
+        <v>1052899125</v>
       </c>
       <c r="C427" t="inlineStr">
         <is>
-          <t>Palestine, State of</t>
+          <t>Lesotho</t>
         </is>
       </c>
       <c r="D427" t="inlineStr">
@@ -8059,11 +8059,11 @@
         <v>44197</v>
       </c>
       <c r="B428">
-        <v>70586413</v>
+        <v>1357640076</v>
       </c>
       <c r="C428" t="inlineStr">
         <is>
-          <t>American Samoa</t>
+          <t>Palestine, State of</t>
         </is>
       </c>
       <c r="D428" t="inlineStr">
@@ -8077,11 +8077,11 @@
         <v>44562</v>
       </c>
       <c r="B429">
-        <v>25461281</v>
+        <v>1667817500</v>
       </c>
       <c r="C429" t="inlineStr">
         <is>
-          <t>American Samoa</t>
+          <t>Palestine, State of</t>
         </is>
       </c>
       <c r="D429" t="inlineStr">
@@ -8095,11 +8095,11 @@
         <v>44197</v>
       </c>
       <c r="B430">
-        <v>26237905</v>
+        <v>27439080</v>
       </c>
       <c r="C430" t="inlineStr">
         <is>
-          <t>Tuvalu</t>
+          <t>American Samoa</t>
         </is>
       </c>
       <c r="D430" t="inlineStr">
@@ -8113,11 +8113,11 @@
         <v>44562</v>
       </c>
       <c r="B431">
-        <v>22606646</v>
+        <v>25849217</v>
       </c>
       <c r="C431" t="inlineStr">
         <is>
-          <t>Tuvalu</t>
+          <t>American Samoa</t>
         </is>
       </c>
       <c r="D431" t="inlineStr">
@@ -8131,11 +8131,11 @@
         <v>44197</v>
       </c>
       <c r="B432">
-        <v>215243150</v>
+        <v>26251682</v>
       </c>
       <c r="C432" t="inlineStr">
         <is>
-          <t>San Marino</t>
+          <t>Tuvalu</t>
         </is>
       </c>
       <c r="D432" t="inlineStr">
@@ -8149,11 +8149,11 @@
         <v>44562</v>
       </c>
       <c r="B433">
-        <v>206023359</v>
+        <v>22695097</v>
       </c>
       <c r="C433" t="inlineStr">
         <is>
-          <t>San Marino</t>
+          <t>Tuvalu</t>
         </is>
       </c>
       <c r="D433" t="inlineStr">
@@ -8167,11 +8167,11 @@
         <v>44197</v>
       </c>
       <c r="B434">
-        <v>489470064</v>
+        <v>215164584</v>
       </c>
       <c r="C434" t="inlineStr">
         <is>
-          <t>Eritrea</t>
+          <t>San Marino</t>
         </is>
       </c>
       <c r="D434" t="inlineStr">
@@ -8185,11 +8185,11 @@
         <v>44562</v>
       </c>
       <c r="B435">
-        <v>581162395</v>
+        <v>205898159</v>
       </c>
       <c r="C435" t="inlineStr">
         <is>
-          <t>Eritrea</t>
+          <t>San Marino</t>
         </is>
       </c>
       <c r="D435" t="inlineStr">
@@ -8203,11 +8203,11 @@
         <v>44197</v>
       </c>
       <c r="B436">
-        <v>885544653</v>
+        <v>489579860</v>
       </c>
       <c r="C436" t="inlineStr">
         <is>
-          <t>Kosovo, Republic of</t>
+          <t>Eritrea</t>
         </is>
       </c>
       <c r="D436" t="inlineStr">
@@ -8221,11 +8221,11 @@
         <v>44562</v>
       </c>
       <c r="B437">
-        <v>967840058</v>
+        <v>580683869</v>
       </c>
       <c r="C437" t="inlineStr">
         <is>
-          <t>Kosovo, Republic of</t>
+          <t>Eritrea</t>
         </is>
       </c>
       <c r="D437" t="inlineStr">
@@ -8239,11 +8239,11 @@
         <v>44197</v>
       </c>
       <c r="B438">
-        <v>8504951</v>
+        <v>885544653</v>
       </c>
       <c r="C438" t="inlineStr">
         <is>
-          <t>Montserrat</t>
+          <t>Kosovo, Republic of</t>
         </is>
       </c>
       <c r="D438" t="inlineStr">
@@ -8257,11 +8257,11 @@
         <v>44562</v>
       </c>
       <c r="B439">
-        <v>4159248</v>
+        <v>967840058</v>
       </c>
       <c r="C439" t="inlineStr">
         <is>
-          <t>Montserrat</t>
+          <t>Kosovo, Republic of</t>
         </is>
       </c>
       <c r="D439" t="inlineStr">
@@ -8275,11 +8275,11 @@
         <v>44197</v>
       </c>
       <c r="B440">
-        <v>1831392</v>
+        <v>12800882</v>
       </c>
       <c r="C440" t="inlineStr">
         <is>
-          <t>Palau</t>
+          <t>Montserrat</t>
         </is>
       </c>
       <c r="D440" t="inlineStr">
@@ -8293,11 +8293,11 @@
         <v>44562</v>
       </c>
       <c r="B441">
-        <v>4498421</v>
+        <v>5212912</v>
       </c>
       <c r="C441" t="inlineStr">
         <is>
-          <t>Palau</t>
+          <t>Montserrat</t>
         </is>
       </c>
       <c r="D441" t="inlineStr">
@@ -8311,11 +8311,11 @@
         <v>44197</v>
       </c>
       <c r="B442">
-        <v>61579282</v>
+        <v>1853219</v>
       </c>
       <c r="C442" t="inlineStr">
         <is>
-          <t>Sint Maarten (Dutch part)</t>
+          <t>Palau</t>
         </is>
       </c>
       <c r="D442" t="inlineStr">
@@ -8329,11 +8329,11 @@
         <v>44562</v>
       </c>
       <c r="B443">
-        <v>100988879</v>
+        <v>4501820</v>
       </c>
       <c r="C443" t="inlineStr">
         <is>
-          <t>Sint Maarten (Dutch part)</t>
+          <t>Palau</t>
         </is>
       </c>
       <c r="D443" t="inlineStr">
@@ -8347,11 +8347,11 @@
         <v>44197</v>
       </c>
       <c r="B444">
-        <v>2063257922</v>
+        <v>61516788</v>
       </c>
       <c r="C444" t="inlineStr">
         <is>
-          <t>Eswatini</t>
+          <t>Sint Maarten (Dutch part)</t>
         </is>
       </c>
       <c r="D444" t="inlineStr">
@@ -8365,11 +8365,11 @@
         <v>44562</v>
       </c>
       <c r="B445">
-        <v>1992246375</v>
+        <v>102156452</v>
       </c>
       <c r="C445" t="inlineStr">
         <is>
-          <t>Eswatini</t>
+          <t>Sint Maarten (Dutch part)</t>
         </is>
       </c>
       <c r="D445" t="inlineStr">
@@ -8383,11 +8383,11 @@
         <v>44197</v>
       </c>
       <c r="B446">
-        <v>1303065529</v>
+        <v>2063256998</v>
       </c>
       <c r="C446" t="inlineStr">
         <is>
-          <t>Timor-Leste</t>
+          <t>Eswatini</t>
         </is>
       </c>
       <c r="D446" t="inlineStr">
@@ -8401,11 +8401,11 @@
         <v>44562</v>
       </c>
       <c r="B447">
-        <v>321781262</v>
+        <v>1949657991</v>
       </c>
       <c r="C447" t="inlineStr">
         <is>
-          <t>Timor-Leste</t>
+          <t>Eswatini</t>
         </is>
       </c>
       <c r="D447" t="inlineStr">
@@ -8419,11 +8419,11 @@
         <v>44197</v>
       </c>
       <c r="B448">
-        <v>317823045</v>
+        <v>321783792</v>
       </c>
       <c r="C448" t="inlineStr">
         <is>
-          <t>Falkland Islands (Malvinas)</t>
+          <t>Timor-Leste</t>
         </is>
       </c>
       <c r="D448" t="inlineStr">
@@ -8437,11 +8437,11 @@
         <v>44562</v>
       </c>
       <c r="B449">
-        <v>373355598</v>
+        <v>307380300</v>
       </c>
       <c r="C449" t="inlineStr">
         <is>
-          <t>Falkland Islands (Malvinas)</t>
+          <t>Timor-Leste</t>
         </is>
       </c>
       <c r="D449" t="inlineStr">
@@ -8455,11 +8455,11 @@
         <v>44197</v>
       </c>
       <c r="B450">
-        <v>5494227669482</v>
+        <v>317827598</v>
       </c>
       <c r="C450" t="inlineStr">
         <is>
-          <t>Euro Area (Member States and Institutions of the Euro Area) changing composition</t>
+          <t>Falkland Islands (Malvinas)</t>
         </is>
       </c>
       <c r="D450" t="inlineStr">
@@ -8473,11 +8473,11 @@
         <v>44562</v>
       </c>
       <c r="B451">
-        <v>5847024181072</v>
+        <v>382004232</v>
       </c>
       <c r="C451" t="inlineStr">
         <is>
-          <t>Euro Area (Member States and Institutions of the Euro Area) changing composition</t>
+          <t>Falkland Islands (Malvinas)</t>
         </is>
       </c>
       <c r="D451" t="inlineStr">
@@ -8491,11 +8491,11 @@
         <v>44197</v>
       </c>
       <c r="B452">
-        <v>1175911800568</v>
+        <v>5491325008402</v>
       </c>
       <c r="C452" t="inlineStr">
         <is>
-          <t>Middle East and Central Asia</t>
+          <t>Euro Area (Member States and Institutions of the Euro Area) changing composition</t>
         </is>
       </c>
       <c r="D452" t="inlineStr">
@@ -8509,14 +8509,50 @@
         <v>44562</v>
       </c>
       <c r="B453">
-        <v>1626785185069</v>
+        <v>5942415214984</v>
       </c>
       <c r="C453" t="inlineStr">
         <is>
+          <t>Euro Area (Member States and Institutions of the Euro Area) changing composition</t>
+        </is>
+      </c>
+      <c r="D453" t="inlineStr">
+        <is>
+          <t>All Countries, excluding the IO</t>
+        </is>
+      </c>
+    </row>
+    <row r="454">
+      <c r="A454" s="2">
+        <v>44197</v>
+      </c>
+      <c r="B454">
+        <v>1151584876198</v>
+      </c>
+      <c r="C454" t="inlineStr">
+        <is>
           <t>Middle East and Central Asia</t>
         </is>
       </c>
-      <c r="D453" t="inlineStr">
+      <c r="D454" t="inlineStr">
+        <is>
+          <t>All Countries, excluding the IO</t>
+        </is>
+      </c>
+    </row>
+    <row r="455">
+      <c r="A455" s="2">
+        <v>44562</v>
+      </c>
+      <c r="B455">
+        <v>1625728794893</v>
+      </c>
+      <c r="C455" t="inlineStr">
+        <is>
+          <t>Middle East and Central Asia</t>
+        </is>
+      </c>
+      <c r="D455" t="inlineStr">
         <is>
           <t>All Countries, excluding the IO</t>
         </is>

--- a/data/imf_total_exports_2021A.xlsx
+++ b/data/imf_total_exports_2021A.xlsx
@@ -391,7 +391,7 @@
         <v>44197</v>
       </c>
       <c r="B2">
-        <v>905699017566</v>
+        <v>961516323680</v>
       </c>
       <c r="C2" t="inlineStr">
         <is>
@@ -409,7 +409,7 @@
         <v>44562</v>
       </c>
       <c r="B3">
-        <v>1291295218429</v>
+        <v>1370255966589</v>
       </c>
       <c r="C3" t="inlineStr">
         <is>
@@ -427,7 +427,7 @@
         <v>44927</v>
       </c>
       <c r="B4">
-        <v>1097412994084</v>
+        <v>1199440162441</v>
       </c>
       <c r="C4" t="inlineStr">
         <is>
@@ -445,7 +445,7 @@
         <v>44197</v>
       </c>
       <c r="B5">
-        <v>82172967384</v>
+        <v>83165853546</v>
       </c>
       <c r="C5" t="inlineStr">
         <is>
@@ -463,7 +463,7 @@
         <v>44562</v>
       </c>
       <c r="B6">
-        <v>125729333006</v>
+        <v>126655201852</v>
       </c>
       <c r="C6" t="inlineStr">
         <is>
@@ -481,7 +481,7 @@
         <v>44927</v>
       </c>
       <c r="B7">
-        <v>106239264633</v>
+        <v>107225430946</v>
       </c>
       <c r="C7" t="inlineStr">
         <is>
@@ -553,7 +553,7 @@
         <v>44197</v>
       </c>
       <c r="B11">
-        <v>2465540334</v>
+        <v>2433651982</v>
       </c>
       <c r="C11" t="inlineStr">
         <is>
@@ -571,7 +571,7 @@
         <v>44562</v>
       </c>
       <c r="B12">
-        <v>2731846073</v>
+        <v>2689989016</v>
       </c>
       <c r="C12" t="inlineStr">
         <is>
@@ -589,7 +589,7 @@
         <v>44927</v>
       </c>
       <c r="B13">
-        <v>2547294938</v>
+        <v>2511511444</v>
       </c>
       <c r="C13" t="inlineStr">
         <is>
@@ -643,7 +643,7 @@
         <v>44927</v>
       </c>
       <c r="B16">
-        <v>648132361032</v>
+        <v>648356462076</v>
       </c>
       <c r="C16" t="inlineStr">
         <is>
@@ -697,7 +697,7 @@
         <v>44927</v>
       </c>
       <c r="B19">
-        <v>197783600189</v>
+        <v>197508541581</v>
       </c>
       <c r="C19" t="inlineStr">
         <is>
@@ -751,7 +751,7 @@
         <v>44927</v>
       </c>
       <c r="B22">
-        <v>15194401879</v>
+        <v>15259653596</v>
       </c>
       <c r="C22" t="inlineStr">
         <is>
@@ -823,7 +823,7 @@
         <v>44197</v>
       </c>
       <c r="B26">
-        <v>509218492</v>
+        <v>509245606</v>
       </c>
       <c r="C26" t="inlineStr">
         <is>
@@ -859,7 +859,7 @@
         <v>44927</v>
       </c>
       <c r="B28">
-        <v>693134588</v>
+        <v>692933558</v>
       </c>
       <c r="C28" t="inlineStr">
         <is>
@@ -895,7 +895,7 @@
         <v>44562</v>
       </c>
       <c r="B30">
-        <v>5878039250</v>
+        <v>5914622311</v>
       </c>
       <c r="C30" t="inlineStr">
         <is>
@@ -913,7 +913,7 @@
         <v>44927</v>
       </c>
       <c r="B31">
-        <v>4811401708</v>
+        <v>4808681313</v>
       </c>
       <c r="C31" t="inlineStr">
         <is>
@@ -985,7 +985,7 @@
         <v>44197</v>
       </c>
       <c r="B35">
-        <v>5100697164148</v>
+        <v>5100568857852</v>
       </c>
       <c r="C35" t="inlineStr">
         <is>
@@ -1003,7 +1003,7 @@
         <v>44562</v>
       </c>
       <c r="B36">
-        <v>5633157047560</v>
+        <v>5624749387711</v>
       </c>
       <c r="C36" t="inlineStr">
         <is>
@@ -1021,7 +1021,7 @@
         <v>44927</v>
       </c>
       <c r="B37">
-        <v>5283358654664</v>
+        <v>5266071472822</v>
       </c>
       <c r="C37" t="inlineStr">
         <is>
@@ -1039,7 +1039,7 @@
         <v>44197</v>
       </c>
       <c r="B38">
-        <v>1486312592384</v>
+        <v>1486305272151</v>
       </c>
       <c r="C38" t="inlineStr">
         <is>
@@ -1057,7 +1057,7 @@
         <v>44562</v>
       </c>
       <c r="B39">
-        <v>1636432073136</v>
+        <v>1636235464543</v>
       </c>
       <c r="C39" t="inlineStr">
         <is>
@@ -1075,7 +1075,7 @@
         <v>44927</v>
       </c>
       <c r="B40">
-        <v>1485739212903</v>
+        <v>1487584074347</v>
       </c>
       <c r="C40" t="inlineStr">
         <is>
@@ -1093,7 +1093,7 @@
         <v>44197</v>
       </c>
       <c r="B41">
-        <v>29268510469</v>
+        <v>29268510431</v>
       </c>
       <c r="C41" t="inlineStr">
         <is>
@@ -1111,7 +1111,7 @@
         <v>44562</v>
       </c>
       <c r="B42">
-        <v>34734783094</v>
+        <v>34734783152</v>
       </c>
       <c r="C42" t="inlineStr">
         <is>
@@ -1129,7 +1129,7 @@
         <v>44927</v>
       </c>
       <c r="B43">
-        <v>39917432976</v>
+        <v>39213644060</v>
       </c>
       <c r="C43" t="inlineStr">
         <is>
@@ -1201,7 +1201,7 @@
         <v>44197</v>
       </c>
       <c r="B47">
-        <v>5790384164</v>
+        <v>5790383231</v>
       </c>
       <c r="C47" t="inlineStr">
         <is>
@@ -1219,7 +1219,7 @@
         <v>44562</v>
       </c>
       <c r="B48">
-        <v>8416789685</v>
+        <v>8417017666</v>
       </c>
       <c r="C48" t="inlineStr">
         <is>
@@ -1237,7 +1237,7 @@
         <v>44927</v>
       </c>
       <c r="B49">
-        <v>9338450261</v>
+        <v>9325534062</v>
       </c>
       <c r="C49" t="inlineStr">
         <is>
@@ -1273,7 +1273,7 @@
         <v>44562</v>
       </c>
       <c r="B51">
-        <v>51443395614</v>
+        <v>51443395654</v>
       </c>
       <c r="C51" t="inlineStr">
         <is>
@@ -1291,7 +1291,7 @@
         <v>44927</v>
       </c>
       <c r="B52">
-        <v>40459778850</v>
+        <v>40580288956</v>
       </c>
       <c r="C52" t="inlineStr">
         <is>
@@ -1309,7 +1309,7 @@
         <v>44197</v>
       </c>
       <c r="B53">
-        <v>7902413299</v>
+        <v>7907616437</v>
       </c>
       <c r="C53" t="inlineStr">
         <is>
@@ -1327,7 +1327,7 @@
         <v>44562</v>
       </c>
       <c r="B54">
-        <v>9573673241</v>
+        <v>9577112131</v>
       </c>
       <c r="C54" t="inlineStr">
         <is>
@@ -1345,7 +1345,7 @@
         <v>44927</v>
       </c>
       <c r="B55">
-        <v>9619169478</v>
+        <v>9624060997</v>
       </c>
       <c r="C55" t="inlineStr">
         <is>
@@ -1363,7 +1363,7 @@
         <v>44197</v>
       </c>
       <c r="B56">
-        <v>93878024713</v>
+        <v>94603969282</v>
       </c>
       <c r="C56" t="inlineStr">
         <is>
@@ -1381,7 +1381,7 @@
         <v>44562</v>
       </c>
       <c r="B57">
-        <v>97489095973</v>
+        <v>98554888717</v>
       </c>
       <c r="C57" t="inlineStr">
         <is>
@@ -1399,7 +1399,7 @@
         <v>44927</v>
       </c>
       <c r="B58">
-        <v>94924028482</v>
+        <v>94557017102</v>
       </c>
       <c r="C58" t="inlineStr">
         <is>
@@ -1597,7 +1597,7 @@
         <v>44562</v>
       </c>
       <c r="B69">
-        <v>34258141421</v>
+        <v>34071653110</v>
       </c>
       <c r="C69" t="inlineStr">
         <is>
@@ -1615,7 +1615,7 @@
         <v>44927</v>
       </c>
       <c r="B70">
-        <v>26520976019</v>
+        <v>26225583056</v>
       </c>
       <c r="C70" t="inlineStr">
         <is>
@@ -1633,7 +1633,7 @@
         <v>44197</v>
       </c>
       <c r="B71">
-        <v>8096965859</v>
+        <v>8091290591</v>
       </c>
       <c r="C71" t="inlineStr">
         <is>
@@ -1651,7 +1651,7 @@
         <v>44562</v>
       </c>
       <c r="B72">
-        <v>12133257168</v>
+        <v>12123534001</v>
       </c>
       <c r="C72" t="inlineStr">
         <is>
@@ -1669,7 +1669,7 @@
         <v>44927</v>
       </c>
       <c r="B73">
-        <v>9669474795</v>
+        <v>9544224413</v>
       </c>
       <c r="C73" t="inlineStr">
         <is>
@@ -1795,7 +1795,7 @@
         <v>44197</v>
       </c>
       <c r="B80">
-        <v>1836026098</v>
+        <v>1831036084</v>
       </c>
       <c r="C80" t="inlineStr">
         <is>
@@ -1813,7 +1813,7 @@
         <v>44562</v>
       </c>
       <c r="B81">
-        <v>1477607216</v>
+        <v>1473664185</v>
       </c>
       <c r="C81" t="inlineStr">
         <is>
@@ -1831,7 +1831,7 @@
         <v>44927</v>
       </c>
       <c r="B82">
-        <v>1342357333</v>
+        <v>1339092975</v>
       </c>
       <c r="C82" t="inlineStr">
         <is>
@@ -1849,7 +1849,7 @@
         <v>44197</v>
       </c>
       <c r="B83">
-        <v>9722779966</v>
+        <v>9722779962</v>
       </c>
       <c r="C83" t="inlineStr">
         <is>
@@ -1867,7 +1867,7 @@
         <v>44562</v>
       </c>
       <c r="B84">
-        <v>12807751484</v>
+        <v>12010358248</v>
       </c>
       <c r="C84" t="inlineStr">
         <is>
@@ -1885,7 +1885,7 @@
         <v>44927</v>
       </c>
       <c r="B85">
-        <v>11043101653</v>
+        <v>10957707173</v>
       </c>
       <c r="C85" t="inlineStr">
         <is>
@@ -1903,7 +1903,7 @@
         <v>44197</v>
       </c>
       <c r="B86">
-        <v>55606228908</v>
+        <v>55746609224</v>
       </c>
       <c r="C86" t="inlineStr">
         <is>
@@ -1921,7 +1921,7 @@
         <v>44562</v>
       </c>
       <c r="B87">
-        <v>64128830118</v>
+        <v>64197556349</v>
       </c>
       <c r="C87" t="inlineStr">
         <is>
@@ -1939,7 +1939,7 @@
         <v>44927</v>
       </c>
       <c r="B88">
-        <v>53262400552</v>
+        <v>53277653807</v>
       </c>
       <c r="C88" t="inlineStr">
         <is>
@@ -1993,7 +1993,7 @@
         <v>44927</v>
       </c>
       <c r="B91">
-        <v>4417503652</v>
+        <v>4413485392</v>
       </c>
       <c r="C91" t="inlineStr">
         <is>
@@ -2047,7 +2047,7 @@
         <v>44927</v>
       </c>
       <c r="B94">
-        <v>8979867475</v>
+        <v>8996912395</v>
       </c>
       <c r="C94" t="inlineStr">
         <is>
@@ -2065,7 +2065,7 @@
         <v>44197</v>
       </c>
       <c r="B95">
-        <v>3293548306</v>
+        <v>3298506334</v>
       </c>
       <c r="C95" t="inlineStr">
         <is>
@@ -2083,7 +2083,7 @@
         <v>44562</v>
       </c>
       <c r="B96">
-        <v>3807069242</v>
+        <v>3815260470</v>
       </c>
       <c r="C96" t="inlineStr">
         <is>
@@ -2101,7 +2101,7 @@
         <v>44927</v>
       </c>
       <c r="B97">
-        <v>3241864813</v>
+        <v>3182503726</v>
       </c>
       <c r="C97" t="inlineStr">
         <is>
@@ -2173,7 +2173,7 @@
         <v>44197</v>
       </c>
       <c r="B101">
-        <v>28623861</v>
+        <v>28510976</v>
       </c>
       <c r="C101" t="inlineStr">
         <is>
@@ -2191,7 +2191,7 @@
         <v>44562</v>
       </c>
       <c r="B102">
-        <v>46410768</v>
+        <v>46324993</v>
       </c>
       <c r="C102" t="inlineStr">
         <is>
@@ -2209,7 +2209,7 @@
         <v>44927</v>
       </c>
       <c r="B103">
-        <v>56001200</v>
+        <v>56064155</v>
       </c>
       <c r="C103" t="inlineStr">
         <is>
@@ -2263,7 +2263,7 @@
         <v>44927</v>
       </c>
       <c r="B106">
-        <v>10978700286</v>
+        <v>10948226421</v>
       </c>
       <c r="C106" t="inlineStr">
         <is>
@@ -2317,7 +2317,7 @@
         <v>44927</v>
       </c>
       <c r="B109">
-        <v>167971204</v>
+        <v>170843750</v>
       </c>
       <c r="C109" t="inlineStr">
         <is>
@@ -2335,7 +2335,7 @@
         <v>44197</v>
       </c>
       <c r="B110">
-        <v>454905113413</v>
+        <v>454905179563</v>
       </c>
       <c r="C110" t="inlineStr">
         <is>
@@ -2353,7 +2353,7 @@
         <v>44562</v>
       </c>
       <c r="B111">
-        <v>521196762528</v>
+        <v>521196743960</v>
       </c>
       <c r="C111" t="inlineStr">
         <is>
@@ -2371,7 +2371,7 @@
         <v>44927</v>
       </c>
       <c r="B112">
-        <v>487526179064</v>
+        <v>487526134951</v>
       </c>
       <c r="C112" t="inlineStr">
         <is>
@@ -2389,7 +2389,7 @@
         <v>44197</v>
       </c>
       <c r="B113">
-        <v>1999401237</v>
+        <v>1999401238</v>
       </c>
       <c r="C113" t="inlineStr">
         <is>
@@ -2407,7 +2407,7 @@
         <v>44562</v>
       </c>
       <c r="B114">
-        <v>8748508154</v>
+        <v>8748508153</v>
       </c>
       <c r="C114" t="inlineStr">
         <is>
@@ -2425,7 +2425,7 @@
         <v>44927</v>
       </c>
       <c r="B115">
-        <v>6229770874</v>
+        <v>6177344226</v>
       </c>
       <c r="C115" t="inlineStr">
         <is>
@@ -2443,7 +2443,7 @@
         <v>44197</v>
       </c>
       <c r="B116">
-        <v>737380374</v>
+        <v>737380289</v>
       </c>
       <c r="C116" t="inlineStr">
         <is>
@@ -2461,7 +2461,7 @@
         <v>44562</v>
       </c>
       <c r="B117">
-        <v>428334685</v>
+        <v>428334171</v>
       </c>
       <c r="C117" t="inlineStr">
         <is>
@@ -2479,7 +2479,7 @@
         <v>44927</v>
       </c>
       <c r="B118">
-        <v>524747990.9999999</v>
+        <v>526872542.9999999</v>
       </c>
       <c r="C118" t="inlineStr">
         <is>
@@ -2497,7 +2497,7 @@
         <v>44197</v>
       </c>
       <c r="B119">
-        <v>628160727</v>
+        <v>628066765</v>
       </c>
       <c r="C119" t="inlineStr">
         <is>
@@ -2515,7 +2515,7 @@
         <v>44562</v>
       </c>
       <c r="B120">
-        <v>606840370</v>
+        <v>606758219</v>
       </c>
       <c r="C120" t="inlineStr">
         <is>
@@ -2533,7 +2533,7 @@
         <v>44927</v>
       </c>
       <c r="B121">
-        <v>620746291</v>
+        <v>624645589</v>
       </c>
       <c r="C121" t="inlineStr">
         <is>
@@ -2551,7 +2551,7 @@
         <v>44197</v>
       </c>
       <c r="B122">
-        <v>11518659053</v>
+        <v>11517761479</v>
       </c>
       <c r="C122" t="inlineStr">
         <is>
@@ -2569,7 +2569,7 @@
         <v>44562</v>
       </c>
       <c r="B123">
-        <v>24646217030</v>
+        <v>24644147340</v>
       </c>
       <c r="C123" t="inlineStr">
         <is>
@@ -2587,7 +2587,7 @@
         <v>44927</v>
       </c>
       <c r="B124">
-        <v>25533357904</v>
+        <v>25531035624</v>
       </c>
       <c r="C124" t="inlineStr">
         <is>
@@ -2605,7 +2605,7 @@
         <v>44197</v>
       </c>
       <c r="B125">
-        <v>531523155</v>
+        <v>920228139</v>
       </c>
       <c r="C125" t="inlineStr">
         <is>
@@ -2623,7 +2623,7 @@
         <v>44562</v>
       </c>
       <c r="B126">
-        <v>1325410215</v>
+        <v>1746105876</v>
       </c>
       <c r="C126" t="inlineStr">
         <is>
@@ -2641,7 +2641,7 @@
         <v>44927</v>
       </c>
       <c r="B127">
-        <v>1607962244</v>
+        <v>2105153087</v>
       </c>
       <c r="C127" t="inlineStr">
         <is>
@@ -2713,7 +2713,7 @@
         <v>44197</v>
       </c>
       <c r="B131">
-        <v>1196832744</v>
+        <v>1196665657</v>
       </c>
       <c r="C131" t="inlineStr">
         <is>
@@ -2749,7 +2749,7 @@
         <v>44927</v>
       </c>
       <c r="B133">
-        <v>1223854904</v>
+        <v>1135125500</v>
       </c>
       <c r="C133" t="inlineStr">
         <is>
@@ -2875,7 +2875,7 @@
         <v>44197</v>
       </c>
       <c r="B140">
-        <v>1042997581603</v>
+        <v>1096636602721</v>
       </c>
       <c r="C140" t="inlineStr">
         <is>
@@ -2893,7 +2893,7 @@
         <v>44562</v>
       </c>
       <c r="B141">
-        <v>1462973065644</v>
+        <v>1540809140581</v>
       </c>
       <c r="C141" t="inlineStr">
         <is>
@@ -2911,7 +2911,7 @@
         <v>44927</v>
       </c>
       <c r="B142">
-        <v>1261525072209</v>
+        <v>1359797803559</v>
       </c>
       <c r="C142" t="inlineStr">
         <is>
@@ -2983,7 +2983,7 @@
         <v>44197</v>
       </c>
       <c r="B146">
-        <v>2752306761</v>
+        <v>2752136695</v>
       </c>
       <c r="C146" t="inlineStr">
         <is>
@@ -3001,7 +3001,7 @@
         <v>44562</v>
       </c>
       <c r="B147">
-        <v>4037482856</v>
+        <v>4046012275</v>
       </c>
       <c r="C147" t="inlineStr">
         <is>
@@ -3019,7 +3019,7 @@
         <v>44927</v>
       </c>
       <c r="B148">
-        <v>6966299160</v>
+        <v>6998571670</v>
       </c>
       <c r="C148" t="inlineStr">
         <is>
@@ -3091,7 +3091,7 @@
         <v>44197</v>
       </c>
       <c r="B152">
-        <v>17248430203</v>
+        <v>16353752705</v>
       </c>
       <c r="C152" t="inlineStr">
         <is>
@@ -3109,7 +3109,7 @@
         <v>44562</v>
       </c>
       <c r="B153">
-        <v>18665201242</v>
+        <v>17441531351</v>
       </c>
       <c r="C153" t="inlineStr">
         <is>
@@ -3127,7 +3127,7 @@
         <v>44927</v>
       </c>
       <c r="B154">
-        <v>15002605546</v>
+        <v>13951224107</v>
       </c>
       <c r="C154" t="inlineStr">
         <is>
@@ -3145,7 +3145,7 @@
         <v>44197</v>
       </c>
       <c r="B155">
-        <v>7729547763910</v>
+        <v>7728132840892</v>
       </c>
       <c r="C155" t="inlineStr">
         <is>
@@ -3163,7 +3163,7 @@
         <v>44562</v>
       </c>
       <c r="B156">
-        <v>8536196555411</v>
+        <v>8527784729969</v>
       </c>
       <c r="C156" t="inlineStr">
         <is>
@@ -3181,7 +3181,7 @@
         <v>44927</v>
       </c>
       <c r="B157">
-        <v>8190665629290</v>
+        <v>8168555942637</v>
       </c>
       <c r="C157" t="inlineStr">
         <is>
@@ -3199,7 +3199,7 @@
         <v>44197</v>
       </c>
       <c r="B158">
-        <v>66623610</v>
+        <v>80916334</v>
       </c>
       <c r="C158" t="inlineStr">
         <is>
@@ -3217,7 +3217,7 @@
         <v>44562</v>
       </c>
       <c r="B159">
-        <v>81662175</v>
+        <v>91003000</v>
       </c>
       <c r="C159" t="inlineStr">
         <is>
@@ -3235,7 +3235,7 @@
         <v>44927</v>
       </c>
       <c r="B160">
-        <v>33409368</v>
+        <v>35165063</v>
       </c>
       <c r="C160" t="inlineStr">
         <is>
@@ -3253,7 +3253,7 @@
         <v>44197</v>
       </c>
       <c r="B161">
-        <v>4898778503</v>
+        <v>4923436993</v>
       </c>
       <c r="C161" t="inlineStr">
         <is>
@@ -3271,7 +3271,7 @@
         <v>44562</v>
       </c>
       <c r="B162">
-        <v>5711493656</v>
+        <v>5751518153</v>
       </c>
       <c r="C162" t="inlineStr">
         <is>
@@ -3289,7 +3289,7 @@
         <v>44927</v>
       </c>
       <c r="B163">
-        <v>9087094412</v>
+        <v>9153443645</v>
       </c>
       <c r="C163" t="inlineStr">
         <is>
@@ -3343,7 +3343,7 @@
         <v>44927</v>
       </c>
       <c r="B166">
-        <v>255538193456</v>
+        <v>255440779922</v>
       </c>
       <c r="C166" t="inlineStr">
         <is>
@@ -3379,7 +3379,7 @@
         <v>44562</v>
       </c>
       <c r="B168">
-        <v>22380480760</v>
+        <v>22859066983</v>
       </c>
       <c r="C168" t="inlineStr">
         <is>
@@ -3415,7 +3415,7 @@
         <v>44197</v>
       </c>
       <c r="B170">
-        <v>408205936</v>
+        <v>409177697</v>
       </c>
       <c r="C170" t="inlineStr">
         <is>
@@ -3433,7 +3433,7 @@
         <v>44562</v>
       </c>
       <c r="B171">
-        <v>479772978</v>
+        <v>480148440</v>
       </c>
       <c r="C171" t="inlineStr">
         <is>
@@ -3451,7 +3451,7 @@
         <v>44927</v>
       </c>
       <c r="B172">
-        <v>521116569</v>
+        <v>523049597.9999999</v>
       </c>
       <c r="C172" t="inlineStr">
         <is>
@@ -3469,7 +3469,7 @@
         <v>44197</v>
       </c>
       <c r="B173">
-        <v>122354020925</v>
+        <v>122354021063</v>
       </c>
       <c r="C173" t="inlineStr">
         <is>
@@ -3487,7 +3487,7 @@
         <v>44562</v>
       </c>
       <c r="B174">
-        <v>123387268694</v>
+        <v>123387268746</v>
       </c>
       <c r="C174" t="inlineStr">
         <is>
@@ -3505,7 +3505,7 @@
         <v>44927</v>
       </c>
       <c r="B175">
-        <v>110526077545</v>
+        <v>110526077563</v>
       </c>
       <c r="C175" t="inlineStr">
         <is>
@@ -3577,7 +3577,7 @@
         <v>44197</v>
       </c>
       <c r="B179">
-        <v>74619469853</v>
+        <v>74619469858</v>
       </c>
       <c r="C179" t="inlineStr">
         <is>
@@ -3595,7 +3595,7 @@
         <v>44562</v>
       </c>
       <c r="B180">
-        <v>80755168080</v>
+        <v>80747365701</v>
       </c>
       <c r="C180" t="inlineStr">
         <is>
@@ -3613,7 +3613,7 @@
         <v>44927</v>
       </c>
       <c r="B181">
-        <v>73208348709</v>
+        <v>73231618393</v>
       </c>
       <c r="C181" t="inlineStr">
         <is>
@@ -3649,7 +3649,7 @@
         <v>44562</v>
       </c>
       <c r="B183">
-        <v>15683554937</v>
+        <v>15683554936</v>
       </c>
       <c r="C183" t="inlineStr">
         <is>
@@ -3667,7 +3667,7 @@
         <v>44927</v>
       </c>
       <c r="B184">
-        <v>14071194525</v>
+        <v>14190663555</v>
       </c>
       <c r="C184" t="inlineStr">
         <is>
@@ -3685,7 +3685,7 @@
         <v>44197</v>
       </c>
       <c r="B185">
-        <v>61198158614</v>
+        <v>61193176143</v>
       </c>
       <c r="C185" t="inlineStr">
         <is>
@@ -3703,7 +3703,7 @@
         <v>44562</v>
       </c>
       <c r="B186">
-        <v>85551082170</v>
+        <v>85544036408</v>
       </c>
       <c r="C186" t="inlineStr">
         <is>
@@ -3721,7 +3721,7 @@
         <v>44927</v>
       </c>
       <c r="B187">
-        <v>81279516989</v>
+        <v>81538027001</v>
       </c>
       <c r="C187" t="inlineStr">
         <is>
@@ -3775,7 +3775,7 @@
         <v>44927</v>
       </c>
       <c r="B190">
-        <v>6124154513</v>
+        <v>6054356275</v>
       </c>
       <c r="C190" t="inlineStr">
         <is>
@@ -3793,7 +3793,7 @@
         <v>44197</v>
       </c>
       <c r="B191">
-        <v>399314954540</v>
+        <v>399827359137</v>
       </c>
       <c r="C191" t="inlineStr">
         <is>
@@ -3811,7 +3811,7 @@
         <v>44562</v>
       </c>
       <c r="B192">
-        <v>444047765368</v>
+        <v>444646410039</v>
       </c>
       <c r="C192" t="inlineStr">
         <is>
@@ -3829,7 +3829,7 @@
         <v>44927</v>
       </c>
       <c r="B193">
-        <v>410310448658</v>
+        <v>408676375172</v>
       </c>
       <c r="C193" t="inlineStr">
         <is>
@@ -3847,7 +3847,7 @@
         <v>44197</v>
       </c>
       <c r="B194">
-        <v>12210914970</v>
+        <v>10099529816</v>
       </c>
       <c r="C194" t="inlineStr">
         <is>
@@ -3865,7 +3865,7 @@
         <v>44562</v>
       </c>
       <c r="B195">
-        <v>9872501546</v>
+        <v>8809288548</v>
       </c>
       <c r="C195" t="inlineStr">
         <is>
@@ -3883,7 +3883,7 @@
         <v>44927</v>
       </c>
       <c r="B196">
-        <v>11701417627</v>
+        <v>8533058204.000001</v>
       </c>
       <c r="C196" t="inlineStr">
         <is>
@@ -3955,7 +3955,7 @@
         <v>44197</v>
       </c>
       <c r="B200">
-        <v>502108517</v>
+        <v>502538217</v>
       </c>
       <c r="C200" t="inlineStr">
         <is>
@@ -3973,7 +3973,7 @@
         <v>44562</v>
       </c>
       <c r="B201">
-        <v>506949627</v>
+        <v>506948698</v>
       </c>
       <c r="C201" t="inlineStr">
         <is>
@@ -3991,7 +3991,7 @@
         <v>44927</v>
       </c>
       <c r="B202">
-        <v>464772461</v>
+        <v>451920036</v>
       </c>
       <c r="C202" t="inlineStr">
         <is>
@@ -4009,7 +4009,7 @@
         <v>44197</v>
       </c>
       <c r="B203">
-        <v>4907425404</v>
+        <v>4905037305</v>
       </c>
       <c r="C203" t="inlineStr">
         <is>
@@ -4027,7 +4027,7 @@
         <v>44562</v>
       </c>
       <c r="B204">
-        <v>4654434401</v>
+        <v>4658940341</v>
       </c>
       <c r="C204" t="inlineStr">
         <is>
@@ -4045,7 +4045,7 @@
         <v>44927</v>
       </c>
       <c r="B205">
-        <v>4478585124</v>
+        <v>4496483892</v>
       </c>
       <c r="C205" t="inlineStr">
         <is>
@@ -4099,7 +4099,7 @@
         <v>44927</v>
       </c>
       <c r="B208">
-        <v>47557549288</v>
+        <v>47473604675</v>
       </c>
       <c r="C208" t="inlineStr">
         <is>
@@ -4153,7 +4153,7 @@
         <v>44927</v>
       </c>
       <c r="B211">
-        <v>97806469486</v>
+        <v>97982407282</v>
       </c>
       <c r="C211" t="inlineStr">
         <is>
@@ -4279,7 +4279,7 @@
         <v>44197</v>
       </c>
       <c r="B218">
-        <v>1627249410760</v>
+        <v>1683611206520</v>
       </c>
       <c r="C218" t="inlineStr">
         <is>
@@ -4297,7 +4297,7 @@
         <v>44562</v>
       </c>
       <c r="B219">
-        <v>2218913129289</v>
+        <v>2298495678745</v>
       </c>
       <c r="C219" t="inlineStr">
         <is>
@@ -4315,7 +4315,7 @@
         <v>44927</v>
       </c>
       <c r="B220">
-        <v>1810669328820</v>
+        <v>1915914518683</v>
       </c>
       <c r="C220" t="inlineStr">
         <is>
@@ -4405,7 +4405,7 @@
         <v>44562</v>
       </c>
       <c r="B225">
-        <v>50742519</v>
+        <v>48348354</v>
       </c>
       <c r="C225" t="inlineStr">
         <is>
@@ -4423,7 +4423,7 @@
         <v>44927</v>
       </c>
       <c r="B226">
-        <v>38450473</v>
+        <v>36753085</v>
       </c>
       <c r="C226" t="inlineStr">
         <is>
@@ -4441,7 +4441,7 @@
         <v>44197</v>
       </c>
       <c r="B227">
-        <v>578833986067</v>
+        <v>577168055050</v>
       </c>
       <c r="C227" t="inlineStr">
         <is>
@@ -4459,7 +4459,7 @@
         <v>44562</v>
       </c>
       <c r="B228">
-        <v>671030740484</v>
+        <v>670507542608</v>
       </c>
       <c r="C228" t="inlineStr">
         <is>
@@ -4477,7 +4477,7 @@
         <v>44927</v>
       </c>
       <c r="B229">
-        <v>610458467136</v>
+        <v>605465626445</v>
       </c>
       <c r="C229" t="inlineStr">
         <is>
@@ -4513,7 +4513,7 @@
         <v>44562</v>
       </c>
       <c r="B231">
-        <v>320067198</v>
+        <v>320067199</v>
       </c>
       <c r="C231" t="inlineStr">
         <is>
@@ -4531,7 +4531,7 @@
         <v>44927</v>
       </c>
       <c r="B232">
-        <v>370695041</v>
+        <v>376698586</v>
       </c>
       <c r="C232" t="inlineStr">
         <is>
@@ -4549,7 +4549,7 @@
         <v>44197</v>
       </c>
       <c r="B233">
-        <v>19471536170</v>
+        <v>19471536374</v>
       </c>
       <c r="C233" t="inlineStr">
         <is>
@@ -4567,7 +4567,7 @@
         <v>44562</v>
       </c>
       <c r="B234">
-        <v>22606585796</v>
+        <v>22606585797</v>
       </c>
       <c r="C234" t="inlineStr">
         <is>
@@ -4585,7 +4585,7 @@
         <v>44927</v>
       </c>
       <c r="B235">
-        <v>23272264921</v>
+        <v>23272264918</v>
       </c>
       <c r="C235" t="inlineStr">
         <is>
@@ -4639,7 +4639,7 @@
         <v>44927</v>
       </c>
       <c r="B238">
-        <v>1688405223539</v>
+        <v>1718044755143</v>
       </c>
       <c r="C238" t="inlineStr">
         <is>
@@ -4657,7 +4657,7 @@
         <v>44197</v>
       </c>
       <c r="B239">
-        <v>9356797174670</v>
+        <v>9411744047412</v>
       </c>
       <c r="C239" t="inlineStr">
         <is>
@@ -4675,7 +4675,7 @@
         <v>44562</v>
       </c>
       <c r="B240">
-        <v>10755109684700</v>
+        <v>10826280408714</v>
       </c>
       <c r="C240" t="inlineStr">
         <is>
@@ -4693,7 +4693,7 @@
         <v>44927</v>
       </c>
       <c r="B241">
-        <v>10001334958110</v>
+        <v>10084470461320</v>
       </c>
       <c r="C241" t="inlineStr">
         <is>
@@ -4711,7 +4711,7 @@
         <v>44197</v>
       </c>
       <c r="B242">
-        <v>21565912622</v>
+        <v>21576887192</v>
       </c>
       <c r="C242" t="inlineStr">
         <is>
@@ -4729,7 +4729,7 @@
         <v>44562</v>
       </c>
       <c r="B243">
-        <v>15818896123</v>
+        <v>15824983712</v>
       </c>
       <c r="C243" t="inlineStr">
         <is>
@@ -4747,7 +4747,7 @@
         <v>44927</v>
       </c>
       <c r="B244">
-        <v>15110841720</v>
+        <v>14143171071</v>
       </c>
       <c r="C244" t="inlineStr">
         <is>
@@ -4801,7 +4801,7 @@
         <v>44927</v>
       </c>
       <c r="B247">
-        <v>934224334417</v>
+        <v>934779694672</v>
       </c>
       <c r="C247" t="inlineStr">
         <is>
@@ -4855,7 +4855,7 @@
         <v>44927</v>
       </c>
       <c r="B250">
-        <v>1186579296</v>
+        <v>1231855259</v>
       </c>
       <c r="C250" t="inlineStr">
         <is>
@@ -4873,7 +4873,7 @@
         <v>44197</v>
       </c>
       <c r="B251">
-        <v>375898086</v>
+        <v>377446962</v>
       </c>
       <c r="C251" t="inlineStr">
         <is>
@@ -4891,7 +4891,7 @@
         <v>44562</v>
       </c>
       <c r="B252">
-        <v>642361525</v>
+        <v>644481491</v>
       </c>
       <c r="C252" t="inlineStr">
         <is>
@@ -4909,7 +4909,7 @@
         <v>44927</v>
       </c>
       <c r="B253">
-        <v>833260003</v>
+        <v>835299467</v>
       </c>
       <c r="C253" t="inlineStr">
         <is>
@@ -4927,7 +4927,7 @@
         <v>44197</v>
       </c>
       <c r="B254">
-        <v>18903250670</v>
+        <v>18895097211</v>
       </c>
       <c r="C254" t="inlineStr">
         <is>
@@ -4945,7 +4945,7 @@
         <v>44562</v>
       </c>
       <c r="B255">
-        <v>15729780525</v>
+        <v>15728248557</v>
       </c>
       <c r="C255" t="inlineStr">
         <is>
@@ -4963,7 +4963,7 @@
         <v>44927</v>
       </c>
       <c r="B256">
-        <v>16048749373</v>
+        <v>16034631405</v>
       </c>
       <c r="C256" t="inlineStr">
         <is>
@@ -4981,7 +4981,7 @@
         <v>44197</v>
       </c>
       <c r="B257">
-        <v>15788903677</v>
+        <v>15737553316</v>
       </c>
       <c r="C257" t="inlineStr">
         <is>
@@ -4999,7 +4999,7 @@
         <v>44562</v>
       </c>
       <c r="B258">
-        <v>17893956100</v>
+        <v>17823567415</v>
       </c>
       <c r="C258" t="inlineStr">
         <is>
@@ -5017,7 +5017,7 @@
         <v>44927</v>
       </c>
       <c r="B259">
-        <v>15769284791</v>
+        <v>15679856030</v>
       </c>
       <c r="C259" t="inlineStr">
         <is>
@@ -5035,7 +5035,7 @@
         <v>44197</v>
       </c>
       <c r="B260">
-        <v>8376864761.999999</v>
+        <v>8376864764</v>
       </c>
       <c r="C260" t="inlineStr">
         <is>
@@ -5053,7 +5053,7 @@
         <v>44562</v>
       </c>
       <c r="B261">
-        <v>13286105051</v>
+        <v>13286104471</v>
       </c>
       <c r="C261" t="inlineStr">
         <is>
@@ -5071,7 +5071,7 @@
         <v>44927</v>
       </c>
       <c r="B262">
-        <v>8405006490</v>
+        <v>8604960411</v>
       </c>
       <c r="C262" t="inlineStr">
         <is>
@@ -5125,7 +5125,7 @@
         <v>44927</v>
       </c>
       <c r="B265">
-        <v>4120398002</v>
+        <v>4283009044</v>
       </c>
       <c r="C265" t="inlineStr">
         <is>
@@ -5197,7 +5197,7 @@
         <v>44197</v>
       </c>
       <c r="B269">
-        <v>13853464648</v>
+        <v>13717269038</v>
       </c>
       <c r="C269" t="inlineStr">
         <is>
@@ -5215,7 +5215,7 @@
         <v>44562</v>
       </c>
       <c r="B270">
-        <v>17174162301</v>
+        <v>16986585363</v>
       </c>
       <c r="C270" t="inlineStr">
         <is>
@@ -5233,7 +5233,7 @@
         <v>44927</v>
       </c>
       <c r="B271">
-        <v>15030464953</v>
+        <v>15588804883</v>
       </c>
       <c r="C271" t="inlineStr">
         <is>
@@ -5251,7 +5251,7 @@
         <v>44197</v>
       </c>
       <c r="B272">
-        <v>328276644</v>
+        <v>254818176</v>
       </c>
       <c r="C272" t="inlineStr">
         <is>
@@ -5269,7 +5269,7 @@
         <v>44562</v>
       </c>
       <c r="B273">
-        <v>384385636</v>
+        <v>315434991</v>
       </c>
       <c r="C273" t="inlineStr">
         <is>
@@ -5287,7 +5287,7 @@
         <v>44927</v>
       </c>
       <c r="B274">
-        <v>468468662</v>
+        <v>393581298</v>
       </c>
       <c r="C274" t="inlineStr">
         <is>
@@ -5305,7 +5305,7 @@
         <v>44197</v>
       </c>
       <c r="B275">
-        <v>16681898281</v>
+        <v>16621227838</v>
       </c>
       <c r="C275" t="inlineStr">
         <is>
@@ -5323,7 +5323,7 @@
         <v>44562</v>
       </c>
       <c r="B276">
-        <v>17117033553</v>
+        <v>17044510082</v>
       </c>
       <c r="C276" t="inlineStr">
         <is>
@@ -5341,7 +5341,7 @@
         <v>44927</v>
       </c>
       <c r="B277">
-        <v>14979740700</v>
+        <v>14867890819</v>
       </c>
       <c r="C277" t="inlineStr">
         <is>
@@ -5359,7 +5359,7 @@
         <v>44197</v>
       </c>
       <c r="B278">
-        <v>2320941152</v>
+        <v>2313871420</v>
       </c>
       <c r="C278" t="inlineStr">
         <is>
@@ -5377,7 +5377,7 @@
         <v>44562</v>
       </c>
       <c r="B279">
-        <v>2628691490</v>
+        <v>2622410198</v>
       </c>
       <c r="C279" t="inlineStr">
         <is>
@@ -5395,7 +5395,7 @@
         <v>44927</v>
       </c>
       <c r="B280">
-        <v>2324423494</v>
+        <v>2301544515</v>
       </c>
       <c r="C280" t="inlineStr">
         <is>
@@ -5413,7 +5413,7 @@
         <v>44197</v>
       </c>
       <c r="B281">
-        <v>184449644</v>
+        <v>191791855</v>
       </c>
       <c r="C281" t="inlineStr">
         <is>
@@ -5431,7 +5431,7 @@
         <v>44562</v>
       </c>
       <c r="B282">
-        <v>246059254</v>
+        <v>253921602</v>
       </c>
       <c r="C282" t="inlineStr">
         <is>
@@ -5449,7 +5449,7 @@
         <v>44927</v>
       </c>
       <c r="B283">
-        <v>419372737</v>
+        <v>427420467</v>
       </c>
       <c r="C283" t="inlineStr">
         <is>
@@ -5485,7 +5485,7 @@
         <v>44562</v>
       </c>
       <c r="B285">
-        <v>88057187549</v>
+        <v>88057187063</v>
       </c>
       <c r="C285" t="inlineStr">
         <is>
@@ -5503,7 +5503,7 @@
         <v>44927</v>
       </c>
       <c r="B286">
-        <v>66499603583</v>
+        <v>66499603956.00001</v>
       </c>
       <c r="C286" t="inlineStr">
         <is>
@@ -5521,7 +5521,7 @@
         <v>44197</v>
       </c>
       <c r="B287">
-        <v>4036921403</v>
+        <v>4003494734</v>
       </c>
       <c r="C287" t="inlineStr">
         <is>
@@ -5539,7 +5539,7 @@
         <v>44562</v>
       </c>
       <c r="B288">
-        <v>5123050163</v>
+        <v>5041638068</v>
       </c>
       <c r="C288" t="inlineStr">
         <is>
@@ -5557,7 +5557,7 @@
         <v>44927</v>
       </c>
       <c r="B289">
-        <v>4285835894</v>
+        <v>4229166539</v>
       </c>
       <c r="C289" t="inlineStr">
         <is>
@@ -5629,7 +5629,7 @@
         <v>44197</v>
       </c>
       <c r="B293">
-        <v>548761473281.0001</v>
+        <v>550987418483</v>
       </c>
       <c r="C293" t="inlineStr">
         <is>
@@ -5665,7 +5665,7 @@
         <v>44927</v>
       </c>
       <c r="B295">
-        <v>561634609021</v>
+        <v>563935066272</v>
       </c>
       <c r="C295" t="inlineStr">
         <is>
@@ -5791,7 +5791,7 @@
         <v>44197</v>
       </c>
       <c r="B302">
-        <v>264958499465</v>
+        <v>320774840315</v>
       </c>
       <c r="C302" t="inlineStr">
         <is>
@@ -5809,7 +5809,7 @@
         <v>44562</v>
       </c>
       <c r="B303">
-        <v>372744452490</v>
+        <v>452141202324</v>
       </c>
       <c r="C303" t="inlineStr">
         <is>
@@ -5827,7 +5827,7 @@
         <v>44927</v>
       </c>
       <c r="B304">
-        <v>352676759604</v>
+        <v>449757831611</v>
       </c>
       <c r="C304" t="inlineStr">
         <is>
@@ -5881,7 +5881,7 @@
         <v>44927</v>
       </c>
       <c r="B307">
-        <v>82349383647</v>
+        <v>82397763487</v>
       </c>
       <c r="C307" t="inlineStr">
         <is>
@@ -5899,7 +5899,7 @@
         <v>44197</v>
       </c>
       <c r="B308">
-        <v>2239805162</v>
+        <v>2237353620</v>
       </c>
       <c r="C308" t="inlineStr">
         <is>
@@ -5917,7 +5917,7 @@
         <v>44562</v>
       </c>
       <c r="B309">
-        <v>3059353835</v>
+        <v>3057269877</v>
       </c>
       <c r="C309" t="inlineStr">
         <is>
@@ -5935,7 +5935,7 @@
         <v>44927</v>
       </c>
       <c r="B310">
-        <v>3604461983</v>
+        <v>3605646898</v>
       </c>
       <c r="C310" t="inlineStr">
         <is>
@@ -5953,7 +5953,7 @@
         <v>44197</v>
       </c>
       <c r="B311">
-        <v>47568497</v>
+        <v>52197175</v>
       </c>
       <c r="C311" t="inlineStr">
         <is>
@@ -5971,7 +5971,7 @@
         <v>44562</v>
       </c>
       <c r="B312">
-        <v>43874593</v>
+        <v>45205119</v>
       </c>
       <c r="C312" t="inlineStr">
         <is>
@@ -5989,7 +5989,7 @@
         <v>44927</v>
       </c>
       <c r="B313">
-        <v>50602322</v>
+        <v>52219597</v>
       </c>
       <c r="C313" t="inlineStr">
         <is>
@@ -6043,7 +6043,7 @@
         <v>44927</v>
       </c>
       <c r="B316">
-        <v>209537557307</v>
+        <v>209134688280</v>
       </c>
       <c r="C316" t="inlineStr">
         <is>
@@ -6133,7 +6133,7 @@
         <v>44562</v>
       </c>
       <c r="B321">
-        <v>18561200681</v>
+        <v>18561199539</v>
       </c>
       <c r="C321" t="inlineStr">
         <is>
@@ -6151,7 +6151,7 @@
         <v>44927</v>
       </c>
       <c r="B322">
-        <v>20296976073</v>
+        <v>20316853408</v>
       </c>
       <c r="C322" t="inlineStr">
         <is>
@@ -6169,7 +6169,7 @@
         <v>44197</v>
       </c>
       <c r="B323">
-        <v>1591351831</v>
+        <v>1582762168</v>
       </c>
       <c r="C323" t="inlineStr">
         <is>
@@ -6187,7 +6187,7 @@
         <v>44562</v>
       </c>
       <c r="B324">
-        <v>2195692884</v>
+        <v>2183929980</v>
       </c>
       <c r="C324" t="inlineStr">
         <is>
@@ -6205,7 +6205,7 @@
         <v>44927</v>
       </c>
       <c r="B325">
-        <v>2384261013</v>
+        <v>2369765579</v>
       </c>
       <c r="C325" t="inlineStr">
         <is>
@@ -6259,7 +6259,7 @@
         <v>44927</v>
       </c>
       <c r="B328">
-        <v>423491835477</v>
+        <v>423688059487</v>
       </c>
       <c r="C328" t="inlineStr">
         <is>
@@ -6277,7 +6277,7 @@
         <v>44197</v>
       </c>
       <c r="B329">
-        <v>2395335783</v>
+        <v>2389639276</v>
       </c>
       <c r="C329" t="inlineStr">
         <is>
@@ -6295,7 +6295,7 @@
         <v>44562</v>
       </c>
       <c r="B330">
-        <v>3552197634</v>
+        <v>3526496125</v>
       </c>
       <c r="C330" t="inlineStr">
         <is>
@@ -6313,7 +6313,7 @@
         <v>44927</v>
       </c>
       <c r="B331">
-        <v>4595138934</v>
+        <v>4576933688</v>
       </c>
       <c r="C331" t="inlineStr">
         <is>
@@ -6385,7 +6385,7 @@
         <v>44197</v>
       </c>
       <c r="B335">
-        <v>28681421753</v>
+        <v>28681421745</v>
       </c>
       <c r="C335" t="inlineStr">
         <is>
@@ -6403,7 +6403,7 @@
         <v>44562</v>
       </c>
       <c r="B336">
-        <v>30872794259</v>
+        <v>30872794304</v>
       </c>
       <c r="C336" t="inlineStr">
         <is>
@@ -6421,7 +6421,7 @@
         <v>44927</v>
       </c>
       <c r="B337">
-        <v>27924057500</v>
+        <v>27610122361</v>
       </c>
       <c r="C337" t="inlineStr">
         <is>
@@ -6439,7 +6439,7 @@
         <v>44197</v>
       </c>
       <c r="B338">
-        <v>611797549</v>
+        <v>610469805</v>
       </c>
       <c r="C338" t="inlineStr">
         <is>
@@ -6457,7 +6457,7 @@
         <v>44562</v>
       </c>
       <c r="B339">
-        <v>727027215</v>
+        <v>724236312</v>
       </c>
       <c r="C339" t="inlineStr">
         <is>
@@ -6475,7 +6475,7 @@
         <v>44927</v>
       </c>
       <c r="B340">
-        <v>717299817</v>
+        <v>713765497</v>
       </c>
       <c r="C340" t="inlineStr">
         <is>
@@ -6493,7 +6493,7 @@
         <v>44197</v>
       </c>
       <c r="B341">
-        <v>2281090690</v>
+        <v>2241860127</v>
       </c>
       <c r="C341" t="inlineStr">
         <is>
@@ -6511,7 +6511,7 @@
         <v>44562</v>
       </c>
       <c r="B342">
-        <v>2485786819</v>
+        <v>2436067414</v>
       </c>
       <c r="C342" t="inlineStr">
         <is>
@@ -6529,7 +6529,7 @@
         <v>44927</v>
       </c>
       <c r="B343">
-        <v>2127922201</v>
+        <v>2084090977</v>
       </c>
       <c r="C343" t="inlineStr">
         <is>
@@ -6547,7 +6547,7 @@
         <v>44197</v>
       </c>
       <c r="B344">
-        <v>37931092</v>
+        <v>37913643</v>
       </c>
       <c r="C344" t="inlineStr">
         <is>
@@ -6565,7 +6565,7 @@
         <v>44562</v>
       </c>
       <c r="B345">
-        <v>55292790</v>
+        <v>55210840</v>
       </c>
       <c r="C345" t="inlineStr">
         <is>
@@ -6583,7 +6583,7 @@
         <v>44927</v>
       </c>
       <c r="B346">
-        <v>53714561</v>
+        <v>53414137</v>
       </c>
       <c r="C346" t="inlineStr">
         <is>
@@ -6637,7 +6637,7 @@
         <v>44927</v>
       </c>
       <c r="B349">
-        <v>3652750554</v>
+        <v>3813740483</v>
       </c>
       <c r="C349" t="inlineStr">
         <is>
@@ -6655,7 +6655,7 @@
         <v>44197</v>
       </c>
       <c r="B350">
-        <v>9446754292</v>
+        <v>9446758953</v>
       </c>
       <c r="C350" t="inlineStr">
         <is>
@@ -6673,7 +6673,7 @@
         <v>44562</v>
       </c>
       <c r="B351">
-        <v>13526569088</v>
+        <v>13526570167</v>
       </c>
       <c r="C351" t="inlineStr">
         <is>
@@ -6745,7 +6745,7 @@
         <v>44927</v>
       </c>
       <c r="B355">
-        <v>41830256416</v>
+        <v>41769981215</v>
       </c>
       <c r="C355" t="inlineStr">
         <is>
@@ -6817,7 +6817,7 @@
         <v>44197</v>
       </c>
       <c r="B359">
-        <v>58366411</v>
+        <v>58366406</v>
       </c>
       <c r="C359" t="inlineStr">
         <is>
@@ -6835,7 +6835,7 @@
         <v>44562</v>
       </c>
       <c r="B360">
-        <v>75335959</v>
+        <v>69281689</v>
       </c>
       <c r="C360" t="inlineStr">
         <is>
@@ -6853,7 +6853,7 @@
         <v>44927</v>
       </c>
       <c r="B361">
-        <v>41810167</v>
+        <v>41835620</v>
       </c>
       <c r="C361" t="inlineStr">
         <is>
@@ -6871,7 +6871,7 @@
         <v>44197</v>
       </c>
       <c r="B362">
-        <v>81081241</v>
+        <v>81208882</v>
       </c>
       <c r="C362" t="inlineStr">
         <is>
@@ -6889,7 +6889,7 @@
         <v>44562</v>
       </c>
       <c r="B363">
-        <v>105954231</v>
+        <v>106318758</v>
       </c>
       <c r="C363" t="inlineStr">
         <is>
@@ -6907,7 +6907,7 @@
         <v>44927</v>
       </c>
       <c r="B364">
-        <v>407751650</v>
+        <v>407940754</v>
       </c>
       <c r="C364" t="inlineStr">
         <is>
@@ -6979,7 +6979,7 @@
         <v>44197</v>
       </c>
       <c r="B368">
-        <v>1658948412</v>
+        <v>1658948425</v>
       </c>
       <c r="C368" t="inlineStr">
         <is>
@@ -6997,7 +6997,7 @@
         <v>44562</v>
       </c>
       <c r="B369">
-        <v>2186695027</v>
+        <v>2186695032</v>
       </c>
       <c r="C369" t="inlineStr">
         <is>
@@ -7015,7 +7015,7 @@
         <v>44927</v>
       </c>
       <c r="B370">
-        <v>5132807044</v>
+        <v>5143219615</v>
       </c>
       <c r="C370" t="inlineStr">
         <is>
@@ -7033,7 +7033,7 @@
         <v>44197</v>
       </c>
       <c r="B371">
-        <v>4410171049</v>
+        <v>4409827265</v>
       </c>
       <c r="C371" t="inlineStr">
         <is>
@@ -7051,7 +7051,7 @@
         <v>44562</v>
       </c>
       <c r="B372">
-        <v>6300509968</v>
+        <v>6284538070</v>
       </c>
       <c r="C372" t="inlineStr">
         <is>
@@ -7069,7 +7069,7 @@
         <v>44927</v>
       </c>
       <c r="B373">
-        <v>4528300638</v>
+        <v>4478196252</v>
       </c>
       <c r="C373" t="inlineStr">
         <is>
@@ -7123,7 +7123,7 @@
         <v>44927</v>
       </c>
       <c r="B376">
-        <v>16543782837</v>
+        <v>16268766860</v>
       </c>
       <c r="C376" t="inlineStr">
         <is>
@@ -7141,7 +7141,7 @@
         <v>44197</v>
       </c>
       <c r="B377">
-        <v>1070646770</v>
+        <v>1070646773</v>
       </c>
       <c r="C377" t="inlineStr">
         <is>
@@ -7159,7 +7159,7 @@
         <v>44562</v>
       </c>
       <c r="B378">
-        <v>1394722179</v>
+        <v>1394722170</v>
       </c>
       <c r="C378" t="inlineStr">
         <is>
@@ -7177,7 +7177,7 @@
         <v>44927</v>
       </c>
       <c r="B379">
-        <v>1007492246</v>
+        <v>851433511</v>
       </c>
       <c r="C379" t="inlineStr">
         <is>
@@ -7195,7 +7195,7 @@
         <v>44197</v>
       </c>
       <c r="B380">
-        <v>264005693</v>
+        <v>264005694</v>
       </c>
       <c r="C380" t="inlineStr">
         <is>
@@ -7231,7 +7231,7 @@
         <v>44927</v>
       </c>
       <c r="B382">
-        <v>253373397</v>
+        <v>253373396</v>
       </c>
       <c r="C382" t="inlineStr">
         <is>
@@ -7339,7 +7339,7 @@
         <v>44927</v>
       </c>
       <c r="B388">
-        <v>5609846163</v>
+        <v>5619887012</v>
       </c>
       <c r="C388" t="inlineStr">
         <is>
@@ -7393,7 +7393,7 @@
         <v>44927</v>
       </c>
       <c r="B391">
-        <v>11055547553</v>
+        <v>11052217143</v>
       </c>
       <c r="C391" t="inlineStr">
         <is>
@@ -7411,7 +7411,7 @@
         <v>44197</v>
       </c>
       <c r="B392">
-        <v>63275324809</v>
+        <v>63250230740</v>
       </c>
       <c r="C392" t="inlineStr">
         <is>
@@ -7429,7 +7429,7 @@
         <v>44562</v>
       </c>
       <c r="B393">
-        <v>66366049409</v>
+        <v>66331523376</v>
       </c>
       <c r="C393" t="inlineStr">
         <is>
@@ -7447,7 +7447,7 @@
         <v>44927</v>
       </c>
       <c r="B394">
-        <v>65899203712.99999</v>
+        <v>66714705057</v>
       </c>
       <c r="C394" t="inlineStr">
         <is>
@@ -7465,7 +7465,7 @@
         <v>44197</v>
       </c>
       <c r="B395">
-        <v>20836002</v>
+        <v>20833687</v>
       </c>
       <c r="C395" t="inlineStr">
         <is>
@@ -7483,7 +7483,7 @@
         <v>44562</v>
       </c>
       <c r="B396">
-        <v>18514845</v>
+        <v>18512148</v>
       </c>
       <c r="C396" t="inlineStr">
         <is>
@@ -7501,7 +7501,7 @@
         <v>44927</v>
       </c>
       <c r="B397">
-        <v>94474645</v>
+        <v>94470500</v>
       </c>
       <c r="C397" t="inlineStr">
         <is>
@@ -7555,7 +7555,7 @@
         <v>44927</v>
       </c>
       <c r="B400">
-        <v>4043306371</v>
+        <v>4043483965</v>
       </c>
       <c r="C400" t="inlineStr">
         <is>
@@ -7717,7 +7717,7 @@
         <v>44927</v>
       </c>
       <c r="B409">
-        <v>327042885227</v>
+        <v>325103881519</v>
       </c>
       <c r="C409" t="inlineStr">
         <is>
@@ -7771,7 +7771,7 @@
         <v>44927</v>
       </c>
       <c r="B412">
-        <v>136496804877</v>
+        <v>136368265757</v>
       </c>
       <c r="C412" t="inlineStr">
         <is>
@@ -7789,7 +7789,7 @@
         <v>44197</v>
       </c>
       <c r="B413">
-        <v>22087029260720</v>
+        <v>22207922155850</v>
       </c>
       <c r="C413" t="inlineStr">
         <is>
@@ -7807,7 +7807,7 @@
         <v>44562</v>
       </c>
       <c r="B414">
-        <v>24697154544948</v>
+        <v>24843442563161</v>
       </c>
       <c r="C414" t="inlineStr">
         <is>
@@ -7825,7 +7825,7 @@
         <v>44927</v>
       </c>
       <c r="B415">
-        <v>23476325992443</v>
+        <v>23676415224081</v>
       </c>
       <c r="C415" t="inlineStr">
         <is>
@@ -7879,7 +7879,7 @@
         <v>44927</v>
       </c>
       <c r="B418">
-        <v>354398784947</v>
+        <v>344471591434</v>
       </c>
       <c r="C418" t="inlineStr">
         <is>
@@ -7933,7 +7933,7 @@
         <v>44927</v>
       </c>
       <c r="B421">
-        <v>3457201925</v>
+        <v>3439508491</v>
       </c>
       <c r="C421" t="inlineStr">
         <is>
@@ -7969,7 +7969,7 @@
         <v>44562</v>
       </c>
       <c r="B423">
-        <v>327456259666</v>
+        <v>320219206340</v>
       </c>
       <c r="C423" t="inlineStr">
         <is>
@@ -7987,7 +7987,7 @@
         <v>44927</v>
       </c>
       <c r="B424">
-        <v>267367273322</v>
+        <v>260126397066</v>
       </c>
       <c r="C424" t="inlineStr">
         <is>
@@ -8005,7 +8005,7 @@
         <v>44197</v>
       </c>
       <c r="B425">
-        <v>21152647</v>
+        <v>21153343</v>
       </c>
       <c r="C425" t="inlineStr">
         <is>
@@ -8023,7 +8023,7 @@
         <v>44562</v>
       </c>
       <c r="B426">
-        <v>20304425</v>
+        <v>20303129</v>
       </c>
       <c r="C426" t="inlineStr">
         <is>
@@ -8041,7 +8041,7 @@
         <v>44927</v>
       </c>
       <c r="B427">
-        <v>26481644</v>
+        <v>19534261</v>
       </c>
       <c r="C427" t="inlineStr">
         <is>
@@ -8113,7 +8113,7 @@
         <v>44197</v>
       </c>
       <c r="B431">
-        <v>1272515231</v>
+        <v>1269903147</v>
       </c>
       <c r="C431" t="inlineStr">
         <is>
@@ -8131,7 +8131,7 @@
         <v>44562</v>
       </c>
       <c r="B432">
-        <v>1201832486</v>
+        <v>1198145635</v>
       </c>
       <c r="C432" t="inlineStr">
         <is>
@@ -8149,7 +8149,7 @@
         <v>44927</v>
       </c>
       <c r="B433">
-        <v>952585423</v>
+        <v>949781167</v>
       </c>
       <c r="C433" t="inlineStr">
         <is>
@@ -8275,7 +8275,7 @@
         <v>44197</v>
       </c>
       <c r="B440">
-        <v>6643895604164</v>
+        <v>6646121549366</v>
       </c>
       <c r="C440" t="inlineStr">
         <is>
@@ -8293,7 +8293,7 @@
         <v>44562</v>
       </c>
       <c r="B441">
-        <v>7162058707722</v>
+        <v>7162537293945</v>
       </c>
       <c r="C441" t="inlineStr">
         <is>
@@ -8311,7 +8311,7 @@
         <v>44927</v>
       </c>
       <c r="B442">
-        <v>7191795041936</v>
+        <v>7224195036929</v>
       </c>
       <c r="C442" t="inlineStr">
         <is>
@@ -8329,7 +8329,7 @@
         <v>44197</v>
       </c>
       <c r="B443">
-        <v>2436150051</v>
+        <v>2873866198</v>
       </c>
       <c r="C443" t="inlineStr">
         <is>
@@ -8347,7 +8347,7 @@
         <v>44562</v>
       </c>
       <c r="B444">
-        <v>4092360261</v>
+        <v>4575484174</v>
       </c>
       <c r="C444" t="inlineStr">
         <is>
@@ -8365,7 +8365,7 @@
         <v>44927</v>
       </c>
       <c r="B445">
-        <v>3847088649</v>
+        <v>4334604825</v>
       </c>
       <c r="C445" t="inlineStr">
         <is>
@@ -8419,7 +8419,7 @@
         <v>44927</v>
       </c>
       <c r="B448">
-        <v>57359740498</v>
+        <v>57281481386</v>
       </c>
       <c r="C448" t="inlineStr">
         <is>
@@ -8437,7 +8437,7 @@
         <v>44197</v>
       </c>
       <c r="B449">
-        <v>4763362957</v>
+        <v>4770934064</v>
       </c>
       <c r="C449" t="inlineStr">
         <is>
@@ -8455,7 +8455,7 @@
         <v>44562</v>
       </c>
       <c r="B450">
-        <v>7414855328</v>
+        <v>7558638931</v>
       </c>
       <c r="C450" t="inlineStr">
         <is>
@@ -8473,7 +8473,7 @@
         <v>44927</v>
       </c>
       <c r="B451">
-        <v>4718772847</v>
+        <v>4872907426</v>
       </c>
       <c r="C451" t="inlineStr">
         <is>
@@ -8581,7 +8581,7 @@
         <v>44927</v>
       </c>
       <c r="B457">
-        <v>10539053992</v>
+        <v>10533263646</v>
       </c>
       <c r="C457" t="inlineStr">
         <is>
@@ -8635,7 +8635,7 @@
         <v>44927</v>
       </c>
       <c r="B460">
-        <v>6475482431</v>
+        <v>6498134869</v>
       </c>
       <c r="C460" t="inlineStr">
         <is>
@@ -8653,7 +8653,7 @@
         <v>44197</v>
       </c>
       <c r="B461">
-        <v>766225463</v>
+        <v>766277193</v>
       </c>
       <c r="C461" t="inlineStr">
         <is>
@@ -8671,7 +8671,7 @@
         <v>44562</v>
       </c>
       <c r="B462">
-        <v>436276617</v>
+        <v>433456940</v>
       </c>
       <c r="C462" t="inlineStr">
         <is>
@@ -8689,7 +8689,7 @@
         <v>44927</v>
       </c>
       <c r="B463">
-        <v>456036533</v>
+        <v>434760053</v>
       </c>
       <c r="C463" t="inlineStr">
         <is>
@@ -8761,7 +8761,7 @@
         <v>44197</v>
       </c>
       <c r="B467">
-        <v>6430620929</v>
+        <v>6429939133</v>
       </c>
       <c r="C467" t="inlineStr">
         <is>
@@ -8779,7 +8779,7 @@
         <v>44562</v>
       </c>
       <c r="B468">
-        <v>6900497731</v>
+        <v>6899439887</v>
       </c>
       <c r="C468" t="inlineStr">
         <is>
@@ -8797,7 +8797,7 @@
         <v>44927</v>
       </c>
       <c r="B469">
-        <v>8209696855</v>
+        <v>8414486481</v>
       </c>
       <c r="C469" t="inlineStr">
         <is>
@@ -8815,7 +8815,7 @@
         <v>44197</v>
       </c>
       <c r="B470">
-        <v>1815134198</v>
+        <v>1807234797</v>
       </c>
       <c r="C470" t="inlineStr">
         <is>
@@ -8833,7 +8833,7 @@
         <v>44562</v>
       </c>
       <c r="B471">
-        <v>1646571583</v>
+        <v>1646528712</v>
       </c>
       <c r="C471" t="inlineStr">
         <is>
@@ -8851,7 +8851,7 @@
         <v>44927</v>
       </c>
       <c r="B472">
-        <v>1629274538</v>
+        <v>1629279987</v>
       </c>
       <c r="C472" t="inlineStr">
         <is>
@@ -8905,7 +8905,7 @@
         <v>44927</v>
       </c>
       <c r="B475">
-        <v>83792113712</v>
+        <v>83850294938</v>
       </c>
       <c r="C475" t="inlineStr">
         <is>
@@ -8959,7 +8959,7 @@
         <v>44927</v>
       </c>
       <c r="B478">
-        <v>22594384399</v>
+        <v>22626192631</v>
       </c>
       <c r="C478" t="inlineStr">
         <is>
@@ -8977,7 +8977,7 @@
         <v>44197</v>
       </c>
       <c r="B479">
-        <v>5109127833</v>
+        <v>5111314661</v>
       </c>
       <c r="C479" t="inlineStr">
         <is>
@@ -8995,7 +8995,7 @@
         <v>44562</v>
       </c>
       <c r="B480">
-        <v>5105342775</v>
+        <v>5103516704</v>
       </c>
       <c r="C480" t="inlineStr">
         <is>
@@ -9013,7 +9013,7 @@
         <v>44927</v>
       </c>
       <c r="B481">
-        <v>4022524255</v>
+        <v>3998247865</v>
       </c>
       <c r="C481" t="inlineStr">
         <is>
@@ -9031,7 +9031,7 @@
         <v>44197</v>
       </c>
       <c r="B482">
-        <v>1747066950</v>
+        <v>1747066944</v>
       </c>
       <c r="C482" t="inlineStr">
         <is>
@@ -9049,7 +9049,7 @@
         <v>44562</v>
       </c>
       <c r="B483">
-        <v>2231622495</v>
+        <v>2029362745</v>
       </c>
       <c r="C483" t="inlineStr">
         <is>
@@ -9067,7 +9067,7 @@
         <v>44927</v>
       </c>
       <c r="B484">
-        <v>1730888489</v>
+        <v>1829692651</v>
       </c>
       <c r="C484" t="inlineStr">
         <is>
@@ -9157,7 +9157,7 @@
         <v>44562</v>
       </c>
       <c r="B489">
-        <v>584456126942</v>
+        <v>584456190584</v>
       </c>
       <c r="C489" t="inlineStr">
         <is>
@@ -9175,7 +9175,7 @@
         <v>44927</v>
       </c>
       <c r="B490">
-        <v>416153227564</v>
+        <v>418464718405</v>
       </c>
       <c r="C490" t="inlineStr">
         <is>
@@ -9193,7 +9193,7 @@
         <v>44197</v>
       </c>
       <c r="B491">
-        <v>718333395956</v>
+        <v>718328420178</v>
       </c>
       <c r="C491" t="inlineStr">
         <is>
@@ -9211,7 +9211,7 @@
         <v>44562</v>
       </c>
       <c r="B492">
-        <v>834865798058</v>
+        <v>834672331185</v>
       </c>
       <c r="C492" t="inlineStr">
         <is>
@@ -9229,7 +9229,7 @@
         <v>44927</v>
       </c>
       <c r="B493">
-        <v>652549850617</v>
+        <v>654798348875</v>
       </c>
       <c r="C493" t="inlineStr">
         <is>
@@ -9247,7 +9247,7 @@
         <v>44197</v>
       </c>
       <c r="B494">
-        <v>16243727</v>
+        <v>16285079</v>
       </c>
       <c r="C494" t="inlineStr">
         <is>
@@ -9265,7 +9265,7 @@
         <v>44562</v>
       </c>
       <c r="B495">
-        <v>15129215</v>
+        <v>15267173</v>
       </c>
       <c r="C495" t="inlineStr">
         <is>
@@ -9283,7 +9283,7 @@
         <v>44927</v>
       </c>
       <c r="B496">
-        <v>62858852</v>
+        <v>63258007</v>
       </c>
       <c r="C496" t="inlineStr">
         <is>
@@ -9301,7 +9301,7 @@
         <v>44197</v>
       </c>
       <c r="B497">
-        <v>19436401530</v>
+        <v>19436558549</v>
       </c>
       <c r="C497" t="inlineStr">
         <is>
@@ -9319,7 +9319,7 @@
         <v>44562</v>
       </c>
       <c r="B498">
-        <v>20857264165</v>
+        <v>20857500604</v>
       </c>
       <c r="C498" t="inlineStr">
         <is>
@@ -9337,7 +9337,7 @@
         <v>44927</v>
       </c>
       <c r="B499">
-        <v>25293859062</v>
+        <v>24570680724</v>
       </c>
       <c r="C499" t="inlineStr">
         <is>
@@ -9355,7 +9355,7 @@
         <v>44197</v>
       </c>
       <c r="B500">
-        <v>12727766545716</v>
+        <v>12793744456456</v>
       </c>
       <c r="C500" t="inlineStr">
         <is>
@@ -9373,7 +9373,7 @@
         <v>44562</v>
       </c>
       <c r="B501">
-        <v>13939313014175</v>
+        <v>14014472165431</v>
       </c>
       <c r="C501" t="inlineStr">
         <is>
@@ -9391,7 +9391,7 @@
         <v>44927</v>
       </c>
       <c r="B502">
-        <v>13472443739395</v>
+        <v>13589433251317</v>
       </c>
       <c r="C502" t="inlineStr">
         <is>
@@ -9409,7 +9409,7 @@
         <v>44197</v>
       </c>
       <c r="B503">
-        <v>957562446</v>
+        <v>889592107</v>
       </c>
       <c r="C503" t="inlineStr">
         <is>
@@ -9427,7 +9427,7 @@
         <v>44562</v>
       </c>
       <c r="B504">
-        <v>1001780038</v>
+        <v>923349598</v>
       </c>
       <c r="C504" t="inlineStr">
         <is>
@@ -9445,7 +9445,7 @@
         <v>44927</v>
       </c>
       <c r="B505">
-        <v>1073432315</v>
+        <v>1006579255</v>
       </c>
       <c r="C505" t="inlineStr">
         <is>
@@ -9499,7 +9499,7 @@
         <v>44927</v>
       </c>
       <c r="B508">
-        <v>4453070814</v>
+        <v>4978430194</v>
       </c>
       <c r="C508" t="inlineStr">
         <is>
@@ -9517,7 +9517,7 @@
         <v>44197</v>
       </c>
       <c r="B509">
-        <v>374303328</v>
+        <v>368146490</v>
       </c>
       <c r="C509" t="inlineStr">
         <is>
@@ -9535,7 +9535,7 @@
         <v>44562</v>
       </c>
       <c r="B510">
-        <v>405454208</v>
+        <v>397139943</v>
       </c>
       <c r="C510" t="inlineStr">
         <is>
@@ -9553,7 +9553,7 @@
         <v>44927</v>
       </c>
       <c r="B511">
-        <v>412822907</v>
+        <v>402125822</v>
       </c>
       <c r="C511" t="inlineStr">
         <is>
@@ -9733,7 +9733,7 @@
         <v>44197</v>
       </c>
       <c r="B521">
-        <v>379401552387</v>
+        <v>379401552382</v>
       </c>
       <c r="C521" t="inlineStr">
         <is>
@@ -9769,7 +9769,7 @@
         <v>44927</v>
       </c>
       <c r="B523">
-        <v>419995171639</v>
+        <v>420098038645</v>
       </c>
       <c r="C523" t="inlineStr">
         <is>
@@ -9787,7 +9787,7 @@
         <v>44197</v>
       </c>
       <c r="B524">
-        <v>30971450725</v>
+        <v>30971451829</v>
       </c>
       <c r="C524" t="inlineStr">
         <is>
@@ -9805,7 +9805,7 @@
         <v>44562</v>
       </c>
       <c r="B525">
-        <v>38215391553</v>
+        <v>38215402597</v>
       </c>
       <c r="C525" t="inlineStr">
         <is>
@@ -9823,7 +9823,7 @@
         <v>44927</v>
       </c>
       <c r="B526">
-        <v>25133577687</v>
+        <v>25095331233</v>
       </c>
       <c r="C526" t="inlineStr">
         <is>
@@ -9931,7 +9931,7 @@
         <v>44927</v>
       </c>
       <c r="B532">
-        <v>117289832866</v>
+        <v>117288161530</v>
       </c>
       <c r="C532" t="inlineStr">
         <is>
@@ -9949,7 +9949,7 @@
         <v>44197</v>
       </c>
       <c r="B533">
-        <v>9537248056</v>
+        <v>9537248057</v>
       </c>
       <c r="C533" t="inlineStr">
         <is>
@@ -9967,7 +9967,7 @@
         <v>44562</v>
       </c>
       <c r="B534">
-        <v>11187261351</v>
+        <v>11187261350</v>
       </c>
       <c r="C534" t="inlineStr">
         <is>
@@ -9985,7 +9985,7 @@
         <v>44927</v>
       </c>
       <c r="B535">
-        <v>9105547781</v>
+        <v>9095212878</v>
       </c>
       <c r="C535" t="inlineStr">
         <is>
@@ -10021,7 +10021,7 @@
         <v>44562</v>
       </c>
       <c r="B537">
-        <v>29056978993</v>
+        <v>29056978982</v>
       </c>
       <c r="C537" t="inlineStr">
         <is>
@@ -10039,7 +10039,7 @@
         <v>44927</v>
       </c>
       <c r="B538">
-        <v>30902139849</v>
+        <v>30902140046</v>
       </c>
       <c r="C538" t="inlineStr">
         <is>
@@ -10057,7 +10057,7 @@
         <v>44197</v>
       </c>
       <c r="B539">
-        <v>1059930725</v>
+        <v>1050756832</v>
       </c>
       <c r="C539" t="inlineStr">
         <is>
@@ -10075,7 +10075,7 @@
         <v>44562</v>
       </c>
       <c r="B540">
-        <v>957731432</v>
+        <v>947116612</v>
       </c>
       <c r="C540" t="inlineStr">
         <is>
@@ -10093,7 +10093,7 @@
         <v>44927</v>
       </c>
       <c r="B541">
-        <v>947478933</v>
+        <v>938139889</v>
       </c>
       <c r="C541" t="inlineStr">
         <is>
@@ -10111,7 +10111,7 @@
         <v>44197</v>
       </c>
       <c r="B542">
-        <v>1210145963379</v>
+        <v>1211082012713</v>
       </c>
       <c r="C542" t="inlineStr">
         <is>
@@ -10129,7 +10129,7 @@
         <v>44562</v>
       </c>
       <c r="B543">
-        <v>1411123549343</v>
+        <v>1412470864395</v>
       </c>
       <c r="C543" t="inlineStr">
         <is>
@@ -10147,7 +10147,7 @@
         <v>44927</v>
       </c>
       <c r="B544">
-        <v>1390626484063</v>
+        <v>1392333249427</v>
       </c>
       <c r="C544" t="inlineStr">
         <is>
@@ -10165,7 +10165,7 @@
         <v>44197</v>
       </c>
       <c r="B545">
-        <v>160899024</v>
+        <v>159245181</v>
       </c>
       <c r="C545" t="inlineStr">
         <is>
@@ -10183,7 +10183,7 @@
         <v>44562</v>
       </c>
       <c r="B546">
-        <v>109576517</v>
+        <v>108547153</v>
       </c>
       <c r="C546" t="inlineStr">
         <is>
@@ -10201,7 +10201,7 @@
         <v>44927</v>
       </c>
       <c r="B547">
-        <v>102189989</v>
+        <v>101006805</v>
       </c>
       <c r="C547" t="inlineStr">
         <is>
@@ -10255,7 +10255,7 @@
         <v>44927</v>
       </c>
       <c r="B550">
-        <v>87868931067</v>
+        <v>93940115035</v>
       </c>
       <c r="C550" t="inlineStr">
         <is>
@@ -10309,7 +10309,7 @@
         <v>44927</v>
       </c>
       <c r="B553">
-        <v>19729787775</v>
+        <v>19691818318</v>
       </c>
       <c r="C553" t="inlineStr">
         <is>
@@ -10327,7 +10327,7 @@
         <v>44197</v>
       </c>
       <c r="B554">
-        <v>1486312592384</v>
+        <v>1486305272151</v>
       </c>
       <c r="C554" t="inlineStr">
         <is>
@@ -10345,7 +10345,7 @@
         <v>44562</v>
       </c>
       <c r="B555">
-        <v>1636432073136</v>
+        <v>1636235464543</v>
       </c>
       <c r="C555" t="inlineStr">
         <is>
@@ -10363,7 +10363,7 @@
         <v>44927</v>
       </c>
       <c r="B556">
-        <v>1485739212903</v>
+        <v>1487584074347</v>
       </c>
       <c r="C556" t="inlineStr">
         <is>
@@ -10417,7 +10417,7 @@
         <v>44927</v>
       </c>
       <c r="B559">
-        <v>2420821205</v>
+        <v>2452208574</v>
       </c>
       <c r="C559" t="inlineStr">
         <is>
@@ -10435,7 +10435,7 @@
         <v>44197</v>
       </c>
       <c r="B560">
-        <v>7329425159</v>
+        <v>7297198460</v>
       </c>
       <c r="C560" t="inlineStr">
         <is>
@@ -10453,7 +10453,7 @@
         <v>44562</v>
       </c>
       <c r="B561">
-        <v>7270161406</v>
+        <v>7264569224</v>
       </c>
       <c r="C561" t="inlineStr">
         <is>
@@ -10471,7 +10471,7 @@
         <v>44927</v>
       </c>
       <c r="B562">
-        <v>7431702848</v>
+        <v>7408978620</v>
       </c>
       <c r="C562" t="inlineStr">
         <is>
@@ -10543,7 +10543,7 @@
         <v>44197</v>
       </c>
       <c r="B566">
-        <v>60083758</v>
+        <v>60086179</v>
       </c>
       <c r="C566" t="inlineStr">
         <is>
@@ -10561,7 +10561,7 @@
         <v>44562</v>
       </c>
       <c r="B567">
-        <v>118084397</v>
+        <v>118084369</v>
       </c>
       <c r="C567" t="inlineStr">
         <is>
@@ -10579,7 +10579,7 @@
         <v>44927</v>
       </c>
       <c r="B568">
-        <v>129891814</v>
+        <v>128889186</v>
       </c>
       <c r="C568" t="inlineStr">
         <is>
@@ -10597,7 +10597,7 @@
         <v>44197</v>
       </c>
       <c r="B569">
-        <v>3941067960</v>
+        <v>3870832600</v>
       </c>
       <c r="C569" t="inlineStr">
         <is>
@@ -10615,7 +10615,7 @@
         <v>44562</v>
       </c>
       <c r="B570">
-        <v>3786345804</v>
+        <v>3768371269</v>
       </c>
       <c r="C570" t="inlineStr">
         <is>
@@ -10633,7 +10633,7 @@
         <v>44927</v>
       </c>
       <c r="B571">
-        <v>3365794471</v>
+        <v>3900943190</v>
       </c>
       <c r="C571" t="inlineStr">
         <is>
@@ -10687,7 +10687,7 @@
         <v>44927</v>
       </c>
       <c r="B574">
-        <v>255840695633</v>
+        <v>255767287932</v>
       </c>
       <c r="C574" t="inlineStr">
         <is>
@@ -10705,7 +10705,7 @@
         <v>44197</v>
       </c>
       <c r="B575">
-        <v>1477473023</v>
+        <v>1477475042</v>
       </c>
       <c r="C575" t="inlineStr">
         <is>
@@ -10723,7 +10723,7 @@
         <v>44562</v>
       </c>
       <c r="B576">
-        <v>1672259317</v>
+        <v>1672261791</v>
       </c>
       <c r="C576" t="inlineStr">
         <is>
@@ -10741,7 +10741,7 @@
         <v>44927</v>
       </c>
       <c r="B577">
-        <v>1346507974</v>
+        <v>1347955228</v>
       </c>
       <c r="C577" t="inlineStr">
         <is>
@@ -10795,7 +10795,7 @@
         <v>44927</v>
       </c>
       <c r="B580">
-        <v>11708467061</v>
+        <v>11699416187</v>
       </c>
       <c r="C580" t="inlineStr">
         <is>
@@ -10831,7 +10831,7 @@
         <v>44562</v>
       </c>
       <c r="B582">
-        <v>5025999</v>
+        <v>5026000</v>
       </c>
       <c r="C582" t="inlineStr">
         <is>
@@ -10849,7 +10849,7 @@
         <v>44927</v>
       </c>
       <c r="B583">
-        <v>4450091</v>
+        <v>4464028</v>
       </c>
       <c r="C583" t="inlineStr">
         <is>
@@ -10867,7 +10867,7 @@
         <v>44197</v>
       </c>
       <c r="B584">
-        <v>61002374</v>
+        <v>60711075</v>
       </c>
       <c r="C584" t="inlineStr">
         <is>
@@ -10885,7 +10885,7 @@
         <v>44562</v>
       </c>
       <c r="B585">
-        <v>38784037</v>
+        <v>38735177</v>
       </c>
       <c r="C585" t="inlineStr">
         <is>
@@ -10903,7 +10903,7 @@
         <v>44927</v>
       </c>
       <c r="B586">
-        <v>97941999</v>
+        <v>98030767</v>
       </c>
       <c r="C586" t="inlineStr">
         <is>
@@ -11011,7 +11011,7 @@
         <v>44927</v>
       </c>
       <c r="B592">
-        <v>39282456699</v>
+        <v>39381161336</v>
       </c>
       <c r="C592" t="inlineStr">
         <is>
@@ -11029,7 +11029,7 @@
         <v>44197</v>
       </c>
       <c r="B593">
-        <v>7114200983</v>
+        <v>7114200950</v>
       </c>
       <c r="C593" t="inlineStr">
         <is>
@@ -11065,7 +11065,7 @@
         <v>44927</v>
       </c>
       <c r="B595">
-        <v>5405799790</v>
+        <v>5405232909</v>
       </c>
       <c r="C595" t="inlineStr">
         <is>
@@ -11083,7 +11083,7 @@
         <v>44197</v>
       </c>
       <c r="B596">
-        <v>11017807</v>
+        <v>11024154</v>
       </c>
       <c r="C596" t="inlineStr">
         <is>
@@ -11101,7 +11101,7 @@
         <v>44562</v>
       </c>
       <c r="B597">
-        <v>4907991</v>
+        <v>4909654</v>
       </c>
       <c r="C597" t="inlineStr">
         <is>
@@ -11119,7 +11119,7 @@
         <v>44927</v>
       </c>
       <c r="B598">
-        <v>8871377</v>
+        <v>8879962</v>
       </c>
       <c r="C598" t="inlineStr">
         <is>
@@ -11137,7 +11137,7 @@
         <v>44197</v>
       </c>
       <c r="B599">
-        <v>9360256</v>
+        <v>9360255</v>
       </c>
       <c r="C599" t="inlineStr">
         <is>
@@ -11155,7 +11155,7 @@
         <v>44562</v>
       </c>
       <c r="B600">
-        <v>11934603</v>
+        <v>11894721</v>
       </c>
       <c r="C600" t="inlineStr">
         <is>
@@ -11173,7 +11173,7 @@
         <v>44927</v>
       </c>
       <c r="B601">
-        <v>7497349</v>
+        <v>7533910</v>
       </c>
       <c r="C601" t="inlineStr">
         <is>
@@ -11245,7 +11245,7 @@
         <v>44197</v>
       </c>
       <c r="B605">
-        <v>1619505757</v>
+        <v>1618960261</v>
       </c>
       <c r="C605" t="inlineStr">
         <is>
@@ -11263,7 +11263,7 @@
         <v>44562</v>
       </c>
       <c r="B606">
-        <v>2064655858</v>
+        <v>2064020350</v>
       </c>
       <c r="C606" t="inlineStr">
         <is>
@@ -11281,7 +11281,7 @@
         <v>44927</v>
       </c>
       <c r="B607">
-        <v>68768675</v>
+        <v>68280200</v>
       </c>
       <c r="C607" t="inlineStr">
         <is>
@@ -11299,7 +11299,7 @@
         <v>44197</v>
       </c>
       <c r="B608">
-        <v>223647016</v>
+        <v>223966435</v>
       </c>
       <c r="C608" t="inlineStr">
         <is>
@@ -11317,7 +11317,7 @@
         <v>44562</v>
       </c>
       <c r="B609">
-        <v>237616198</v>
+        <v>238523235</v>
       </c>
       <c r="C609" t="inlineStr">
         <is>
@@ -11335,7 +11335,7 @@
         <v>44927</v>
       </c>
       <c r="B610">
-        <v>231455018</v>
+        <v>231949956</v>
       </c>
       <c r="C610" t="inlineStr">
         <is>
@@ -11353,7 +11353,7 @@
         <v>44197</v>
       </c>
       <c r="B611">
-        <v>123621777</v>
+        <v>124864093</v>
       </c>
       <c r="C611" t="inlineStr">
         <is>
@@ -11371,7 +11371,7 @@
         <v>44562</v>
       </c>
       <c r="B612">
-        <v>429489900</v>
+        <v>431068891</v>
       </c>
       <c r="C612" t="inlineStr">
         <is>
@@ -11389,7 +11389,7 @@
         <v>44927</v>
       </c>
       <c r="B613">
-        <v>498435254</v>
+        <v>499973209</v>
       </c>
       <c r="C613" t="inlineStr">
         <is>
@@ -11407,7 +11407,7 @@
         <v>44197</v>
       </c>
       <c r="B614">
-        <v>669673140</v>
+        <v>671473806</v>
       </c>
       <c r="C614" t="inlineStr">
         <is>
@@ -11425,7 +11425,7 @@
         <v>44562</v>
       </c>
       <c r="B615">
-        <v>657048147</v>
+        <v>660145475</v>
       </c>
       <c r="C615" t="inlineStr">
         <is>
@@ -11443,7 +11443,7 @@
         <v>44927</v>
       </c>
       <c r="B616">
-        <v>778285032</v>
+        <v>780714558</v>
       </c>
       <c r="C616" t="inlineStr">
         <is>
@@ -11461,7 +11461,7 @@
         <v>44197</v>
       </c>
       <c r="B617">
-        <v>252707205</v>
+        <v>248767067</v>
       </c>
       <c r="C617" t="inlineStr">
         <is>
@@ -11479,7 +11479,7 @@
         <v>44562</v>
       </c>
       <c r="B618">
-        <v>260254481</v>
+        <v>258039534</v>
       </c>
       <c r="C618" t="inlineStr">
         <is>
@@ -11497,7 +11497,7 @@
         <v>44927</v>
       </c>
       <c r="B619">
-        <v>242616846</v>
+        <v>240245042</v>
       </c>
       <c r="C619" t="inlineStr">
         <is>
@@ -11515,7 +11515,7 @@
         <v>44197</v>
       </c>
       <c r="B620">
-        <v>145507443</v>
+        <v>133675958</v>
       </c>
       <c r="C620" t="inlineStr">
         <is>
@@ -11533,7 +11533,7 @@
         <v>44562</v>
       </c>
       <c r="B621">
-        <v>168604439</v>
+        <v>155275106</v>
       </c>
       <c r="C621" t="inlineStr">
         <is>
@@ -11551,7 +11551,7 @@
         <v>44927</v>
       </c>
       <c r="B622">
-        <v>191584921</v>
+        <v>180609671</v>
       </c>
       <c r="C622" t="inlineStr">
         <is>
@@ -11569,7 +11569,7 @@
         <v>44197</v>
       </c>
       <c r="B623">
-        <v>186658935</v>
+        <v>190485266</v>
       </c>
       <c r="C623" t="inlineStr">
         <is>
@@ -11587,7 +11587,7 @@
         <v>44562</v>
       </c>
       <c r="B624">
-        <v>174653061</v>
+        <v>179516857</v>
       </c>
       <c r="C624" t="inlineStr">
         <is>
@@ -11605,7 +11605,7 @@
         <v>44927</v>
       </c>
       <c r="B625">
-        <v>154633289</v>
+        <v>160033328</v>
       </c>
       <c r="C625" t="inlineStr">
         <is>
@@ -11623,7 +11623,7 @@
         <v>44197</v>
       </c>
       <c r="B626">
-        <v>64914061.00000001</v>
+        <v>68659716</v>
       </c>
       <c r="C626" t="inlineStr">
         <is>
@@ -11641,7 +11641,7 @@
         <v>44562</v>
       </c>
       <c r="B627">
-        <v>66188657.00000001</v>
+        <v>66334588.99999999</v>
       </c>
       <c r="C627" t="inlineStr">
         <is>
@@ -11659,7 +11659,7 @@
         <v>44927</v>
       </c>
       <c r="B628">
-        <v>54258797</v>
+        <v>54206839</v>
       </c>
       <c r="C628" t="inlineStr">
         <is>
@@ -11677,7 +11677,7 @@
         <v>44197</v>
       </c>
       <c r="B629">
-        <v>525218985</v>
+        <v>525218986</v>
       </c>
       <c r="C629" t="inlineStr">
         <is>
@@ -11695,7 +11695,7 @@
         <v>44562</v>
       </c>
       <c r="B630">
-        <v>532029746.0000001</v>
+        <v>532098421.0000001</v>
       </c>
       <c r="C630" t="inlineStr">
         <is>
@@ -11713,7 +11713,7 @@
         <v>44927</v>
       </c>
       <c r="B631">
-        <v>631253798</v>
+        <v>631500522</v>
       </c>
       <c r="C631" t="inlineStr">
         <is>
@@ -11731,7 +11731,7 @@
         <v>44197</v>
       </c>
       <c r="B632">
-        <v>161407867</v>
+        <v>161390169</v>
       </c>
       <c r="C632" t="inlineStr">
         <is>
@@ -11749,7 +11749,7 @@
         <v>44562</v>
       </c>
       <c r="B633">
-        <v>170968114</v>
+        <v>170947568</v>
       </c>
       <c r="C633" t="inlineStr">
         <is>
@@ -11767,7 +11767,7 @@
         <v>44927</v>
       </c>
       <c r="B634">
-        <v>199793216</v>
+        <v>187744490</v>
       </c>
       <c r="C634" t="inlineStr">
         <is>
@@ -11785,7 +11785,7 @@
         <v>44197</v>
       </c>
       <c r="B635">
-        <v>1366072665</v>
+        <v>1365491182</v>
       </c>
       <c r="C635" t="inlineStr">
         <is>
@@ -11803,7 +11803,7 @@
         <v>44562</v>
       </c>
       <c r="B636">
-        <v>1291508643</v>
+        <v>1290914094</v>
       </c>
       <c r="C636" t="inlineStr">
         <is>
@@ -11821,7 +11821,7 @@
         <v>44927</v>
       </c>
       <c r="B637">
-        <v>786081811</v>
+        <v>802725264</v>
       </c>
       <c r="C637" t="inlineStr">
         <is>
@@ -11875,7 +11875,7 @@
         <v>44927</v>
       </c>
       <c r="B640">
-        <v>965023768</v>
+        <v>964998530</v>
       </c>
       <c r="C640" t="inlineStr">
         <is>
@@ -11893,7 +11893,7 @@
         <v>44197</v>
       </c>
       <c r="B641">
-        <v>1357640103</v>
+        <v>1357639994</v>
       </c>
       <c r="C641" t="inlineStr">
         <is>
@@ -11911,7 +11911,7 @@
         <v>44562</v>
       </c>
       <c r="B642">
-        <v>1543274612</v>
+        <v>1543274556</v>
       </c>
       <c r="C642" t="inlineStr">
         <is>
@@ -11929,7 +11929,7 @@
         <v>44927</v>
       </c>
       <c r="B643">
-        <v>1850016262</v>
+        <v>1896396794</v>
       </c>
       <c r="C643" t="inlineStr">
         <is>
@@ -11947,7 +11947,7 @@
         <v>44197</v>
       </c>
       <c r="B644">
-        <v>27349564</v>
+        <v>30730565</v>
       </c>
       <c r="C644" t="inlineStr">
         <is>
@@ -11965,7 +11965,7 @@
         <v>44562</v>
       </c>
       <c r="B645">
-        <v>15457180</v>
+        <v>16914472</v>
       </c>
       <c r="C645" t="inlineStr">
         <is>
@@ -11983,7 +11983,7 @@
         <v>44927</v>
       </c>
       <c r="B646">
-        <v>14702597</v>
+        <v>16168506</v>
       </c>
       <c r="C646" t="inlineStr">
         <is>
@@ -12001,7 +12001,7 @@
         <v>44197</v>
       </c>
       <c r="B647">
-        <v>26328379</v>
+        <v>26275019</v>
       </c>
       <c r="C647" t="inlineStr">
         <is>
@@ -12019,7 +12019,7 @@
         <v>44562</v>
       </c>
       <c r="B648">
-        <v>22129612</v>
+        <v>22046832</v>
       </c>
       <c r="C648" t="inlineStr">
         <is>
@@ -12037,7 +12037,7 @@
         <v>44927</v>
       </c>
       <c r="B649">
-        <v>10780649</v>
+        <v>10699557</v>
       </c>
       <c r="C649" t="inlineStr">
         <is>
@@ -12055,7 +12055,7 @@
         <v>44197</v>
       </c>
       <c r="B650">
-        <v>214561149</v>
+        <v>214776101</v>
       </c>
       <c r="C650" t="inlineStr">
         <is>
@@ -12073,7 +12073,7 @@
         <v>44562</v>
       </c>
       <c r="B651">
-        <v>199543302</v>
+        <v>199732430</v>
       </c>
       <c r="C651" t="inlineStr">
         <is>
@@ -12091,7 +12091,7 @@
         <v>44927</v>
       </c>
       <c r="B652">
-        <v>207770732</v>
+        <v>208065036</v>
       </c>
       <c r="C652" t="inlineStr">
         <is>
@@ -12109,7 +12109,7 @@
         <v>44197</v>
       </c>
       <c r="B653">
-        <v>491965560</v>
+        <v>498693014</v>
       </c>
       <c r="C653" t="inlineStr">
         <is>
@@ -12127,7 +12127,7 @@
         <v>44562</v>
       </c>
       <c r="B654">
-        <v>585731487</v>
+        <v>594750109</v>
       </c>
       <c r="C654" t="inlineStr">
         <is>
@@ -12145,7 +12145,7 @@
         <v>44927</v>
       </c>
       <c r="B655">
-        <v>474656998</v>
+        <v>480650314</v>
       </c>
       <c r="C655" t="inlineStr">
         <is>
@@ -12199,7 +12199,7 @@
         <v>44927</v>
       </c>
       <c r="B658">
-        <v>930006821</v>
+        <v>940260186</v>
       </c>
       <c r="C658" t="inlineStr">
         <is>
@@ -12217,7 +12217,7 @@
         <v>44197</v>
       </c>
       <c r="B659">
-        <v>9199446</v>
+        <v>9374280</v>
       </c>
       <c r="C659" t="inlineStr">
         <is>
@@ -12235,7 +12235,7 @@
         <v>44562</v>
       </c>
       <c r="B660">
-        <v>4045711</v>
+        <v>4216319</v>
       </c>
       <c r="C660" t="inlineStr">
         <is>
@@ -12253,7 +12253,7 @@
         <v>44927</v>
       </c>
       <c r="B661">
-        <v>3199802</v>
+        <v>3373859</v>
       </c>
       <c r="C661" t="inlineStr">
         <is>
@@ -12271,7 +12271,7 @@
         <v>44197</v>
       </c>
       <c r="B662">
-        <v>1904303</v>
+        <v>2485300</v>
       </c>
       <c r="C662" t="inlineStr">
         <is>
@@ -12289,7 +12289,7 @@
         <v>44562</v>
       </c>
       <c r="B663">
-        <v>4629958</v>
+        <v>6423752</v>
       </c>
       <c r="C663" t="inlineStr">
         <is>
@@ -12307,7 +12307,7 @@
         <v>44927</v>
       </c>
       <c r="B664">
-        <v>1355392</v>
+        <v>1899443</v>
       </c>
       <c r="C664" t="inlineStr">
         <is>
@@ -12325,7 +12325,7 @@
         <v>44197</v>
       </c>
       <c r="B665">
-        <v>72145825</v>
+        <v>72773485</v>
       </c>
       <c r="C665" t="inlineStr">
         <is>
@@ -12343,7 +12343,7 @@
         <v>44562</v>
       </c>
       <c r="B666">
-        <v>99050176</v>
+        <v>99955951</v>
       </c>
       <c r="C666" t="inlineStr">
         <is>
@@ -12361,7 +12361,7 @@
         <v>44927</v>
       </c>
       <c r="B667">
-        <v>98978986</v>
+        <v>99710056</v>
       </c>
       <c r="C667" t="inlineStr">
         <is>
@@ -12379,7 +12379,7 @@
         <v>44197</v>
       </c>
       <c r="B668">
-        <v>2088292949</v>
+        <v>2088186050</v>
       </c>
       <c r="C668" t="inlineStr">
         <is>
@@ -12397,7 +12397,7 @@
         <v>44562</v>
       </c>
       <c r="B669">
-        <v>2031264595</v>
+        <v>2030828487</v>
       </c>
       <c r="C669" t="inlineStr">
         <is>
@@ -12415,7 +12415,7 @@
         <v>44927</v>
       </c>
       <c r="B670">
-        <v>2221770114</v>
+        <v>2220905210</v>
       </c>
       <c r="C670" t="inlineStr">
         <is>
@@ -12433,7 +12433,7 @@
         <v>44197</v>
       </c>
       <c r="B671">
-        <v>468649954</v>
+        <v>468650059</v>
       </c>
       <c r="C671" t="inlineStr">
         <is>
@@ -12451,7 +12451,7 @@
         <v>44562</v>
       </c>
       <c r="B672">
-        <v>480398693</v>
+        <v>480398846</v>
       </c>
       <c r="C672" t="inlineStr">
         <is>
@@ -12469,7 +12469,7 @@
         <v>44927</v>
       </c>
       <c r="B673">
-        <v>309378501</v>
+        <v>406327930</v>
       </c>
       <c r="C673" t="inlineStr">
         <is>
@@ -12487,7 +12487,7 @@
         <v>44197</v>
       </c>
       <c r="B674">
-        <v>316503292</v>
+        <v>316503768</v>
       </c>
       <c r="C674" t="inlineStr">
         <is>
@@ -12505,7 +12505,7 @@
         <v>44562</v>
       </c>
       <c r="B675">
-        <v>381406967</v>
+        <v>381470731</v>
       </c>
       <c r="C675" t="inlineStr">
         <is>
@@ -12523,7 +12523,7 @@
         <v>44927</v>
       </c>
       <c r="B676">
-        <v>348074484</v>
+        <v>348291183</v>
       </c>
       <c r="C676" t="inlineStr">
         <is>
@@ -12541,7 +12541,7 @@
         <v>44197</v>
       </c>
       <c r="B677">
-        <v>5491325008407</v>
+        <v>5493550953609</v>
       </c>
       <c r="C677" t="inlineStr">
         <is>
@@ -12559,7 +12559,7 @@
         <v>44562</v>
       </c>
       <c r="B678">
-        <v>5932186835085</v>
+        <v>5932665421308</v>
       </c>
       <c r="C678" t="inlineStr">
         <is>
@@ -12577,7 +12577,7 @@
         <v>44927</v>
       </c>
       <c r="B679">
-        <v>5912281209454</v>
+        <v>5945242154489</v>
       </c>
       <c r="C679" t="inlineStr">
         <is>
@@ -12595,7 +12595,7 @@
         <v>44197</v>
       </c>
       <c r="B680">
-        <v>1160326500219</v>
+        <v>1213960545559</v>
       </c>
       <c r="C680" t="inlineStr">
         <is>
@@ -12613,7 +12613,7 @@
         <v>44562</v>
       </c>
       <c r="B681">
-        <v>1630349249293</v>
+        <v>1708178282026</v>
       </c>
       <c r="C681" t="inlineStr">
         <is>
@@ -12631,7 +12631,7 @@
         <v>44927</v>
       </c>
       <c r="B682">
-        <v>1431300157822</v>
+        <v>1529805289552</v>
       </c>
       <c r="C682" t="inlineStr">
         <is>
